--- a/data/new_posteriors/elementary_skills/simple_model/noleak/unconstrained/results_model1b_noleak_unconstrained.xlsx
+++ b/data/new_posteriors/elementary_skills/simple_model/noleak/unconstrained/results_model1b_noleak_unconstrained.xlsx
@@ -1570,10 +1570,10 @@
         <v>1.0</v>
       </c>
       <c r="J3" t="n" s="85">
-        <v>1.0895004906535551E-6</v>
+        <v>1.0894584777671702E-6</v>
       </c>
       <c r="K3" t="n" s="85">
-        <v>1.0895004906535551E-6</v>
+        <v>1.0894584777671702E-6</v>
       </c>
       <c r="L3" t="n" s="85">
         <v>1.0</v>
@@ -1603,16 +1603,16 @@
         <v>1.0</v>
       </c>
       <c r="U3" t="n" s="85">
-        <v>1.0603481672057402E-6</v>
+        <v>1.0186673969422303E-6</v>
       </c>
       <c r="V3" t="n" s="85">
         <v>0.005520426861036511</v>
       </c>
       <c r="W3" t="n" s="85">
-        <v>9.441622245400955E-7</v>
+        <v>9.070485182272371E-7</v>
       </c>
       <c r="X3" t="n" s="85">
-        <v>9.441622245400955E-7</v>
+        <v>9.070485182272367E-7</v>
       </c>
       <c r="Y3" t="n" s="85">
         <v>0.36326311183313503</v>
@@ -1627,25 +1627,25 @@
         <v>0.16946059421487553</v>
       </c>
       <c r="AC3" t="n" s="85">
-        <v>2.0913916889885144E-5</v>
+        <v>2.0913920118448712E-5</v>
       </c>
       <c r="AD3" t="n" s="85">
-        <v>2.0913916889885144E-5</v>
+        <v>2.0913920118448712E-5</v>
       </c>
       <c r="AE3" t="n" s="85">
-        <v>2.6562205227615375E-6</v>
+        <v>2.656220932811077E-6</v>
       </c>
       <c r="AF3" t="n" s="85">
-        <v>2.6562205227615375E-6</v>
+        <v>2.656220932811077E-6</v>
       </c>
       <c r="AG3" t="n" s="85">
-        <v>3.757153981692564E-8</v>
+        <v>3.7571545616960976E-8</v>
       </c>
       <c r="AH3" t="n" s="85">
         <v>0.010631683855047666</v>
       </c>
       <c r="AI3" t="n" s="85">
-        <v>6.285663074607883E-5</v>
+        <v>6.285664044978535E-5</v>
       </c>
       <c r="AJ3" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -1654,7 +1654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL3" t="n" s="85">
-        <v>0.9943929670833586</v>
+        <v>0.9941822653309172</v>
       </c>
       <c r="AM3" t="n" s="85">
         <v>0.6749704831455141</v>
@@ -1663,13 +1663,13 @@
         <v>0.9547694788384916</v>
       </c>
       <c r="AO3" t="n" s="85">
-        <v>0.9999785704635759</v>
+        <v>0.9999794039595586</v>
       </c>
       <c r="AP3" t="n" s="85">
         <v>0.7584620943822388</v>
       </c>
       <c r="AQ3" t="n" s="85">
-        <v>0.9801099614018105</v>
+        <v>0.9801028419107325</v>
       </c>
       <c r="AR3" t="n" s="85">
         <v>1.0</v>
@@ -1695,10 +1695,10 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="n" s="85">
-        <v>5.482469719127525E-7</v>
+        <v>5.482362350379484E-7</v>
       </c>
       <c r="K4" t="n" s="85">
-        <v>5.482469719127525E-7</v>
+        <v>5.482362350379484E-7</v>
       </c>
       <c r="L4" t="n" s="85">
         <v>1.0</v>
@@ -1728,16 +1728,16 @@
         <v>0.005195581433257516</v>
       </c>
       <c r="U4" t="n" s="85">
-        <v>6.895585607895072E-6</v>
+        <v>6.857918066556697E-6</v>
       </c>
       <c r="V4" t="n" s="85">
         <v>0.00797398694253255</v>
       </c>
       <c r="W4" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="X4" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="Y4" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -1752,16 +1752,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC4" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD4" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE4" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF4" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG4" t="n" s="85">
         <v>1.0</v>
@@ -1770,7 +1770,7 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI4" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ4" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -1779,7 +1779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL4" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM4" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -1788,7 +1788,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO4" t="n" s="85">
-        <v>0.9999992775185319</v>
+        <v>0.9999993240336584</v>
       </c>
       <c r="AP4" t="n" s="85">
         <v>0.8516409323597693</v>
@@ -1820,10 +1820,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n" s="85">
-        <v>5.132585899083064E-5</v>
+        <v>5.1324853875675555E-5</v>
       </c>
       <c r="K5" t="n" s="85">
-        <v>5.132585899083064E-5</v>
+        <v>5.1324853875675555E-5</v>
       </c>
       <c r="L5" t="n" s="85">
         <v>1.0</v>
@@ -1853,16 +1853,16 @@
         <v>0.016511228067222595</v>
       </c>
       <c r="U5" t="n" s="85">
-        <v>8.996216068995476E-6</v>
+        <v>8.947073813066908E-6</v>
       </c>
       <c r="V5" t="n" s="85">
         <v>0.012258601874451821</v>
       </c>
       <c r="W5" t="n" s="85">
-        <v>8.018531099255349E-6</v>
+        <v>7.974729405505125E-6</v>
       </c>
       <c r="X5" t="n" s="85">
-        <v>8.018531099255349E-6</v>
+        <v>7.974729405505125E-6</v>
       </c>
       <c r="Y5" t="n" s="85">
         <v>0.36296712898219324</v>
@@ -1877,16 +1877,16 @@
         <v>0.17270135755246224</v>
       </c>
       <c r="AC5" t="n" s="85">
-        <v>1.6001377600423862E-4</v>
+        <v>1.6001377987522262E-4</v>
       </c>
       <c r="AD5" t="n" s="85">
-        <v>1.6001377600423857E-4</v>
+        <v>1.6001377987522256E-4</v>
       </c>
       <c r="AE5" t="n" s="85">
-        <v>2.335235947720621E-5</v>
+        <v>2.3352360042198555E-5</v>
       </c>
       <c r="AF5" t="n" s="85">
-        <v>2.335235947720621E-5</v>
+        <v>2.3352360042198555E-5</v>
       </c>
       <c r="AG5" t="n" s="85">
         <v>1.0</v>
@@ -1895,7 +1895,7 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI5" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ5" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -1904,7 +1904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL5" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM5" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -1913,7 +1913,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO5" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP5" t="n" s="85">
         <v>0.9138984359801405</v>
@@ -1984,10 +1984,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W6" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="X6" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="Y6" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -2002,16 +2002,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC6" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD6" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE6" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF6" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG6" t="n" s="85">
         <v>1.0</v>
@@ -2020,7 +2020,7 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI6" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ6" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2029,7 +2029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL6" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM6" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -2038,7 +2038,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO6" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP6" t="n" s="85">
         <v>0.9389893343444584</v>
@@ -2070,10 +2070,10 @@
         <v>1.0</v>
       </c>
       <c r="J7" t="n" s="85">
-        <v>3.6470306332993776E-5</v>
+        <v>3.646959212376467E-5</v>
       </c>
       <c r="K7" t="n" s="85">
-        <v>3.6470306332993776E-5</v>
+        <v>3.646959212376467E-5</v>
       </c>
       <c r="L7" t="n" s="85">
         <v>1.0</v>
@@ -2109,10 +2109,10 @@
         <v>0.004816509271477618</v>
       </c>
       <c r="W7" t="n" s="85">
-        <v>2.6673686395884693E-6</v>
+        <v>2.702197033796305E-6</v>
       </c>
       <c r="X7" t="n" s="85">
-        <v>2.6673686395884697E-6</v>
+        <v>2.7021970337963053E-6</v>
       </c>
       <c r="Y7" t="n" s="85">
         <v>0.26206922360453</v>
@@ -2127,25 +2127,25 @@
         <v>0.12080363525376908</v>
       </c>
       <c r="AC7" t="n" s="85">
-        <v>5.225382169667064E-5</v>
+        <v>5.337128309692656E-5</v>
       </c>
       <c r="AD7" t="n" s="85">
-        <v>5.2253821696670635E-5</v>
+        <v>5.3371283096926545E-5</v>
       </c>
       <c r="AE7" t="n" s="85">
-        <v>7.625472236975629E-6</v>
+        <v>7.788548001730791E-6</v>
       </c>
       <c r="AF7" t="n" s="85">
-        <v>7.625472236975631E-6</v>
+        <v>7.788548001730793E-6</v>
       </c>
       <c r="AG7" t="n" s="85">
-        <v>7.484899577486952E-8</v>
+        <v>7.644969591600491E-8</v>
       </c>
       <c r="AH7" t="n" s="85">
         <v>0.011046708303299065</v>
       </c>
       <c r="AI7" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ7" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2154,7 +2154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL7" t="n" s="85">
-        <v>0.9968088971033306</v>
+        <v>0.9965724724071601</v>
       </c>
       <c r="AM7" t="n" s="85">
         <v>0.7324794792380951</v>
@@ -2163,7 +2163,7 @@
         <v>0.9842974515053341</v>
       </c>
       <c r="AO7" t="n" s="85">
-        <v>0.9999997781070458</v>
+        <v>0.9999997923930644</v>
       </c>
       <c r="AP7" t="n" s="85">
         <v>0.9044588161984989</v>
@@ -2195,10 +2195,10 @@
         <v>1.0</v>
       </c>
       <c r="J8" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="K8" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="L8" t="n" s="85">
         <v>1.0</v>
@@ -2228,16 +2228,16 @@
         <v>0.0016108314648964862</v>
       </c>
       <c r="U8" t="n" s="85">
-        <v>5.95776469769375E-7</v>
+        <v>5.801158413367406E-7</v>
       </c>
       <c r="V8" t="n" s="85">
         <v>0.0026108272062360985</v>
       </c>
       <c r="W8" t="n" s="85">
-        <v>9.506308948292502E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="X8" t="n" s="85">
-        <v>9.506308948292503E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="Y8" t="n" s="85">
         <v>0.2180821619662109</v>
@@ -2252,25 +2252,25 @@
         <v>0.09730750578087043</v>
       </c>
       <c r="AC8" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.226930622300881E-5</v>
       </c>
       <c r="AD8" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.2269306223008817E-5</v>
       </c>
       <c r="AE8" t="n" s="85">
-        <v>2.8283631772555973E-6</v>
+        <v>2.8283634787157663E-6</v>
       </c>
       <c r="AF8" t="n" s="85">
-        <v>2.8283631772555965E-6</v>
+        <v>2.8283634787157655E-6</v>
       </c>
       <c r="AG8" t="n" s="85">
-        <v>2.1396434598395317E-8</v>
+        <v>2.139643687892442E-8</v>
       </c>
       <c r="AH8" t="n" s="85">
         <v>0.010190284087274005</v>
       </c>
       <c r="AI8" t="n" s="85">
-        <v>7.648986226281382E-5</v>
+        <v>7.648987041565721E-5</v>
       </c>
       <c r="AJ8" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2279,7 +2279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL8" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM8" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -2288,7 +2288,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO8" t="n" s="85">
-        <v>0.9999992775185319</v>
+        <v>0.9999993240336584</v>
       </c>
       <c r="AP8" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -2297,7 +2297,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AR8" t="n" s="85">
-        <v>0.9999842359266616</v>
+        <v>0.9999852249546308</v>
       </c>
     </row>
     <row r="9">
@@ -2359,10 +2359,10 @@
         <v>0.004233453605728432</v>
       </c>
       <c r="W9" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="X9" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="Y9" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -2377,16 +2377,16 @@
         <v>0.14653757841843018</v>
       </c>
       <c r="AC9" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AD9" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AE9" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AF9" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AG9" t="n" s="85">
         <v>1.0</v>
@@ -2395,7 +2395,7 @@
         <v>0.01962615793400581</v>
       </c>
       <c r="AI9" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ9" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2404,7 +2404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL9" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM9" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -2413,7 +2413,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO9" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP9" t="n" s="85">
         <v>0.9627368853578661</v>
@@ -2445,10 +2445,10 @@
         <v>0.0016097466635500203</v>
       </c>
       <c r="J10" t="n" s="85">
-        <v>3.2809719337445896E-6</v>
+        <v>3.280907679329285E-6</v>
       </c>
       <c r="K10" t="n" s="85">
-        <v>3.2809719337445896E-6</v>
+        <v>3.280907679329285E-6</v>
       </c>
       <c r="L10" t="n" s="85">
         <v>1.0</v>
@@ -2484,10 +2484,10 @@
         <v>0.004057158004260733</v>
       </c>
       <c r="W10" t="n" s="85">
-        <v>3.194999504941904E-6</v>
+        <v>3.203715924393139E-6</v>
       </c>
       <c r="X10" t="n" s="85">
-        <v>3.194999504941904E-6</v>
+        <v>3.203715924393139E-6</v>
       </c>
       <c r="Y10" t="n" s="85">
         <v>0.23039493774313574</v>
@@ -2502,16 +2502,16 @@
         <v>0.14086491017305847</v>
       </c>
       <c r="AC10" t="n" s="85">
-        <v>5.603201983448569E-5</v>
+        <v>5.627773952082959E-5</v>
       </c>
       <c r="AD10" t="n" s="85">
-        <v>5.603201983448569E-5</v>
+        <v>5.627773952082959E-5</v>
       </c>
       <c r="AE10" t="n" s="85">
-        <v>8.369940556308919E-6</v>
+        <v>8.406646378267773E-6</v>
       </c>
       <c r="AF10" t="n" s="85">
-        <v>8.369940556308919E-6</v>
+        <v>8.406646378267773E-6</v>
       </c>
       <c r="AG10" t="n" s="85">
         <v>1.0</v>
@@ -2520,7 +2520,7 @@
         <v>0.01962615793400581</v>
       </c>
       <c r="AI10" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ10" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2529,7 +2529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL10" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM10" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -2538,7 +2538,7 @@
         <v>0.9797479520785931</v>
       </c>
       <c r="AO10" t="n" s="85">
-        <v>0.9999998014134415</v>
+        <v>0.9999998141989367</v>
       </c>
       <c r="AP10" t="n" s="85">
         <v>0.904559501439719</v>
@@ -2609,10 +2609,10 @@
         <v>0.0037963405796699683</v>
       </c>
       <c r="W11" t="n" s="85">
-        <v>2.2396133734919676E-6</v>
+        <v>2.245723367638503E-6</v>
       </c>
       <c r="X11" t="n" s="85">
-        <v>2.2396133734919676E-6</v>
+        <v>2.245723367638503E-6</v>
       </c>
       <c r="Y11" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -2627,16 +2627,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC11" t="n" s="85">
-        <v>4.346574716333924E-5</v>
+        <v>4.3656361826170374E-5</v>
       </c>
       <c r="AD11" t="n" s="85">
-        <v>4.346574716333924E-5</v>
+        <v>4.3656361826170374E-5</v>
       </c>
       <c r="AE11" t="n" s="85">
-        <v>6.443948149792241E-6</v>
+        <v>6.472207713819551E-6</v>
       </c>
       <c r="AF11" t="n" s="85">
-        <v>6.443948149792241E-6</v>
+        <v>6.472207713819551E-6</v>
       </c>
       <c r="AG11" t="n" s="85">
         <v>1.0</v>
@@ -2645,7 +2645,7 @@
         <v>0.01782122575434258</v>
       </c>
       <c r="AI11" t="n" s="85">
-        <v>1.9259459490402625E-4</v>
+        <v>1.9343914612342296E-4</v>
       </c>
       <c r="AJ11" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2654,7 +2654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL11" t="n" s="85">
-        <v>0.9885608448928871</v>
+        <v>0.9880074134669964</v>
       </c>
       <c r="AM11" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -2663,7 +2663,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO11" t="n" s="85">
-        <v>0.9999966120108704</v>
+        <v>0.9999967590353173</v>
       </c>
       <c r="AP11" t="n" s="85">
         <v>0.936536743839073</v>
@@ -2695,10 +2695,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n" s="85">
-        <v>7.403856142365976E-5</v>
+        <v>7.403711155820515E-5</v>
       </c>
       <c r="K12" t="n" s="85">
-        <v>7.403856142365976E-5</v>
+        <v>7.403711155820515E-5</v>
       </c>
       <c r="L12" t="n" s="85">
         <v>1.0</v>
@@ -2734,10 +2734,10 @@
         <v>0.004233453605728432</v>
       </c>
       <c r="W12" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="X12" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="Y12" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -2752,16 +2752,16 @@
         <v>0.14653757841843018</v>
       </c>
       <c r="AC12" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AD12" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AE12" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AF12" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AG12" t="n" s="85">
         <v>1.0</v>
@@ -2770,7 +2770,7 @@
         <v>0.01962615793400581</v>
       </c>
       <c r="AI12" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ12" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2779,7 +2779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL12" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM12" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -2788,7 +2788,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO12" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP12" t="n" s="85">
         <v>0.9627368853578661</v>
@@ -2859,10 +2859,10 @@
         <v>0.00425846305469567</v>
       </c>
       <c r="W13" t="n" s="85">
-        <v>3.4022874760128325E-6</v>
+        <v>3.395024983560826E-6</v>
       </c>
       <c r="X13" t="n" s="85">
-        <v>3.4022874760128325E-6</v>
+        <v>3.395024983560826E-6</v>
       </c>
       <c r="Y13" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -2877,16 +2877,16 @@
         <v>0.13910591792070565</v>
       </c>
       <c r="AC13" t="n" s="85">
-        <v>5.3231330554480976E-5</v>
+        <v>5.309710841433242E-5</v>
       </c>
       <c r="AD13" t="n" s="85">
-        <v>5.3231330554480956E-5</v>
+        <v>5.30971084143324E-5</v>
       </c>
       <c r="AE13" t="n" s="85">
-        <v>8.265710582187012E-6</v>
+        <v>8.24486845380321E-6</v>
       </c>
       <c r="AF13" t="n" s="85">
-        <v>8.265710582187012E-6</v>
+        <v>8.24486845380321E-6</v>
       </c>
       <c r="AG13" t="n" s="85">
         <v>1.0</v>
@@ -2895,7 +2895,7 @@
         <v>0.025859093693606866</v>
       </c>
       <c r="AI13" t="n" s="85">
-        <v>2.1281261998789397E-4</v>
+        <v>2.122760442640536E-4</v>
       </c>
       <c r="AJ13" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -2904,7 +2904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL13" t="n" s="85">
-        <v>0.7916179955001852</v>
+        <v>0.7933784268844374</v>
       </c>
       <c r="AM13" t="n" s="85">
         <v>0.7376421550530808</v>
@@ -2913,13 +2913,13 @@
         <v>0.9835622249405107</v>
       </c>
       <c r="AO13" t="n" s="85">
-        <v>0.9841186997103947</v>
+        <v>0.9840451773133746</v>
       </c>
       <c r="AP13" t="n" s="85">
         <v>0.9781616014951625</v>
       </c>
       <c r="AQ13" t="n" s="85">
-        <v>0.9999922139280313</v>
+        <v>0.9999922121292638</v>
       </c>
       <c r="AR13" t="n" s="85">
         <v>1.0</v>
@@ -2984,7 +2984,7 @@
         <v>0.0035127856847350907</v>
       </c>
       <c r="W14" t="n" s="85">
-        <v>2.09258636290494E-6</v>
+        <v>2.099159097144093E-6</v>
       </c>
       <c r="X14" t="n" s="85">
         <v>1.0</v>
@@ -3002,16 +3002,16 @@
         <v>0.10474364255508287</v>
       </c>
       <c r="AC14" t="n" s="85">
-        <v>4.0197164037856434E-5</v>
+        <v>4.035559350784089E-5</v>
       </c>
       <c r="AD14" t="n" s="85">
-        <v>4.019716403785644E-5</v>
+        <v>4.035559350784089E-5</v>
       </c>
       <c r="AE14" t="n" s="85">
-        <v>6.025977604714368E-6</v>
+        <v>6.049728009454543E-6</v>
       </c>
       <c r="AF14" t="n" s="85">
-        <v>6.025977604714368E-6</v>
+        <v>6.049728009454543E-6</v>
       </c>
       <c r="AG14" t="n" s="85">
         <v>1.0</v>
@@ -3020,7 +3020,7 @@
         <v>0.013292914877436937</v>
       </c>
       <c r="AI14" t="n" s="85">
-        <v>1.445807357712683E-4</v>
+        <v>1.4515056337775998E-4</v>
       </c>
       <c r="AJ14" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3044,10 +3044,10 @@
         <v>0.840804709784475</v>
       </c>
       <c r="AQ14" t="n" s="85">
-        <v>0.9909859596403675</v>
+        <v>0.9909806328772675</v>
       </c>
       <c r="AR14" t="n" s="85">
-        <v>0.9062625636804701</v>
+        <v>0.9060627552043072</v>
       </c>
     </row>
     <row r="15">
@@ -3070,10 +3070,10 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n" s="85">
-        <v>5.181266627961935E-7</v>
+        <v>5.181066829896294E-7</v>
       </c>
       <c r="K15" t="n" s="85">
-        <v>5.181266627961935E-7</v>
+        <v>5.181066829896294E-7</v>
       </c>
       <c r="L15" t="n" s="85">
         <v>1.0</v>
@@ -3103,16 +3103,16 @@
         <v>0.0049335965480433565</v>
       </c>
       <c r="U15" t="n" s="85">
-        <v>5.811486525781718E-6</v>
+        <v>5.752226338307416E-6</v>
       </c>
       <c r="V15" t="n" s="85">
         <v>0.007572638394110116</v>
       </c>
       <c r="W15" t="n" s="85">
-        <v>8.887165003006089E-6</v>
+        <v>8.796542059765751E-6</v>
       </c>
       <c r="X15" t="n" s="85">
-        <v>8.887165003006089E-6</v>
+        <v>8.796542059765751E-6</v>
       </c>
       <c r="Y15" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -3127,16 +3127,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC15" t="n" s="85">
-        <v>7.46355386780963E-5</v>
+        <v>7.463554202441363E-5</v>
       </c>
       <c r="AD15" t="n" s="85">
-        <v>7.46355386780963E-5</v>
+        <v>7.463554202441363E-5</v>
       </c>
       <c r="AE15" t="n" s="85">
-        <v>1.0371660280520822E-5</v>
+        <v>1.0371660745556432E-5</v>
       </c>
       <c r="AF15" t="n" s="85">
-        <v>1.0371660280520822E-5</v>
+        <v>1.0371660745556432E-5</v>
       </c>
       <c r="AG15" t="n" s="85">
         <v>1.0</v>
@@ -3145,7 +3145,7 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI15" t="n" s="85">
-        <v>1.1738926438924713E-4</v>
+        <v>1.173892696526621E-4</v>
       </c>
       <c r="AJ15" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3154,7 +3154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL15" t="n" s="85">
-        <v>0.9905338361403787</v>
+        <v>0.9898372401801898</v>
       </c>
       <c r="AM15" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -3163,13 +3163,13 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO15" t="n" s="85">
-        <v>0.9998198610036262</v>
+        <v>0.9998314568465635</v>
       </c>
       <c r="AP15" t="n" s="85">
         <v>0.8516409323597693</v>
       </c>
       <c r="AQ15" t="n" s="85">
-        <v>0.9950943348304208</v>
+        <v>0.9950914238478623</v>
       </c>
       <c r="AR15" t="n" s="85">
         <v>1.0</v>
@@ -3234,10 +3234,10 @@
         <v>0.004982639266550232</v>
       </c>
       <c r="W16" t="n" s="85">
-        <v>3.6385012219650027E-6</v>
+        <v>3.648427573650339E-6</v>
       </c>
       <c r="X16" t="n" s="85">
-        <v>3.6385012219650027E-6</v>
+        <v>3.648427573650339E-6</v>
       </c>
       <c r="Y16" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -3252,16 +3252,16 @@
         <v>0.13910591792070565</v>
       </c>
       <c r="AC16" t="n" s="85">
-        <v>5.905539800689271E-5</v>
+        <v>5.931437546033276E-5</v>
       </c>
       <c r="AD16" t="n" s="85">
-        <v>5.9055398006892685E-5</v>
+        <v>5.931437546033275E-5</v>
       </c>
       <c r="AE16" t="n" s="85">
-        <v>8.821572314520827E-6</v>
+        <v>8.860258720202356E-6</v>
       </c>
       <c r="AF16" t="n" s="85">
-        <v>8.821572314520827E-6</v>
+        <v>8.860258720202356E-6</v>
       </c>
       <c r="AG16" t="n" s="85">
         <v>1.0</v>
@@ -3270,7 +3270,7 @@
         <v>0.01912755094291193</v>
       </c>
       <c r="AI16" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ16" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3297,7 +3297,7 @@
         <v>0.9999866518880294</v>
       </c>
       <c r="AR16" t="n" s="85">
-        <v>0.9999996841922614</v>
+        <v>0.9999996836379544</v>
       </c>
     </row>
     <row r="17">
@@ -3353,16 +3353,16 @@
         <v>0.005195581433257516</v>
       </c>
       <c r="U17" t="n" s="85">
-        <v>1.1803321600224584E-5</v>
+        <v>1.2153660721638994E-5</v>
       </c>
       <c r="V17" t="n" s="85">
         <v>0.00797398694253255</v>
       </c>
       <c r="W17" t="n" s="85">
-        <v>1.8050076740002097E-5</v>
+        <v>1.8585825539471777E-5</v>
       </c>
       <c r="X17" t="n" s="85">
-        <v>1.8050076740002097E-5</v>
+        <v>1.8585825539471777E-5</v>
       </c>
       <c r="Y17" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -3377,16 +3377,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC17" t="n" s="85">
-        <v>1.5015774052862184E-4</v>
+        <v>1.501577154442928E-4</v>
       </c>
       <c r="AD17" t="n" s="85">
-        <v>1.5015774052862184E-4</v>
+        <v>1.501577154442928E-4</v>
       </c>
       <c r="AE17" t="n" s="85">
-        <v>2.1913846276320666E-5</v>
+        <v>2.1913842615205456E-5</v>
       </c>
       <c r="AF17" t="n" s="85">
-        <v>2.1913846276320666E-5</v>
+        <v>2.1913842615205456E-5</v>
       </c>
       <c r="AG17" t="n" s="85">
         <v>1.0</v>
@@ -3395,7 +3395,7 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI17" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ17" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3404,7 +3404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL17" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM17" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -3413,7 +3413,7 @@
         <v>0.9797479520785931</v>
       </c>
       <c r="AO17" t="n" s="85">
-        <v>0.9999998115631991</v>
+        <v>0.999999823695228</v>
       </c>
       <c r="AP17" t="n" s="85">
         <v>0.9008759257372883</v>
@@ -3484,10 +3484,10 @@
         <v>0.006358346196356478</v>
       </c>
       <c r="W18" t="n" s="85">
-        <v>4.392415600633211E-6</v>
+        <v>4.323935644907154E-6</v>
       </c>
       <c r="X18" t="n" s="85">
-        <v>4.392415600633211E-6</v>
+        <v>4.323935644907154E-6</v>
       </c>
       <c r="Y18" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3502,16 +3502,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC18" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD18" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE18" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF18" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG18" t="n" s="85">
         <v>1.0</v>
@@ -3520,7 +3520,7 @@
         <v>0.017324580832454656</v>
       </c>
       <c r="AI18" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ18" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3529,7 +3529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL18" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM18" t="n" s="85">
         <v>0.777423483858662</v>
@@ -3538,7 +3538,7 @@
         <v>0.992936562550551</v>
       </c>
       <c r="AO18" t="n" s="85">
-        <v>0.9999999966836344</v>
+        <v>0.9999999968971501</v>
       </c>
       <c r="AP18" t="n" s="85">
         <v>0.964333109269324</v>
@@ -3609,10 +3609,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W19" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="X19" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="Y19" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3627,16 +3627,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC19" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD19" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE19" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF19" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG19" t="n" s="85">
         <v>1.0</v>
@@ -3645,7 +3645,7 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI19" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ19" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3654,7 +3654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL19" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM19" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -3663,7 +3663,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO19" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP19" t="n" s="85">
         <v>0.9389893343444584</v>
@@ -3695,7 +3695,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n" s="85">
-        <v>1.199964840620925E-6</v>
+        <v>1.199960106661071E-6</v>
       </c>
       <c r="K20" t="n" s="85">
         <v>1.0</v>
@@ -3734,10 +3734,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W20" t="n" s="85">
-        <v>2.9809253900438345E-6</v>
+        <v>2.9890577861802807E-6</v>
       </c>
       <c r="X20" t="n" s="85">
-        <v>2.9809253900438345E-6</v>
+        <v>2.9890577861802807E-6</v>
       </c>
       <c r="Y20" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3752,16 +3752,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC20" t="n" s="85">
-        <v>5.7422424670731266E-5</v>
+        <v>5.7674241409006585E-5</v>
       </c>
       <c r="AD20" t="n" s="85">
-        <v>5.7422424670731225E-5</v>
+        <v>5.767424140900653E-5</v>
       </c>
       <c r="AE20" t="n" s="85">
-        <v>8.577633928602028E-6</v>
+        <v>8.615250568291875E-6</v>
       </c>
       <c r="AF20" t="n" s="85">
-        <v>8.577633928602028E-6</v>
+        <v>8.615250568291875E-6</v>
       </c>
       <c r="AG20" t="n" s="85">
         <v>1.0</v>
@@ -3770,7 +3770,7 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI20" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ20" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3779,7 +3779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL20" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM20" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -3788,7 +3788,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO20" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP20" t="n" s="85">
         <v>0.9138984359801405</v>
@@ -3859,10 +3859,10 @@
         <v>0.006358346196356478</v>
       </c>
       <c r="W21" t="n" s="85">
-        <v>5.916661478514723E-6</v>
+        <v>5.824417905734578E-6</v>
       </c>
       <c r="X21" t="n" s="85">
-        <v>5.916661478514723E-6</v>
+        <v>5.824417905734578E-6</v>
       </c>
       <c r="Y21" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3877,16 +3877,16 @@
         <v>0.16053129135546637</v>
       </c>
       <c r="AC21" t="n" s="85">
-        <v>8.822062554150632E-5</v>
+        <v>8.615894147850815E-5</v>
       </c>
       <c r="AD21" t="n" s="85">
-        <v>8.822062554150627E-5</v>
+        <v>8.615894147850808E-5</v>
       </c>
       <c r="AE21" t="n" s="85">
-        <v>1.3178406494511474E-5</v>
+        <v>1.2870418268827279E-5</v>
       </c>
       <c r="AF21" t="n" s="85">
-        <v>1.3178406494511474E-5</v>
+        <v>1.2870418268827279E-5</v>
       </c>
       <c r="AG21" t="n" s="85">
         <v>1.0</v>
@@ -3895,7 +3895,7 @@
         <v>0.02325994819340154</v>
       </c>
       <c r="AI21" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ21" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -3904,7 +3904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL21" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM21" t="n" s="85">
         <v>0.777423483858662</v>
@@ -3913,7 +3913,7 @@
         <v>0.992936562550551</v>
       </c>
       <c r="AO21" t="n" s="85">
-        <v>0.9999999966836344</v>
+        <v>0.9999999968971501</v>
       </c>
       <c r="AP21" t="n" s="85">
         <v>0.9770765030198257</v>
@@ -3978,16 +3978,16 @@
         <v>1.0</v>
       </c>
       <c r="U22" t="n" s="85">
-        <v>5.19243670973778E-6</v>
+        <v>5.164072671231425E-6</v>
       </c>
       <c r="V22" t="n" s="85">
         <v>0.004881506241407169</v>
       </c>
       <c r="W22" t="n" s="85">
-        <v>6.769228423276335E-6</v>
+        <v>6.732251072305964E-6</v>
       </c>
       <c r="X22" t="n" s="85">
-        <v>6.769228423276335E-6</v>
+        <v>6.732251072305964E-6</v>
       </c>
       <c r="Y22" t="n" s="85">
         <v>0.2620691910520561</v>
@@ -4002,16 +4002,16 @@
         <v>0.26902041110561364</v>
       </c>
       <c r="AC22" t="n" s="85">
-        <v>1.3296288573257667E-4</v>
+        <v>1.3296288894924427E-4</v>
       </c>
       <c r="AD22" t="n" s="85">
-        <v>1.3296288573257667E-4</v>
+        <v>1.3296288894924427E-4</v>
       </c>
       <c r="AE22" t="n" s="85">
-        <v>1.940428988333501E-5</v>
+        <v>1.940429035280871E-5</v>
       </c>
       <c r="AF22" t="n" s="85">
-        <v>1.940428988333501E-5</v>
+        <v>1.940429035280871E-5</v>
       </c>
       <c r="AG22" t="n" s="85">
         <v>1.0</v>
@@ -4020,7 +4020,7 @@
         <v>0.032099014096388705</v>
       </c>
       <c r="AI22" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ22" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4029,7 +4029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL22" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM22" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -4038,7 +4038,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO22" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP22" t="n" s="85">
         <v>0.9436078345505399</v>
@@ -4109,10 +4109,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W23" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="X23" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="Y23" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -4127,16 +4127,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC23" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD23" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE23" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF23" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG23" t="n" s="85">
         <v>1.0</v>
@@ -4145,7 +4145,7 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI23" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ23" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4154,7 +4154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL23" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM23" t="n" s="85">
         <v>0.777423483858662</v>
@@ -4163,7 +4163,7 @@
         <v>0.992936562550551</v>
       </c>
       <c r="AO23" t="n" s="85">
-        <v>0.9999999966836344</v>
+        <v>0.9999999968971501</v>
       </c>
       <c r="AP23" t="n" s="85">
         <v>0.9459775006770933</v>
@@ -4195,10 +4195,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n" s="85">
-        <v>7.166511799765425E-5</v>
+        <v>7.166371460699528E-5</v>
       </c>
       <c r="K24" t="n" s="85">
-        <v>7.166511799765425E-5</v>
+        <v>7.166371460699528E-5</v>
       </c>
       <c r="L24" t="n" s="85">
         <v>1.0</v>
@@ -4234,10 +4234,10 @@
         <v>0.004881507825755161</v>
       </c>
       <c r="W24" t="n" s="85">
-        <v>6.645488244903782E-6</v>
+        <v>6.73225943509274E-6</v>
       </c>
       <c r="X24" t="n" s="85">
-        <v>6.6454882449037785E-6</v>
+        <v>6.732259435092736E-6</v>
       </c>
       <c r="Y24" t="n" s="85">
         <v>0.26206922360453</v>
@@ -4252,25 +4252,25 @@
         <v>0.2690206569699006</v>
       </c>
       <c r="AC24" t="n" s="85">
-        <v>1.3017936174891044E-4</v>
+        <v>1.3296305925226818E-4</v>
       </c>
       <c r="AD24" t="n" s="85">
-        <v>1.301793617489104E-4</v>
+        <v>1.3296305925226818E-4</v>
       </c>
       <c r="AE24" t="n" s="85">
-        <v>1.8998033812222086E-5</v>
+        <v>1.9404314604963523E-5</v>
       </c>
       <c r="AF24" t="n" s="85">
-        <v>1.8998033812222092E-5</v>
+        <v>1.9404314604963523E-5</v>
       </c>
       <c r="AG24" t="n" s="85">
-        <v>1.8647939304915891E-7</v>
+        <v>1.9046738986392513E-7</v>
       </c>
       <c r="AH24" t="n" s="85">
         <v>0.026990810983679354</v>
       </c>
       <c r="AI24" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ24" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4279,7 +4279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL24" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM24" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -4288,7 +4288,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO24" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP24" t="n" s="85">
         <v>0.9436078345505399</v>
@@ -4320,10 +4320,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n" s="85">
-        <v>5.136741972324778E-5</v>
+        <v>5.1366413794249946E-5</v>
       </c>
       <c r="K25" t="n" s="85">
-        <v>5.136741972324778E-5</v>
+        <v>5.1366413794249946E-5</v>
       </c>
       <c r="L25" t="n" s="85">
         <v>1.0</v>
@@ -4359,10 +4359,10 @@
         <v>0.0038635640393367408</v>
       </c>
       <c r="W25" t="n" s="85">
-        <v>2.2873024693499534E-6</v>
+        <v>2.2935425660542336E-6</v>
       </c>
       <c r="X25" t="n" s="85">
-        <v>2.2873024693499534E-6</v>
+        <v>2.2935425660542336E-6</v>
       </c>
       <c r="Y25" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -4377,16 +4377,16 @@
         <v>0.11077394799749496</v>
       </c>
       <c r="AC25" t="n" s="85">
-        <v>4.38120743920885E-5</v>
+        <v>4.40042077713154E-5</v>
       </c>
       <c r="AD25" t="n" s="85">
-        <v>4.38120743920885E-5</v>
+        <v>4.40042077713154E-5</v>
       </c>
       <c r="AE25" t="n" s="85">
-        <v>6.544520319401277E-6</v>
+        <v>6.5732209339954675E-6</v>
       </c>
       <c r="AF25" t="n" s="85">
-        <v>6.544520319401277E-6</v>
+        <v>6.5732209339954675E-6</v>
       </c>
       <c r="AG25" t="n" s="85">
         <v>1.0</v>
@@ -4395,7 +4395,7 @@
         <v>0.013376990847992914</v>
       </c>
       <c r="AI25" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ25" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4404,7 +4404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL25" t="n" s="85">
-        <v>0.9968088971033306</v>
+        <v>0.9965724724071601</v>
       </c>
       <c r="AM25" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -4413,7 +4413,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO25" t="n" s="85">
-        <v>0.9999999436622421</v>
+        <v>0.9999999472894072</v>
       </c>
       <c r="AP25" t="n" s="85">
         <v>0.9138984359801405</v>
@@ -4478,16 +4478,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U26" t="n" s="85">
-        <v>1.5261836429104734E-6</v>
+        <v>1.571483390968758E-6</v>
       </c>
       <c r="V26" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W26" t="n" s="85">
-        <v>2.356055843307926E-6</v>
+        <v>2.425987650574922E-6</v>
       </c>
       <c r="X26" t="n" s="85">
-        <v>2.356055843307926E-6</v>
+        <v>2.425987650574922E-6</v>
       </c>
       <c r="Y26" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -4502,16 +4502,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC26" t="n" s="85">
-        <v>5.0855676939724985E-5</v>
+        <v>5.0855668443278316E-5</v>
       </c>
       <c r="AD26" t="n" s="85">
-        <v>5.0855676939724985E-5</v>
+        <v>5.0855668443278316E-5</v>
       </c>
       <c r="AE26" t="n" s="85">
-        <v>7.421406218112722E-6</v>
+        <v>7.421404978210943E-6</v>
       </c>
       <c r="AF26" t="n" s="85">
-        <v>7.421406218112722E-6</v>
+        <v>7.421404978210943E-6</v>
       </c>
       <c r="AG26" t="n" s="85">
         <v>1.0</v>
@@ -4520,7 +4520,7 @@
         <v>0.012081061098283033</v>
       </c>
       <c r="AI26" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ26" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4529,7 +4529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL26" t="n" s="85">
-        <v>0.9256431925423746</v>
+        <v>0.9278236783239554</v>
       </c>
       <c r="AM26" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -4538,7 +4538,7 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO26" t="n" s="85">
-        <v>0.9993797811462751</v>
+        <v>0.999370991870704</v>
       </c>
       <c r="AP26" t="n" s="85">
         <v>0.7737325837106037</v>
@@ -4603,13 +4603,13 @@
         <v>0.0028612132900066836</v>
       </c>
       <c r="U27" t="n" s="85">
-        <v>1.5908186511545952E-6</v>
+        <v>1.5993210106980958E-6</v>
       </c>
       <c r="V27" t="n" s="85">
         <v>0.004328314392962408</v>
       </c>
       <c r="W27" t="n" s="85">
-        <v>2.4891983162325703E-6</v>
+        <v>2.5025021871873766E-6</v>
       </c>
       <c r="X27" t="n" s="85">
         <v>1.0</v>
@@ -4627,16 +4627,16 @@
         <v>0.10001751850185239</v>
       </c>
       <c r="AC27" t="n" s="85">
-        <v>4.065895665484903E-5</v>
+        <v>4.099310687815802E-5</v>
       </c>
       <c r="AD27" t="n" s="85">
-        <v>4.065895665484903E-5</v>
+        <v>4.099310687815802E-5</v>
       </c>
       <c r="AE27" t="n" s="85">
-        <v>6.027826243005417E-6</v>
+        <v>6.077365505227493E-6</v>
       </c>
       <c r="AF27" t="n" s="85">
-        <v>6.027826243005417E-6</v>
+        <v>6.07736550522749E-6</v>
       </c>
       <c r="AG27" t="n" s="85">
         <v>1.0</v>
@@ -4645,7 +4645,7 @@
         <v>0.015597864729333511</v>
       </c>
       <c r="AI27" t="n" s="85">
-        <v>1.3760169977477407E-4</v>
+        <v>1.3873254887914618E-4</v>
       </c>
       <c r="AJ27" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4654,7 +4654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL27" t="n" s="85">
-        <v>0.8069927518915676</v>
+        <v>0.80865469147935</v>
       </c>
       <c r="AM27" t="n" s="85">
         <v>0.7618433263360781</v>
@@ -4663,16 +4663,16 @@
         <v>0.9893830057576142</v>
       </c>
       <c r="AO27" t="n" s="85">
-        <v>0.978307814252884</v>
+        <v>0.9782079860894157</v>
       </c>
       <c r="AP27" t="n" s="85">
         <v>0.8819181686599766</v>
       </c>
       <c r="AQ27" t="n" s="85">
-        <v>0.9957066801935418</v>
+        <v>0.9957041310031888</v>
       </c>
       <c r="AR27" t="n" s="85">
-        <v>0.8372390489385712</v>
+        <v>0.8362769743258164</v>
       </c>
     </row>
     <row r="28">
@@ -4695,10 +4695,10 @@
         <v>1.0</v>
       </c>
       <c r="J28" t="n" s="85">
-        <v>3.470163306943727E-5</v>
+        <v>3.4700953495478845E-5</v>
       </c>
       <c r="K28" t="n" s="85">
-        <v>3.470163306943727E-5</v>
+        <v>3.4700953495478845E-5</v>
       </c>
       <c r="L28" t="n" s="85">
         <v>1.0</v>
@@ -4734,10 +4734,10 @@
         <v>0.004816509271477618</v>
       </c>
       <c r="W28" t="n" s="85">
-        <v>2.6673686395884693E-6</v>
+        <v>2.702197033796305E-6</v>
       </c>
       <c r="X28" t="n" s="85">
-        <v>2.6673686395884697E-6</v>
+        <v>2.7021970337963053E-6</v>
       </c>
       <c r="Y28" t="n" s="85">
         <v>0.26206922360453</v>
@@ -4752,25 +4752,25 @@
         <v>0.12080363525376908</v>
       </c>
       <c r="AC28" t="n" s="85">
-        <v>5.225382169667064E-5</v>
+        <v>5.337128309692656E-5</v>
       </c>
       <c r="AD28" t="n" s="85">
-        <v>5.2253821696670635E-5</v>
+        <v>5.3371283096926545E-5</v>
       </c>
       <c r="AE28" t="n" s="85">
-        <v>7.625472236975629E-6</v>
+        <v>7.788548001730791E-6</v>
       </c>
       <c r="AF28" t="n" s="85">
-        <v>7.625472236975631E-6</v>
+        <v>7.788548001730793E-6</v>
       </c>
       <c r="AG28" t="n" s="85">
-        <v>7.484899577486952E-8</v>
+        <v>7.644969591600491E-8</v>
       </c>
       <c r="AH28" t="n" s="85">
         <v>0.011046708303299065</v>
       </c>
       <c r="AI28" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ28" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4779,7 +4779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL28" t="n" s="85">
-        <v>0.9968088971033306</v>
+        <v>0.9965724724071601</v>
       </c>
       <c r="AM28" t="n" s="85">
         <v>0.7122951412806107</v>
@@ -4788,7 +4788,7 @@
         <v>0.9777692175117446</v>
       </c>
       <c r="AO28" t="n" s="85">
-        <v>0.9999991238416667</v>
+        <v>0.9999991802508781</v>
       </c>
       <c r="AP28" t="n" s="85">
         <v>0.8953972389921141</v>
@@ -4820,10 +4820,10 @@
         <v>1.0</v>
       </c>
       <c r="J29" t="n" s="85">
-        <v>2.7121885922925794E-7</v>
+        <v>2.7121354767462654E-7</v>
       </c>
       <c r="K29" t="n" s="85">
-        <v>2.7121885922925794E-7</v>
+        <v>2.7121354767462654E-7</v>
       </c>
       <c r="L29" t="n" s="85">
         <v>0.003872891694281399</v>
@@ -4853,16 +4853,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U29" t="n" s="85">
-        <v>1.765649153154948E-6</v>
+        <v>1.7560041417569195E-6</v>
       </c>
       <c r="V29" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W29" t="n" s="85">
-        <v>2.7001074788408746E-6</v>
+        <v>2.6853579062580568E-6</v>
       </c>
       <c r="X29" t="n" s="85">
-        <v>2.7001074788408746E-6</v>
+        <v>2.6853579062580568E-6</v>
       </c>
       <c r="Y29" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -4877,16 +4877,16 @@
         <v>0.10359707863142073</v>
       </c>
       <c r="AC29" t="n" s="85">
-        <v>3.4470633499921E-5</v>
+        <v>3.4470634333924336E-5</v>
       </c>
       <c r="AD29" t="n" s="85">
-        <v>3.4470633499921E-5</v>
+        <v>3.4470634333924336E-5</v>
       </c>
       <c r="AE29" t="n" s="85">
-        <v>7.863571722829343E-6</v>
+        <v>7.863571913085342E-6</v>
       </c>
       <c r="AF29" t="n" s="85">
-        <v>7.863571722829343E-6</v>
+        <v>7.863571913085342E-6</v>
       </c>
       <c r="AG29" t="n" s="85">
         <v>1.0</v>
@@ -4895,7 +4895,7 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI29" t="n" s="85">
-        <v>2.077096470465536E-4</v>
+        <v>2.0770965207156099E-4</v>
       </c>
       <c r="AJ29" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -4904,7 +4904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL29" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM29" t="n" s="85">
         <v>0.6553976139121288</v>
@@ -4913,7 +4913,7 @@
         <v>0.9434719745714709</v>
       </c>
       <c r="AO29" t="n" s="85">
-        <v>0.9999887641601808</v>
+        <v>0.9999894875439542</v>
       </c>
       <c r="AP29" t="n" s="85">
         <v>0.7297581602136269</v>
@@ -4945,10 +4945,10 @@
         <v>1.0</v>
       </c>
       <c r="J30" t="n" s="85">
-        <v>1.4722568791051664E-7</v>
+        <v>1.47220010646504E-7</v>
       </c>
       <c r="K30" t="n" s="85">
-        <v>1.472256879105166E-7</v>
+        <v>1.4722001064650396E-7</v>
       </c>
       <c r="L30" t="n" s="85">
         <v>1.0</v>
@@ -4978,16 +4978,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U30" t="n" s="85">
-        <v>7.914695263227396E-7</v>
+        <v>7.833988088988176E-7</v>
       </c>
       <c r="V30" t="n" s="85">
         <v>0.002728791648567193</v>
       </c>
       <c r="W30" t="n" s="85">
-        <v>1.2526509327799786E-6</v>
+        <v>1.2398774811590416E-6</v>
       </c>
       <c r="X30" t="n" s="85">
-        <v>1.2526509327799786E-6</v>
+        <v>1.2398774811590416E-6</v>
       </c>
       <c r="Y30" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -5002,16 +5002,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC30" t="n" s="85">
-        <v>2.7294770956204604E-5</v>
+        <v>2.729477218003563E-5</v>
       </c>
       <c r="AD30" t="n" s="85">
-        <v>2.7294770956204604E-5</v>
+        <v>2.729477218003563E-5</v>
       </c>
       <c r="AE30" t="n" s="85">
-        <v>3.7929430458509034E-6</v>
+        <v>3.792943215916748E-6</v>
       </c>
       <c r="AF30" t="n" s="85">
-        <v>3.7929430458509034E-6</v>
+        <v>3.792943215916748E-6</v>
       </c>
       <c r="AG30" t="n" s="85">
         <v>1.0</v>
@@ -5020,7 +5020,7 @@
         <v>0.012081061098283033</v>
       </c>
       <c r="AI30" t="n" s="85">
-        <v>1.1738926438924713E-4</v>
+        <v>1.173892696526621E-4</v>
       </c>
       <c r="AJ30" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -5029,7 +5029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL30" t="n" s="85">
-        <v>0.8538811633169638</v>
+        <v>0.8578428581447346</v>
       </c>
       <c r="AM30" t="n" s="85">
         <v>0.6553976139121288</v>
@@ -5038,16 +5038,16 @@
         <v>0.9196494060905037</v>
       </c>
       <c r="AO30" t="n" s="85">
-        <v>0.9426481696797773</v>
+        <v>0.9418821759073885</v>
       </c>
       <c r="AP30" t="n" s="85">
         <v>0.6553976139121288</v>
       </c>
       <c r="AQ30" t="n" s="85">
-        <v>0.6934634528269477</v>
+        <v>0.693336715314932</v>
       </c>
       <c r="AR30" t="n" s="85">
-        <v>0.1295937851812232</v>
+        <v>0.1277517034024793</v>
       </c>
     </row>
     <row r="31">
@@ -5109,10 +5109,10 @@
         <v>0.004233453605728432</v>
       </c>
       <c r="W31" t="n" s="85">
-        <v>2.8317601782562646E-6</v>
+        <v>2.7876115531741395E-6</v>
       </c>
       <c r="X31" t="n" s="85">
-        <v>2.8317601782562646E-6</v>
+        <v>2.7876115531741395E-6</v>
       </c>
       <c r="Y31" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -5127,16 +5127,16 @@
         <v>0.11077394799749496</v>
       </c>
       <c r="AC31" t="n" s="85">
-        <v>5.01402866824698E-5</v>
+        <v>4.896848276281478E-5</v>
       </c>
       <c r="AD31" t="n" s="85">
-        <v>5.01402866824698E-5</v>
+        <v>4.896848276281478E-5</v>
       </c>
       <c r="AE31" t="n" s="85">
-        <v>7.48982200041989E-6</v>
+        <v>7.314778848932141E-6</v>
       </c>
       <c r="AF31" t="n" s="85">
-        <v>7.48982200041989E-6</v>
+        <v>7.314778848932141E-6</v>
       </c>
       <c r="AG31" t="n" s="85">
         <v>1.0</v>
@@ -5145,7 +5145,7 @@
         <v>0.014604180310559016</v>
       </c>
       <c r="AI31" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ31" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -5154,7 +5154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL31" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM31" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -5163,7 +5163,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO31" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP31" t="n" s="85">
         <v>0.9596180024118806</v>
@@ -5195,10 +5195,10 @@
         <v>1.0</v>
       </c>
       <c r="J32" t="n" s="85">
-        <v>1.5491954542153916E-7</v>
+        <v>1.5491651147424285E-7</v>
       </c>
       <c r="K32" t="n" s="85">
-        <v>1.5491954542153916E-7</v>
+        <v>1.5491651147424282E-7</v>
       </c>
       <c r="L32" t="n" s="85">
         <v>1.0</v>
@@ -5228,16 +5228,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U32" t="n" s="85">
-        <v>1.6276529163963607E-7</v>
+        <v>1.5700689905894733E-7</v>
       </c>
       <c r="V32" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W32" t="n" s="85">
-        <v>2.7396849688122625E-7</v>
+        <v>2.6427589292078824E-7</v>
       </c>
       <c r="X32" t="n" s="85">
-        <v>2.739684968812263E-7</v>
+        <v>2.6427589292078803E-7</v>
       </c>
       <c r="Y32" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -5252,25 +5252,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC32" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810445E-6</v>
       </c>
       <c r="AD32" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810446E-6</v>
       </c>
       <c r="AE32" t="n" s="85">
-        <v>9.061695456640544E-7</v>
+        <v>9.061696746454302E-7</v>
       </c>
       <c r="AF32" t="n" s="85">
-        <v>9.061695456640542E-7</v>
+        <v>9.0616967464543E-7</v>
       </c>
       <c r="AG32" t="n" s="85">
-        <v>5.490739669739584E-9</v>
+        <v>5.490740451272081E-9</v>
       </c>
       <c r="AH32" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI32" t="n" s="85">
-        <v>4.229065916361333E-5</v>
+        <v>4.229066518346566E-5</v>
       </c>
       <c r="AJ32" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -5279,7 +5279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL32" t="n" s="85">
-        <v>0.7636180220222814</v>
+        <v>0.7693659910571061</v>
       </c>
       <c r="AM32" t="n" s="85">
         <v>0.6553976139121288</v>
@@ -5288,16 +5288,16 @@
         <v>0.9159731245615271</v>
       </c>
       <c r="AO32" t="n" s="85">
-        <v>0.8947354437357306</v>
+        <v>0.8934018903418848</v>
       </c>
       <c r="AP32" t="n" s="85">
         <v>0.6553976139121288</v>
       </c>
       <c r="AQ32" t="n" s="85">
-        <v>0.6665348436669117</v>
+        <v>0.6664834984634418</v>
       </c>
       <c r="AR32" t="n" s="85">
-        <v>0.06666668460743465</v>
+        <v>0.06567400178067354</v>
       </c>
     </row>
     <row r="33">
@@ -5353,16 +5353,16 @@
         <v>5.380270832975741E-4</v>
       </c>
       <c r="U33" t="n" s="85">
-        <v>4.485625389910822E-6</v>
+        <v>4.269063160181837E-6</v>
       </c>
       <c r="V33" t="n" s="85">
         <v>0.0010473609793672232</v>
       </c>
       <c r="W33" t="n" s="85">
-        <v>8.082584118644954E-6</v>
+        <v>7.692364706257887E-6</v>
       </c>
       <c r="X33" t="n" s="85">
-        <v>8.082584118644954E-6</v>
+        <v>7.692364706257893E-6</v>
       </c>
       <c r="Y33" t="n" s="85">
         <v>0.17326666039788743</v>
@@ -5377,25 +5377,25 @@
         <v>0.9735705989815423</v>
       </c>
       <c r="AC33" t="n" s="85">
-        <v>2.7382830101022065E-4</v>
+        <v>2.7382835305889196E-4</v>
       </c>
       <c r="AD33" t="n" s="85">
-        <v>2.7382830101022065E-4</v>
+        <v>2.7382835305889196E-4</v>
       </c>
       <c r="AE33" t="n" s="85">
-        <v>2.6376828720780153E-5</v>
+        <v>2.6376833735558195E-5</v>
       </c>
       <c r="AF33" t="n" s="85">
-        <v>2.6376828720780153E-5</v>
+        <v>2.6376833735558195E-5</v>
       </c>
       <c r="AG33" t="n" s="85">
-        <v>3.4369876850402468E-6</v>
+        <v>3.436988338495433E-6</v>
       </c>
       <c r="AH33" t="n" s="85">
         <v>0.34351266410022147</v>
       </c>
       <c r="AI33" t="n" s="85">
-        <v>3.4752793097538817E-5</v>
+        <v>3.475279970531921E-5</v>
       </c>
       <c r="AJ33" t="n" s="85">
         <v>0.5321336762564927</v>
@@ -5404,7 +5404,7 @@
         <v>0.6371175589825969</v>
       </c>
       <c r="AL33" t="n" s="85">
-        <v>0.5860210739156674</v>
+        <v>0.5937903116982359</v>
       </c>
       <c r="AM33" t="n" s="85">
         <v>0.644993867297632</v>
@@ -5413,16 +5413,16 @@
         <v>0.9205658362788061</v>
       </c>
       <c r="AO33" t="n" s="85">
-        <v>0.7628104713670883</v>
+        <v>0.7602534445285505</v>
       </c>
       <c r="AP33" t="n" s="85">
         <v>0.6567267831335162</v>
       </c>
       <c r="AQ33" t="n" s="85">
-        <v>0.8283824040624023</v>
+        <v>0.8282976370349807</v>
       </c>
       <c r="AR33" t="n" s="85">
-        <v>0.05783884185030587</v>
+        <v>0.056949970470364625</v>
       </c>
     </row>
     <row r="34">
@@ -5445,10 +5445,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n" s="85">
-        <v>1.960233921979346E-7</v>
+        <v>1.9601583321477312E-7</v>
       </c>
       <c r="K34" t="n" s="85">
-        <v>1.960233921979346E-7</v>
+        <v>1.9601583321477304E-7</v>
       </c>
       <c r="L34" t="n" s="85">
         <v>1.0</v>
@@ -5478,16 +5478,16 @@
         <v>0.76164486968863</v>
       </c>
       <c r="U34" t="n" s="85">
-        <v>3.9964363060328723E-4</v>
+        <v>3.803564061401226E-4</v>
       </c>
       <c r="V34" t="n" s="85">
         <v>0.8658371507401997</v>
       </c>
       <c r="W34" t="n" s="85">
-        <v>6.725489549935478E-4</v>
+        <v>6.400994340272612E-4</v>
       </c>
       <c r="X34" t="n" s="85">
-        <v>6.725489549935474E-4</v>
+        <v>6.400994340272611E-4</v>
       </c>
       <c r="Y34" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -5502,25 +5502,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC34" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD34" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE34" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF34" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG34" t="n" s="85">
-        <v>1.3304652936684876E-5</v>
+        <v>1.3304655466198945E-5</v>
       </c>
       <c r="AH34" t="n" s="85">
         <v>0.9964272563428546</v>
       </c>
       <c r="AI34" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ34" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -5529,7 +5529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL34" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM34" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -5538,16 +5538,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO34" t="n" s="85">
-        <v>0.8853041847059738</v>
+        <v>0.8838666587255439</v>
       </c>
       <c r="AP34" t="n" s="85">
         <v>0.7845431616827376</v>
       </c>
       <c r="AQ34" t="n" s="85">
-        <v>0.9427457632585731</v>
+        <v>0.9427135773251342</v>
       </c>
       <c r="AR34" t="n" s="85">
-        <v>0.1813467883003129</v>
+        <v>0.17892029112596994</v>
       </c>
     </row>
     <row r="35">
@@ -5603,16 +5603,16 @@
         <v>5.400834581479885E-4</v>
       </c>
       <c r="U35" t="n" s="85">
-        <v>8.289967962482354E-8</v>
+        <v>8.052914711102496E-8</v>
       </c>
       <c r="V35" t="n" s="85">
         <v>0.001051372247382513</v>
       </c>
       <c r="W35" t="n" s="85">
-        <v>1.3010068167410015E-7</v>
+        <v>1.263804239595236E-7</v>
       </c>
       <c r="X35" t="n" s="85">
-        <v>1.301006816741001E-7</v>
+        <v>1.2638042395952353E-7</v>
       </c>
       <c r="Y35" t="n" s="85">
         <v>0.19753718589116342</v>
@@ -5627,25 +5627,25 @@
         <v>0.07618594322470601</v>
       </c>
       <c r="AC35" t="n" s="85">
-        <v>5.144891145478725E-6</v>
+        <v>5.144891706117379E-6</v>
       </c>
       <c r="AD35" t="n" s="85">
-        <v>5.144891145478726E-6</v>
+        <v>5.14489170611738E-6</v>
       </c>
       <c r="AE35" t="n" s="85">
-        <v>4.956611794218548E-7</v>
+        <v>4.956612334331278E-7</v>
       </c>
       <c r="AF35" t="n" s="85">
-        <v>4.956611794218542E-7</v>
+        <v>4.956612334331274E-7</v>
       </c>
       <c r="AG35" t="n" s="85">
-        <v>4.688932592653084E-7</v>
+        <v>4.6889331035989795E-7</v>
       </c>
       <c r="AH35" t="n" s="85">
         <v>0.04607866140750838</v>
       </c>
       <c r="AI35" t="n" s="85">
-        <v>3.702780439180712E-5</v>
+        <v>3.702780842687401E-5</v>
       </c>
       <c r="AJ35" t="n" s="85">
         <v>0.5089836649969898</v>
@@ -5654,7 +5654,7 @@
         <v>0.5748930842036986</v>
       </c>
       <c r="AL35" t="n" s="85">
-        <v>0.592282907981174</v>
+        <v>0.5974428565574773</v>
       </c>
       <c r="AM35" t="n" s="85">
         <v>0.5861284665553254</v>
@@ -5663,16 +5663,16 @@
         <v>0.8075751758421784</v>
       </c>
       <c r="AO35" t="n" s="85">
-        <v>0.5782207761546659</v>
+        <v>0.575929783685599</v>
       </c>
       <c r="AP35" t="n" s="85">
         <v>0.44835462117194</v>
       </c>
       <c r="AQ35" t="n" s="85">
-        <v>0.29219597468550745</v>
+        <v>0.2921204625619784</v>
       </c>
       <c r="AR35" t="n" s="85">
-        <v>0.007686723167377657</v>
+        <v>0.007604754860729544</v>
       </c>
     </row>
     <row r="36">
@@ -5695,10 +5695,10 @@
         <v>1.0</v>
       </c>
       <c r="J36" t="n" s="85">
-        <v>1.915938471298094E-7</v>
+        <v>1.915864589571303E-7</v>
       </c>
       <c r="K36" t="n" s="85">
-        <v>1.915938471298094E-7</v>
+        <v>1.9158645895713018E-7</v>
       </c>
       <c r="L36" t="n" s="85">
         <v>1.0</v>
@@ -5728,16 +5728,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U36" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V36" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W36" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X36" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y36" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -5752,25 +5752,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC36" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD36" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE36" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF36" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG36" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH36" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI36" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ36" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -5779,7 +5779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL36" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM36" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -5788,16 +5788,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO36" t="n" s="85">
-        <v>0.867498528376246</v>
+        <v>0.8658716480807599</v>
       </c>
       <c r="AP36" t="n" s="85">
         <v>0.7022311691808126</v>
       </c>
       <c r="AQ36" t="n" s="85">
-        <v>0.7958241458824525</v>
+        <v>0.7957272629364364</v>
       </c>
       <c r="AR36" t="n" s="85">
-        <v>0.04258334267144324</v>
+        <v>0.0419184878679326</v>
       </c>
     </row>
     <row r="37">
@@ -5853,16 +5853,16 @@
         <v>0.003203452992195119</v>
       </c>
       <c r="U37" t="n" s="85">
-        <v>1.4200457883044614E-6</v>
+        <v>1.4055654062117246E-6</v>
       </c>
       <c r="V37" t="n" s="85">
         <v>0.005014204586265451</v>
       </c>
       <c r="W37" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="X37" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="Y37" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -5877,16 +5877,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC37" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AD37" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AE37" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AF37" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AG37" t="n" s="85">
         <v>1.0</v>
@@ -5895,7 +5895,7 @@
         <v>0.02269350823004737</v>
       </c>
       <c r="AI37" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ37" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -5904,7 +5904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL37" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM37" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -5913,16 +5913,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO37" t="n" s="85">
-        <v>0.8853041847059738</v>
+        <v>0.8838666587255439</v>
       </c>
       <c r="AP37" t="n" s="85">
         <v>0.7845431616827376</v>
       </c>
       <c r="AQ37" t="n" s="85">
-        <v>0.9427457632585731</v>
+        <v>0.9427135773251342</v>
       </c>
       <c r="AR37" t="n" s="85">
-        <v>0.1813467883003129</v>
+        <v>0.17892029112596994</v>
       </c>
     </row>
     <row r="38">
@@ -5978,16 +5978,16 @@
         <v>0.0033738749388922875</v>
       </c>
       <c r="U38" t="n" s="85">
-        <v>4.541461963652322E-6</v>
+        <v>4.555332665474191E-6</v>
       </c>
       <c r="V38" t="n" s="85">
         <v>0.005280678082975135</v>
       </c>
       <c r="W38" t="n" s="85">
-        <v>7.01090419032074E-6</v>
+        <v>7.0323171392643505E-6</v>
       </c>
       <c r="X38" t="n" s="85">
-        <v>7.01090419032074E-6</v>
+        <v>7.0323171392643505E-6</v>
       </c>
       <c r="Y38" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -6002,16 +6002,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC38" t="n" s="85">
-        <v>7.821699511068923E-5</v>
+        <v>7.821699304831662E-5</v>
       </c>
       <c r="AD38" t="n" s="85">
-        <v>7.821699511068923E-5</v>
+        <v>7.821699304831662E-5</v>
       </c>
       <c r="AE38" t="n" s="85">
-        <v>1.1414402933670985E-5</v>
+        <v>1.1414402632697734E-5</v>
       </c>
       <c r="AF38" t="n" s="85">
-        <v>1.1414402933670985E-5</v>
+        <v>1.1414402632697734E-5</v>
       </c>
       <c r="AG38" t="n" s="85">
         <v>1.0</v>
@@ -6020,7 +6020,7 @@
         <v>0.04153135422831623</v>
       </c>
       <c r="AI38" t="n" s="85">
-        <v>1.8554988979056251E-4</v>
+        <v>1.8554988489790636E-4</v>
       </c>
       <c r="AJ38" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6029,7 +6029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL38" t="n" s="85">
-        <v>0.9061008393025559</v>
+        <v>0.9087979334946109</v>
       </c>
       <c r="AM38" t="n" s="85">
         <v>0.7284965309314696</v>
@@ -6038,16 +6038,16 @@
         <v>0.9767707848310642</v>
       </c>
       <c r="AO38" t="n" s="85">
-        <v>0.999241926612978</v>
+        <v>0.9992311852694091</v>
       </c>
       <c r="AP38" t="n" s="85">
         <v>0.9044913421804115</v>
       </c>
       <c r="AQ38" t="n" s="85">
-        <v>0.998879345006203</v>
+        <v>0.9988790863964688</v>
       </c>
       <c r="AR38" t="n" s="85">
-        <v>0.9992196905329082</v>
+        <v>0.9992070634616448</v>
       </c>
     </row>
     <row r="39">
@@ -6103,16 +6103,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U39" t="n" s="85">
-        <v>1.3962783003518792E-6</v>
+        <v>1.3820402779310105E-6</v>
       </c>
       <c r="V39" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W39" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="X39" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="Y39" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -6127,16 +6127,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC39" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AD39" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AE39" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AF39" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AG39" t="n" s="85">
         <v>1.0</v>
@@ -6145,7 +6145,7 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI39" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ39" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6154,7 +6154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL39" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM39" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -6163,16 +6163,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO39" t="n" s="85">
-        <v>0.8794752411305314</v>
+        <v>0.8779747284685298</v>
       </c>
       <c r="AP39" t="n" s="85">
         <v>0.7880370721946086</v>
       </c>
       <c r="AQ39" t="n" s="85">
-        <v>0.9425177848104204</v>
+        <v>0.9424854785357598</v>
       </c>
       <c r="AR39" t="n" s="85">
-        <v>0.17255269425420267</v>
+        <v>0.17021939939708594</v>
       </c>
     </row>
     <row r="40">
@@ -6228,16 +6228,16 @@
         <v>0.003203452992195119</v>
       </c>
       <c r="U40" t="n" s="85">
-        <v>1.4200457883044614E-6</v>
+        <v>1.4055654062117246E-6</v>
       </c>
       <c r="V40" t="n" s="85">
         <v>0.005014204586265451</v>
       </c>
       <c r="W40" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="X40" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="Y40" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -6252,16 +6252,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC40" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AD40" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AE40" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AF40" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AG40" t="n" s="85">
         <v>1.0</v>
@@ -6270,7 +6270,7 @@
         <v>0.02269350823004737</v>
       </c>
       <c r="AI40" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ40" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6279,7 +6279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL40" t="n" s="85">
-        <v>0.7071860411716572</v>
+        <v>0.7137919180531299</v>
       </c>
       <c r="AM40" t="n" s="85">
         <v>0.6860785771042869</v>
@@ -6288,16 +6288,16 @@
         <v>0.9467363052460928</v>
       </c>
       <c r="AO40" t="n" s="85">
-        <v>0.8173372006541451</v>
+        <v>0.8152256120846121</v>
       </c>
       <c r="AP40" t="n" s="85">
         <v>0.7714021066458308</v>
       </c>
       <c r="AQ40" t="n" s="85">
-        <v>0.9175625211308751</v>
+        <v>0.9175174168528059</v>
       </c>
       <c r="AR40" t="n" s="85">
-        <v>0.11380129924426075</v>
+        <v>0.1121547713706275</v>
       </c>
     </row>
     <row r="41">
@@ -6320,10 +6320,10 @@
         <v>0.0021112592105769204</v>
       </c>
       <c r="J41" t="n" s="85">
-        <v>1.9972655273305348E-4</v>
+        <v>1.9972264206508087E-4</v>
       </c>
       <c r="K41" t="n" s="85">
-        <v>1.9972655273305348E-4</v>
+        <v>1.9972264206508087E-4</v>
       </c>
       <c r="L41" t="n" s="85">
         <v>1.0</v>
@@ -6359,10 +6359,10 @@
         <v>0.005645676319285226</v>
       </c>
       <c r="W41" t="n" s="85">
-        <v>4.191174755713701E-6</v>
+        <v>4.202608873501829E-6</v>
       </c>
       <c r="X41" t="n" s="85">
-        <v>4.191174755713701E-6</v>
+        <v>4.202608873501829E-6</v>
       </c>
       <c r="Y41" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -6377,16 +6377,16 @@
         <v>0.14607128451064313</v>
       </c>
       <c r="AC41" t="n" s="85">
-        <v>6.802537235834065E-5</v>
+        <v>6.832368342846309E-5</v>
       </c>
       <c r="AD41" t="n" s="85">
-        <v>6.802537235834061E-5</v>
+        <v>6.832368342846302E-5</v>
       </c>
       <c r="AE41" t="n" s="85">
-        <v>1.016152944692916E-5</v>
+        <v>1.0206092083548067E-5</v>
       </c>
       <c r="AF41" t="n" s="85">
-        <v>1.016152944692916E-5</v>
+        <v>1.0206092083548067E-5</v>
       </c>
       <c r="AG41" t="n" s="85">
         <v>1.0</v>
@@ -6395,7 +6395,7 @@
         <v>0.01912755094291193</v>
       </c>
       <c r="AI41" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ41" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6404,7 +6404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL41" t="n" s="85">
-        <v>0.9907644336112684</v>
+        <v>0.9900846369914101</v>
       </c>
       <c r="AM41" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -6413,7 +6413,7 @@
         <v>0.9887522290766848</v>
       </c>
       <c r="AO41" t="n" s="85">
-        <v>0.999999655073358</v>
+        <v>0.9999996772805879</v>
       </c>
       <c r="AP41" t="n" s="85">
         <v>0.9627368853578661</v>
@@ -6478,16 +6478,16 @@
         <v>4.886999200930844E-4</v>
       </c>
       <c r="U42" t="n" s="85">
-        <v>8.011978811173396E-8</v>
+        <v>7.625165138951257E-8</v>
       </c>
       <c r="V42" t="n" s="85">
         <v>0.0010033656466297176</v>
       </c>
       <c r="W42" t="n" s="85">
-        <v>1.326116329028475E-7</v>
+        <v>1.2620921473430482E-7</v>
       </c>
       <c r="X42" t="n" s="85">
-        <v>1.3261163290284745E-7</v>
+        <v>1.2620921473430485E-7</v>
       </c>
       <c r="Y42" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -6502,25 +6502,25 @@
         <v>0.08371583534335035</v>
       </c>
       <c r="AC42" t="n" s="85">
-        <v>4.491939077238356E-6</v>
+        <v>4.491939931286959E-6</v>
       </c>
       <c r="AD42" t="n" s="85">
-        <v>4.491939077238357E-6</v>
+        <v>4.491939931286959E-6</v>
       </c>
       <c r="AE42" t="n" s="85">
-        <v>4.3275521969457055E-7</v>
+        <v>4.327553019724595E-7</v>
       </c>
       <c r="AF42" t="n" s="85">
-        <v>4.327552196945704E-7</v>
+        <v>4.3275530197245943E-7</v>
       </c>
       <c r="AG42" t="n" s="85">
-        <v>2.6221932861740523E-9</v>
+        <v>2.6221937847186645E-9</v>
       </c>
       <c r="AH42" t="n" s="85">
         <v>0.008656223452868008</v>
       </c>
       <c r="AI42" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ42" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6529,7 +6529,7 @@
         <v>0.7054335277375435</v>
       </c>
       <c r="AL42" t="n" s="85">
-        <v>0.8258641283808539</v>
+        <v>0.8289218073915197</v>
       </c>
       <c r="AM42" t="n" s="85">
         <v>0.6881778662468709</v>
@@ -6538,16 +6538,16 @@
         <v>0.8973292878885399</v>
       </c>
       <c r="AO42" t="n" s="85">
-        <v>0.8403397563883331</v>
+        <v>0.8390762798796307</v>
       </c>
       <c r="AP42" t="n" s="85">
         <v>0.5712477380168443</v>
       </c>
       <c r="AQ42" t="n" s="85">
-        <v>0.48515833637707834</v>
+        <v>0.48500943367174676</v>
       </c>
       <c r="AR42" t="n" s="85">
-        <v>0.029159703654408557</v>
+        <v>0.028829270019423328</v>
       </c>
     </row>
     <row r="43">
@@ -6603,16 +6603,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U43" t="n" s="85">
-        <v>9.438061151281403E-7</v>
+        <v>8.982397428531371E-7</v>
       </c>
       <c r="V43" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W43" t="n" s="85">
-        <v>1.5886311541430118E-6</v>
+        <v>1.5119330044600278E-6</v>
       </c>
       <c r="X43" t="n" s="85">
-        <v>1.5886311541430108E-6</v>
+        <v>1.5119330044600274E-6</v>
       </c>
       <c r="Y43" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -6627,25 +6627,25 @@
         <v>0.6538165746211869</v>
       </c>
       <c r="AC43" t="n" s="85">
-        <v>5.3821226276198786E-5</v>
+        <v>5.382123650867852E-5</v>
       </c>
       <c r="AD43" t="n" s="85">
-        <v>5.382122627619878E-5</v>
+        <v>5.382123650867852E-5</v>
       </c>
       <c r="AE43" t="n" s="85">
-        <v>5.18432870605725E-6</v>
+        <v>5.184329691726687E-6</v>
       </c>
       <c r="AF43" t="n" s="85">
-        <v>5.1843287060572495E-6</v>
+        <v>5.184329691726686E-6</v>
       </c>
       <c r="AG43" t="n" s="85">
-        <v>3.1412423875704704E-8</v>
+        <v>3.141242984799299E-8</v>
       </c>
       <c r="AH43" t="n" s="85">
         <v>0.0608433543185277</v>
       </c>
       <c r="AI43" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ43" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6654,7 +6654,7 @@
         <v>0.7569999973298707</v>
       </c>
       <c r="AL43" t="n" s="85">
-        <v>0.7343582063245495</v>
+        <v>0.7405759538482493</v>
       </c>
       <c r="AM43" t="n" s="85">
         <v>0.7284965309314696</v>
@@ -6663,16 +6663,16 @@
         <v>0.9661679747978151</v>
       </c>
       <c r="AO43" t="n" s="85">
-        <v>0.8971453371195457</v>
+        <v>0.8958387595094621</v>
       </c>
       <c r="AP43" t="n" s="85">
         <v>0.8087945601342291</v>
       </c>
       <c r="AQ43" t="n" s="85">
-        <v>0.869680286064541</v>
+        <v>0.8696127066053007</v>
       </c>
       <c r="AR43" t="n" s="85">
-        <v>0.08543395117372878</v>
+        <v>0.08415887763241355</v>
       </c>
     </row>
     <row r="44">
@@ -6728,16 +6728,16 @@
         <v>0.76164486968863</v>
       </c>
       <c r="U44" t="n" s="85">
-        <v>4.7977828203962124E-4</v>
+        <v>4.6281229703160976E-4</v>
       </c>
       <c r="V44" t="n" s="85">
         <v>0.8658371507401997</v>
       </c>
       <c r="W44" t="n" s="85">
-        <v>8.07361160914491E-4</v>
+        <v>7.788201442020149E-4</v>
       </c>
       <c r="X44" t="n" s="85">
-        <v>8.07361160914491E-4</v>
+        <v>7.788201442020146E-4</v>
       </c>
       <c r="Y44" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -6752,25 +6752,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC44" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810445E-6</v>
       </c>
       <c r="AD44" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810446E-6</v>
       </c>
       <c r="AE44" t="n" s="85">
-        <v>9.061695456640544E-7</v>
+        <v>9.061696746454302E-7</v>
       </c>
       <c r="AF44" t="n" s="85">
-        <v>9.061695456640542E-7</v>
+        <v>9.0616967464543E-7</v>
       </c>
       <c r="AG44" t="n" s="85">
-        <v>1.6190200164526656E-5</v>
+        <v>1.619020246894528E-5</v>
       </c>
       <c r="AH44" t="n" s="85">
         <v>0.9964272563428546</v>
       </c>
       <c r="AI44" t="n" s="85">
-        <v>4.229065916361333E-5</v>
+        <v>4.229066518346566E-5</v>
       </c>
       <c r="AJ44" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6779,7 +6779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL44" t="n" s="85">
-        <v>0.803283368974963</v>
+        <v>0.8083089413701693</v>
       </c>
       <c r="AM44" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -6788,16 +6788,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO44" t="n" s="85">
-        <v>0.968309456702946</v>
+        <v>0.9678745159342779</v>
       </c>
       <c r="AP44" t="n" s="85">
         <v>0.7845431616827376</v>
       </c>
       <c r="AQ44" t="n" s="85">
-        <v>0.9532018145795922</v>
+        <v>0.9531915090765555</v>
       </c>
       <c r="AR44" t="n" s="85">
-        <v>0.5203196673566297</v>
+        <v>0.5163087688419395</v>
       </c>
     </row>
     <row r="45">
@@ -6820,10 +6820,10 @@
         <v>1.0</v>
       </c>
       <c r="J45" t="n" s="85">
-        <v>6.41480018037935E-7</v>
+        <v>6.414552815284779E-7</v>
       </c>
       <c r="K45" t="n" s="85">
-        <v>6.414800180379348E-7</v>
+        <v>6.414552815284779E-7</v>
       </c>
       <c r="L45" t="n" s="85">
         <v>1.0</v>
@@ -6859,10 +6859,10 @@
         <v>0.0035328909375173098</v>
       </c>
       <c r="W45" t="n" s="85">
-        <v>1.763776718491715E-6</v>
+        <v>1.7732034757129688E-6</v>
       </c>
       <c r="X45" t="n" s="85">
-        <v>1.763776718491715E-6</v>
+        <v>1.7732034757129688E-6</v>
       </c>
       <c r="Y45" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -6877,16 +6877,16 @@
         <v>0.11464036793125379</v>
       </c>
       <c r="AC45" t="n" s="85">
-        <v>3.4735834651435543E-5</v>
+        <v>3.502130808516282E-5</v>
       </c>
       <c r="AD45" t="n" s="85">
-        <v>3.4735834651435543E-5</v>
+        <v>3.502130808516282E-5</v>
       </c>
       <c r="AE45" t="n" s="85">
-        <v>5.149697800310884E-6</v>
+        <v>5.1920202481970844E-6</v>
       </c>
       <c r="AF45" t="n" s="85">
-        <v>5.149697800310884E-6</v>
+        <v>5.1920202481970844E-6</v>
       </c>
       <c r="AG45" t="n" s="85">
         <v>1.0</v>
@@ -6895,7 +6895,7 @@
         <v>0.012947912157560575</v>
       </c>
       <c r="AI45" t="n" s="85">
-        <v>1.3760170446474668E-4</v>
+        <v>1.3873255319310244E-4</v>
       </c>
       <c r="AJ45" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -6904,7 +6904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL45" t="n" s="85">
-        <v>0.7658533100610304</v>
+        <v>0.7696708460667149</v>
       </c>
       <c r="AM45" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -6913,16 +6913,16 @@
         <v>0.9754093150454533</v>
       </c>
       <c r="AO45" t="n" s="85">
-        <v>0.9316570057617406</v>
+        <v>0.9310568843007991</v>
       </c>
       <c r="AP45" t="n" s="85">
         <v>0.7956557842747725</v>
       </c>
       <c r="AQ45" t="n" s="85">
-        <v>0.9607799810348183</v>
+        <v>0.9607575111779935</v>
       </c>
       <c r="AR45" t="n" s="85">
-        <v>0.2784189434320056</v>
+        <v>0.2760671312611541</v>
       </c>
     </row>
     <row r="46">
@@ -6933,10 +6933,10 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="85">
-        <v>2.263006871663952E-10</v>
+        <v>2.259669022069637E-10</v>
       </c>
       <c r="G46" t="n" s="85">
-        <v>1.510876086635197E-6</v>
+        <v>1.5086475874358291E-6</v>
       </c>
       <c r="H46" t="n" s="85">
         <v>1.0</v>
@@ -6945,10 +6945,10 @@
         <v>1.0</v>
       </c>
       <c r="J46" t="n" s="85">
-        <v>2.8305784360351943E-9</v>
+        <v>2.8284901677082843E-9</v>
       </c>
       <c r="K46" t="n" s="85">
-        <v>2.8305784360351943E-9</v>
+        <v>2.8284901677082863E-9</v>
       </c>
       <c r="L46" t="n" s="85">
         <v>0.0028520291784476445</v>
@@ -6978,16 +6978,16 @@
         <v>4.6341634423243614E-4</v>
       </c>
       <c r="U46" t="n" s="85">
-        <v>7.597706064477326E-8</v>
+        <v>7.230893237819126E-8</v>
       </c>
       <c r="V46" t="n" s="85">
         <v>9.020951523613774E-4</v>
       </c>
       <c r="W46" t="n" s="85">
-        <v>1.369013872165842E-7</v>
+        <v>1.302918620486237E-7</v>
       </c>
       <c r="X46" t="n" s="85">
-        <v>1.3690138721658414E-7</v>
+        <v>1.3029186204862365E-7</v>
       </c>
       <c r="Y46" t="n" s="85">
         <v>0.17326661247818773</v>
@@ -7002,25 +7002,25 @@
         <v>0.07305035713190229</v>
       </c>
       <c r="AC46" t="n" s="85">
-        <v>5.383218212262062E-6</v>
+        <v>5.383219235767902E-6</v>
       </c>
       <c r="AD46" t="n" s="85">
-        <v>5.383218212262061E-6</v>
+        <v>5.383219235767901E-6</v>
       </c>
       <c r="AE46" t="n" s="85">
-        <v>5.186197643764903E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AF46" t="n" s="85">
-        <v>5.186197643764904E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AG46" t="n" s="85">
-        <v>1.1291181158085501E-9</v>
+        <v>1.1291183304821813E-9</v>
       </c>
       <c r="AH46" t="n" s="85">
         <v>0.0035591123434196175</v>
       </c>
       <c r="AI46" t="n" s="85">
-        <v>1.6642152819421137E-5</v>
+        <v>1.6642155983765093E-5</v>
       </c>
       <c r="AJ46" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7029,7 +7029,7 @@
         <v>0.6146177268934334</v>
       </c>
       <c r="AL46" t="n" s="85">
-        <v>0.350535972650724</v>
+        <v>0.3578821638647612</v>
       </c>
       <c r="AM46" t="n" s="85">
         <v>0.5600675335396391</v>
@@ -7038,16 +7038,16 @@
         <v>0.4439171796930735</v>
       </c>
       <c r="AO46" t="n" s="85">
-        <v>0.027837879182356664</v>
+        <v>0.027459340577793135</v>
       </c>
       <c r="AP46" t="n" s="85">
         <v>0.3784622230047645</v>
       </c>
       <c r="AQ46" t="n" s="85">
-        <v>0.046596774163379893</v>
+        <v>0.04657029743341687</v>
       </c>
       <c r="AR46" t="n" s="85">
-        <v>9.277833199886508E-5</v>
+        <v>9.12665418058874E-5</v>
       </c>
     </row>
     <row r="47">
@@ -7070,7 +7070,7 @@
         <v>1.0</v>
       </c>
       <c r="J47" t="n" s="85">
-        <v>3.240506319959704E-7</v>
+        <v>3.2404810760863405E-7</v>
       </c>
       <c r="K47" t="n" s="85">
         <v>1.0</v>
@@ -7103,16 +7103,16 @@
         <v>1.0</v>
       </c>
       <c r="U47" t="n" s="85">
-        <v>2.4103852115993997E-7</v>
+        <v>2.2940132347943374E-7</v>
       </c>
       <c r="V47" t="n" s="85">
         <v>0.0024560756906048357</v>
       </c>
       <c r="W47" t="n" s="85">
-        <v>3.557197205467816E-7</v>
+        <v>3.385457677924506E-7</v>
       </c>
       <c r="X47" t="n" s="85">
-        <v>3.557197205467816E-7</v>
+        <v>3.385457677924503E-7</v>
       </c>
       <c r="Y47" t="n" s="85">
         <v>0.21964315956855576</v>
@@ -7127,25 +7127,25 @@
         <v>0.09364135789179083</v>
       </c>
       <c r="AC47" t="n" s="85">
-        <v>1.5031998789493097E-5</v>
+        <v>1.5032001647484266E-5</v>
       </c>
       <c r="AD47" t="n" s="85">
-        <v>1.5031998789493097E-5</v>
+        <v>1.5032001647484269E-5</v>
       </c>
       <c r="AE47" t="n" s="85">
-        <v>1.025061654916771E-6</v>
+        <v>1.0250618498072204E-6</v>
       </c>
       <c r="AF47" t="n" s="85">
-        <v>1.0250616549167706E-6</v>
+        <v>1.02506184980722E-6</v>
       </c>
       <c r="AG47" t="n" s="85">
-        <v>7.888801250153279E-9</v>
+        <v>7.888802750011946E-9</v>
       </c>
       <c r="AH47" t="n" s="85">
         <v>0.00980114446892107</v>
       </c>
       <c r="AI47" t="n" s="85">
-        <v>2.4598657871521047E-5</v>
+        <v>2.4598662548680057E-5</v>
       </c>
       <c r="AJ47" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7154,7 +7154,7 @@
         <v>0.7188907057983088</v>
       </c>
       <c r="AL47" t="n" s="85">
-        <v>0.8617795343849205</v>
+        <v>0.8643101842697333</v>
       </c>
       <c r="AM47" t="n" s="85">
         <v>0.692698625751304</v>
@@ -7163,16 +7163,16 @@
         <v>0.8132372976886043</v>
       </c>
       <c r="AO47" t="n" s="85">
-        <v>0.7957557036688672</v>
+        <v>0.7942258042821273</v>
       </c>
       <c r="AP47" t="n" s="85">
         <v>0.6712941602113459</v>
       </c>
       <c r="AQ47" t="n" s="85">
-        <v>0.4506462547324406</v>
+        <v>0.45049867581310993</v>
       </c>
       <c r="AR47" t="n" s="85">
-        <v>0.04572365171260441</v>
+        <v>0.045214259396638395</v>
       </c>
     </row>
     <row r="48">
@@ -7195,10 +7195,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n" s="85">
-        <v>9.25822181573234E-8</v>
+        <v>9.257864803493826E-8</v>
       </c>
       <c r="K48" t="n" s="85">
-        <v>9.25822181573234E-8</v>
+        <v>9.257864803493823E-8</v>
       </c>
       <c r="L48" t="n" s="85">
         <v>1.0</v>
@@ -7228,16 +7228,16 @@
         <v>5.562407747700625E-4</v>
       </c>
       <c r="U48" t="n" s="85">
-        <v>9.118112330929759E-8</v>
+        <v>8.677895181027637E-8</v>
       </c>
       <c r="V48" t="n" s="85">
         <v>0.001082829840275222</v>
       </c>
       <c r="W48" t="n" s="85">
-        <v>1.642972622958904E-7</v>
+        <v>1.5636507925569887E-7</v>
       </c>
       <c r="X48" t="n" s="85">
-        <v>1.6429726229589034E-7</v>
+        <v>1.5636507925569884E-7</v>
       </c>
       <c r="Y48" t="n" s="85">
         <v>0.17326661247818773</v>
@@ -7252,25 +7252,25 @@
         <v>0.07305035713190229</v>
       </c>
       <c r="AC48" t="n" s="85">
-        <v>5.383218212262062E-6</v>
+        <v>5.383219235767902E-6</v>
       </c>
       <c r="AD48" t="n" s="85">
-        <v>5.383218212262061E-6</v>
+        <v>5.383219235767901E-6</v>
       </c>
       <c r="AE48" t="n" s="85">
-        <v>5.186197643764903E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AF48" t="n" s="85">
-        <v>5.186197643764904E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AG48" t="n" s="85">
-        <v>2.8295340830706183E-9</v>
+        <v>2.8295346210359066E-9</v>
       </c>
       <c r="AH48" t="n" s="85">
         <v>0.008949326256293959</v>
       </c>
       <c r="AI48" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ48" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7279,7 +7279,7 @@
         <v>0.6664636212223127</v>
       </c>
       <c r="AL48" t="n" s="85">
-        <v>0.7968113938430482</v>
+        <v>0.801961544902051</v>
       </c>
       <c r="AM48" t="n" s="85">
         <v>0.6740288640518217</v>
@@ -7288,16 +7288,16 @@
         <v>0.8714659456898313</v>
       </c>
       <c r="AO48" t="n" s="85">
-        <v>0.8042713094833946</v>
+        <v>0.8020452603536466</v>
       </c>
       <c r="AP48" t="n" s="85">
         <v>0.5343883128477884</v>
       </c>
       <c r="AQ48" t="n" s="85">
-        <v>0.4193161397164741</v>
+        <v>0.4191709921719425</v>
       </c>
       <c r="AR48" t="n" s="85">
-        <v>0.027775671557892175</v>
+        <v>0.02733540846917002</v>
       </c>
     </row>
     <row r="49">
@@ -7320,10 +7320,10 @@
         <v>1.0</v>
       </c>
       <c r="J49" t="n" s="85">
-        <v>1.3214828273295907E-7</v>
+        <v>1.3214318687834387E-7</v>
       </c>
       <c r="K49" t="n" s="85">
-        <v>1.3214828273295901E-7</v>
+        <v>1.3214318687834384E-7</v>
       </c>
       <c r="L49" t="n" s="85">
         <v>1.0</v>
@@ -7353,16 +7353,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U49" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V49" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W49" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X49" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y49" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -7377,25 +7377,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC49" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD49" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE49" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF49" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG49" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH49" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI49" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ49" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7404,7 +7404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL49" t="n" s="85">
-        <v>0.6902001296871179</v>
+        <v>0.6970250358036723</v>
       </c>
       <c r="AM49" t="n" s="85">
         <v>0.6553976139121288</v>
@@ -7413,16 +7413,16 @@
         <v>0.9159731245615271</v>
       </c>
       <c r="AO49" t="n" s="85">
-        <v>0.6822574615642505</v>
+        <v>0.6791972415435814</v>
       </c>
       <c r="AP49" t="n" s="85">
         <v>0.6553976139121288</v>
       </c>
       <c r="AQ49" t="n" s="85">
-        <v>0.6177164243620792</v>
+        <v>0.6175756399686783</v>
       </c>
       <c r="AR49" t="n" s="85">
-        <v>0.014377202792181961</v>
+        <v>0.014146224319995964</v>
       </c>
     </row>
     <row r="50">
@@ -7445,10 +7445,10 @@
         <v>1.0</v>
       </c>
       <c r="J50" t="n" s="85">
-        <v>8.799821295580227E-8</v>
+        <v>8.799481960017077E-8</v>
       </c>
       <c r="K50" t="n" s="85">
-        <v>8.799821295580221E-8</v>
+        <v>8.799481960017072E-8</v>
       </c>
       <c r="L50" t="n" s="85">
         <v>1.0</v>
@@ -7478,16 +7478,16 @@
         <v>7.34039994254704E-4</v>
       </c>
       <c r="U50" t="n" s="85">
-        <v>1.083711388994678E-7</v>
+        <v>1.0313904355055928E-7</v>
       </c>
       <c r="V50" t="n" s="85">
         <v>0.001202698381742384</v>
       </c>
       <c r="W50" t="n" s="85">
-        <v>1.700750562717594E-7</v>
+        <v>1.6186392450578658E-7</v>
       </c>
       <c r="X50" t="n" s="85">
-        <v>1.700750562717593E-7</v>
+        <v>1.6186392450578644E-7</v>
       </c>
       <c r="Y50" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -7502,25 +7502,25 @@
         <v>0.0755765696538819</v>
       </c>
       <c r="AC50" t="n" s="85">
-        <v>5.760961464268212E-6</v>
+        <v>5.760962559593583E-6</v>
       </c>
       <c r="AD50" t="n" s="85">
-        <v>5.760961464268212E-6</v>
+        <v>5.760962559593582E-6</v>
       </c>
       <c r="AE50" t="n" s="85">
-        <v>5.550109492818272E-7</v>
+        <v>5.550110548036593E-7</v>
       </c>
       <c r="AF50" t="n" s="85">
-        <v>5.550109492818271E-7</v>
+        <v>5.550110548036591E-7</v>
       </c>
       <c r="AG50" t="n" s="85">
-        <v>3.36297450849574E-9</v>
+        <v>3.3629751478814118E-9</v>
       </c>
       <c r="AH50" t="n" s="85">
         <v>0.007798131006425883</v>
       </c>
       <c r="AI50" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ50" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7529,7 +7529,7 @@
         <v>0.6892345115151656</v>
       </c>
       <c r="AL50" t="n" s="85">
-        <v>0.548165283526813</v>
+        <v>0.556106826596953</v>
       </c>
       <c r="AM50" t="n" s="85">
         <v>0.6188350842390344</v>
@@ -7538,16 +7538,16 @@
         <v>0.8116727614197333</v>
       </c>
       <c r="AO50" t="n" s="85">
-        <v>0.42131149801353684</v>
+        <v>0.41788239676634353</v>
       </c>
       <c r="AP50" t="n" s="85">
         <v>0.5638982331895201</v>
       </c>
       <c r="AQ50" t="n" s="85">
-        <v>0.33722708966979076</v>
+        <v>0.3370938620370407</v>
       </c>
       <c r="AR50" t="n" s="85">
-        <v>0.0039236718791017845</v>
+        <v>0.003859978003873108</v>
       </c>
     </row>
     <row r="51">
@@ -7654,7 +7654,7 @@
         <v>0.5975840113280655</v>
       </c>
       <c r="AL51" t="n" s="85">
-        <v>0.8674326077585799</v>
+        <v>0.8671457178717107</v>
       </c>
       <c r="AM51" t="n" s="85">
         <v>0.6086482097871044</v>
@@ -7663,7 +7663,7 @@
         <v>0.40833262663592457</v>
       </c>
       <c r="AO51" t="n" s="85">
-        <v>0.23259674298713998</v>
+        <v>0.2348885456865205</v>
       </c>
       <c r="AP51" t="n" s="85">
         <v>0.271566888130986</v>
@@ -7672,7 +7672,7 @@
         <v>0.06063252978175699</v>
       </c>
       <c r="AR51" t="n" s="85">
-        <v>0.008096691774701672</v>
+        <v>0.008200106065545195</v>
       </c>
     </row>
     <row r="52">
@@ -7728,16 +7728,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U52" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V52" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W52" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X52" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y52" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -7752,25 +7752,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC52" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD52" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE52" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF52" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG52" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH52" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI52" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ52" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7779,7 +7779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL52" t="n" s="85">
-        <v>0.7352253972822491</v>
+        <v>0.7414299938557048</v>
       </c>
       <c r="AM52" t="n" s="85">
         <v>0.705285470357786</v>
@@ -7788,16 +7788,16 @@
         <v>0.9642626693643391</v>
       </c>
       <c r="AO52" t="n" s="85">
-        <v>0.8688383290011398</v>
+        <v>0.8672253812521032</v>
       </c>
       <c r="AP52" t="n" s="85">
         <v>0.705285470357786</v>
       </c>
       <c r="AQ52" t="n" s="85">
-        <v>0.7999824057654739</v>
+        <v>0.7998869997946392</v>
       </c>
       <c r="AR52" t="n" s="85">
-        <v>0.04306317279150057</v>
+        <v>0.04239115809081483</v>
       </c>
     </row>
     <row r="53">
@@ -7853,16 +7853,16 @@
         <v>0.012798835981254959</v>
       </c>
       <c r="U53" t="n" s="85">
-        <v>6.3441492219082435E-6</v>
+        <v>6.279457464924761E-6</v>
       </c>
       <c r="V53" t="n" s="85">
         <v>0.012291838774817347</v>
       </c>
       <c r="W53" t="n" s="85">
-        <v>1.0040801838095416E-5</v>
+        <v>9.938415309239148E-6</v>
       </c>
       <c r="X53" t="n" s="85">
-        <v>1.0040801838095416E-5</v>
+        <v>9.938415309239148E-6</v>
       </c>
       <c r="Y53" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -7877,16 +7877,16 @@
         <v>0.09820490778255596</v>
       </c>
       <c r="AC53" t="n" s="85">
-        <v>8.029736270726623E-5</v>
+        <v>8.029736630741353E-5</v>
       </c>
       <c r="AD53" t="n" s="85">
-        <v>8.029736270726619E-5</v>
+        <v>8.029736630741349E-5</v>
       </c>
       <c r="AE53" t="n" s="85">
-        <v>1.1718003677324652E-5</v>
+        <v>1.1718004202725753E-5</v>
       </c>
       <c r="AF53" t="n" s="85">
-        <v>1.1718003677324652E-5</v>
+        <v>1.1718004202725753E-5</v>
       </c>
       <c r="AG53" t="n" s="85">
         <v>1.0</v>
@@ -7895,7 +7895,7 @@
         <v>0.03129351688105596</v>
       </c>
       <c r="AI53" t="n" s="85">
-        <v>1.2327585489675742E-4</v>
+        <v>1.232758604240785E-4</v>
       </c>
       <c r="AJ53" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -7919,7 +7919,7 @@
         <v>0.9194646791413078</v>
       </c>
       <c r="AQ53" t="n" s="85">
-        <v>0.9994797603954582</v>
+        <v>0.9994794503281368</v>
       </c>
       <c r="AR53" t="n" s="85">
         <v>1.0</v>
@@ -7984,7 +7984,7 @@
         <v>0.004370013363195002</v>
       </c>
       <c r="W54" t="n" s="85">
-        <v>2.3140403620176876E-6</v>
+        <v>2.294158586644881E-6</v>
       </c>
       <c r="X54" t="n" s="85">
         <v>1.0</v>
@@ -8002,16 +8002,16 @@
         <v>0.12175255306872632</v>
       </c>
       <c r="AC54" t="n" s="85">
-        <v>4.189616588894294E-5</v>
+        <v>4.14437157900882E-5</v>
       </c>
       <c r="AD54" t="n" s="85">
-        <v>4.189616588894295E-5</v>
+        <v>4.144371579008821E-5</v>
       </c>
       <c r="AE54" t="n" s="85">
-        <v>6.280677752106995E-6</v>
+        <v>6.212850201840584E-6</v>
       </c>
       <c r="AF54" t="n" s="85">
-        <v>6.280677752106995E-6</v>
+        <v>6.212850201840584E-6</v>
       </c>
       <c r="AG54" t="n" s="85">
         <v>1.0</v>
@@ -8020,7 +8020,7 @@
         <v>0.01414231447893504</v>
       </c>
       <c r="AI54" t="n" s="85">
-        <v>1.5069156982773168E-4</v>
+        <v>1.490642344542737E-4</v>
       </c>
       <c r="AJ54" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8029,7 +8029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL54" t="n" s="85">
-        <v>0.9707985521682724</v>
+        <v>0.9701132455243018</v>
       </c>
       <c r="AM54" t="n" s="85">
         <v>0.777423483858662</v>
@@ -8038,7 +8038,7 @@
         <v>0.992936562550551</v>
       </c>
       <c r="AO54" t="n" s="85">
-        <v>0.9999872799108236</v>
+        <v>0.9999875589684792</v>
       </c>
       <c r="AP54" t="n" s="85">
         <v>0.9470347883984256</v>
@@ -8070,10 +8070,10 @@
         <v>1.0</v>
       </c>
       <c r="J55" t="n" s="85">
-        <v>7.3417971079891375E-6</v>
+        <v>7.341513998287067E-6</v>
       </c>
       <c r="K55" t="n" s="85">
-        <v>7.3417971079891375E-6</v>
+        <v>7.341513998287067E-6</v>
       </c>
       <c r="L55" t="n" s="85">
         <v>1.0</v>
@@ -8109,10 +8109,10 @@
         <v>0.0039667611161808706</v>
       </c>
       <c r="W55" t="n" s="85">
-        <v>1.833732390530716E-6</v>
+        <v>1.8803387472285397E-6</v>
       </c>
       <c r="X55" t="n" s="85">
-        <v>1.8337323905307154E-6</v>
+        <v>1.8803387472285397E-6</v>
       </c>
       <c r="Y55" t="n" s="85">
         <v>0.25002375972719537</v>
@@ -8127,25 +8127,25 @@
         <v>0.1118954416272225</v>
       </c>
       <c r="AC55" t="n" s="85">
-        <v>3.627806723568477E-5</v>
+        <v>3.772969912903458E-5</v>
       </c>
       <c r="AD55" t="n" s="85">
-        <v>3.627806723568476E-5</v>
+        <v>3.7729699129034576E-5</v>
       </c>
       <c r="AE55" t="n" s="85">
-        <v>5.2940826070130206E-6</v>
+        <v>5.505921405000619E-6</v>
       </c>
       <c r="AF55" t="n" s="85">
-        <v>5.294082607013019E-6</v>
+        <v>5.505921405000618E-6</v>
       </c>
       <c r="AG55" t="n" s="85">
-        <v>4.85284010166165E-8</v>
+        <v>5.047023063700201E-8</v>
       </c>
       <c r="AH55" t="n" s="85">
         <v>0.010577188961884424</v>
       </c>
       <c r="AI55" t="n" s="85">
-        <v>9.456727704042531E-5</v>
+        <v>9.835138656535559E-5</v>
       </c>
       <c r="AJ55" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8169,10 +8169,10 @@
         <v>0.9138984359801405</v>
       </c>
       <c r="AQ55" t="n" s="85">
-        <v>0.9991672283564564</v>
+        <v>0.9991667321726213</v>
       </c>
       <c r="AR55" t="n" s="85">
-        <v>0.9928892782755824</v>
+        <v>0.9928726690342093</v>
       </c>
     </row>
     <row r="56">
@@ -8228,16 +8228,16 @@
         <v>0.016511228067222595</v>
       </c>
       <c r="U56" t="n" s="85">
-        <v>1.5398992736939326E-5</v>
+        <v>1.5856054722935536E-5</v>
       </c>
       <c r="V56" t="n" s="85">
         <v>0.012258601874451821</v>
       </c>
       <c r="W56" t="n" s="85">
-        <v>1.372548495919022E-5</v>
+        <v>1.4132876292752151E-5</v>
       </c>
       <c r="X56" t="n" s="85">
-        <v>1.372548495919022E-5</v>
+        <v>1.4132876292752151E-5</v>
       </c>
       <c r="Y56" t="n" s="85">
         <v>0.36296712898219324</v>
@@ -8252,16 +8252,16 @@
         <v>0.17270135755246224</v>
       </c>
       <c r="AC56" t="n" s="85">
-        <v>2.8355005302355265E-4</v>
+        <v>2.835500056619322E-4</v>
       </c>
       <c r="AD56" t="n" s="85">
-        <v>2.835500530235525E-4</v>
+        <v>2.835500056619321E-4</v>
       </c>
       <c r="AE56" t="n" s="85">
-        <v>4.138483104397441E-5</v>
+        <v>4.138482413000402E-5</v>
       </c>
       <c r="AF56" t="n" s="85">
-        <v>4.138483104397441E-5</v>
+        <v>4.138482413000402E-5</v>
       </c>
       <c r="AG56" t="n" s="85">
         <v>1.0</v>
@@ -8270,7 +8270,7 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI56" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ56" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8279,7 +8279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL56" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM56" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -8288,7 +8288,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO56" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP56" t="n" s="85">
         <v>0.9389893343444584</v>
@@ -8359,10 +8359,10 @@
         <v>0.0035751160202512136</v>
       </c>
       <c r="W57" t="n" s="85">
-        <v>1.7422330643907423E-6</v>
+        <v>1.7775720859824993E-6</v>
       </c>
       <c r="X57" t="n" s="85">
-        <v>1.7422330643907421E-6</v>
+        <v>1.7775720859824987E-6</v>
       </c>
       <c r="Y57" t="n" s="85">
         <v>0.2273138946354053</v>
@@ -8377,25 +8377,25 @@
         <v>0.10116084921926184</v>
       </c>
       <c r="AC57" t="n" s="85">
-        <v>3.455146598364499E-5</v>
+        <v>3.566766189612866E-5</v>
       </c>
       <c r="AD57" t="n" s="85">
-        <v>3.455146598364499E-5</v>
+        <v>3.566766189612865E-5</v>
       </c>
       <c r="AE57" t="n" s="85">
-        <v>5.042117177616405E-6</v>
+        <v>5.205004991023078E-6</v>
       </c>
       <c r="AF57" t="n" s="85">
-        <v>5.042117177616404E-6</v>
+        <v>5.205004991023077E-6</v>
       </c>
       <c r="AG57" t="n" s="85">
-        <v>4.165027358899067E-8</v>
+        <v>4.2995804712057017E-8</v>
       </c>
       <c r="AH57" t="n" s="85">
         <v>0.010577188961884424</v>
       </c>
       <c r="AI57" t="n" s="85">
-        <v>1.031926372679514E-4</v>
+        <v>1.0652635269634873E-4</v>
       </c>
       <c r="AJ57" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8404,7 +8404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL57" t="n" s="85">
-        <v>0.9272542481167664</v>
+        <v>0.927973070370987</v>
       </c>
       <c r="AM57" t="n" s="85">
         <v>0.7618433263360782</v>
@@ -8413,16 +8413,16 @@
         <v>0.9893830057576142</v>
       </c>
       <c r="AO57" t="n" s="85">
-        <v>0.9995797147777515</v>
+        <v>0.9995777383576689</v>
       </c>
       <c r="AP57" t="n" s="85">
         <v>0.8286835061808032</v>
       </c>
       <c r="AQ57" t="n" s="85">
-        <v>0.990448177092729</v>
+        <v>0.9904447220121556</v>
       </c>
       <c r="AR57" t="n" s="85">
-        <v>0.9918223930601768</v>
+        <v>0.9917669545236449</v>
       </c>
     </row>
     <row r="58">
@@ -8445,10 +8445,10 @@
         <v>1.0</v>
       </c>
       <c r="J58" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="K58" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="L58" t="n" s="85">
         <v>1.0</v>
@@ -8478,16 +8478,16 @@
         <v>0.0016108314648964862</v>
       </c>
       <c r="U58" t="n" s="85">
-        <v>5.95776469769375E-7</v>
+        <v>5.801158413367406E-7</v>
       </c>
       <c r="V58" t="n" s="85">
         <v>0.0026108272062360985</v>
       </c>
       <c r="W58" t="n" s="85">
-        <v>9.506308948292502E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="X58" t="n" s="85">
-        <v>9.506308948292503E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="Y58" t="n" s="85">
         <v>0.2180821619662109</v>
@@ -8502,25 +8502,25 @@
         <v>0.09730750578087043</v>
       </c>
       <c r="AC58" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.226930622300881E-5</v>
       </c>
       <c r="AD58" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.2269306223008817E-5</v>
       </c>
       <c r="AE58" t="n" s="85">
-        <v>2.8283631772555973E-6</v>
+        <v>2.8283634787157663E-6</v>
       </c>
       <c r="AF58" t="n" s="85">
-        <v>2.8283631772555965E-6</v>
+        <v>2.8283634787157655E-6</v>
       </c>
       <c r="AG58" t="n" s="85">
-        <v>2.1396434598395317E-8</v>
+        <v>2.139643687892442E-8</v>
       </c>
       <c r="AH58" t="n" s="85">
         <v>0.010190284087274005</v>
       </c>
       <c r="AI58" t="n" s="85">
-        <v>7.648986226281382E-5</v>
+        <v>7.648987041565721E-5</v>
       </c>
       <c r="AJ58" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8529,7 +8529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL58" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM58" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -8538,7 +8538,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO58" t="n" s="85">
-        <v>0.9999992775185319</v>
+        <v>0.9999993240336584</v>
       </c>
       <c r="AP58" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -8547,7 +8547,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AR58" t="n" s="85">
-        <v>0.9999842359266616</v>
+        <v>0.9999852249546308</v>
       </c>
     </row>
     <row r="59">
@@ -8570,10 +8570,10 @@
         <v>1.0</v>
       </c>
       <c r="J59" t="n" s="85">
-        <v>8.743999338880122E-7</v>
+        <v>8.743828096355539E-7</v>
       </c>
       <c r="K59" t="n" s="85">
-        <v>8.743999338880122E-7</v>
+        <v>8.743828096355539E-7</v>
       </c>
       <c r="L59" t="n" s="85">
         <v>1.0</v>
@@ -8609,10 +8609,10 @@
         <v>0.005013150485849409</v>
       </c>
       <c r="W59" t="n" s="85">
-        <v>2.617870360965641E-6</v>
+        <v>2.652052447436744E-6</v>
       </c>
       <c r="X59" t="n" s="85">
-        <v>2.617870360965641E-6</v>
+        <v>2.652052447436744E-6</v>
       </c>
       <c r="Y59" t="n" s="85">
         <v>0.21966061299501963</v>
@@ -8627,25 +8627,25 @@
         <v>0.10020725831613303</v>
       </c>
       <c r="AC59" t="n" s="85">
-        <v>5.443044525788696E-5</v>
+        <v>5.559445172421701E-5</v>
       </c>
       <c r="AD59" t="n" s="85">
-        <v>5.4430445257886956E-5</v>
+        <v>5.559445172421698E-5</v>
       </c>
       <c r="AE59" t="n" s="85">
-        <v>7.943095295648475E-6</v>
+        <v>8.112963584375918E-6</v>
       </c>
       <c r="AF59" t="n" s="85">
-        <v>7.943095295648476E-6</v>
+        <v>8.11296358437592E-6</v>
       </c>
       <c r="AG59" t="n" s="85">
-        <v>6.050944502381796E-8</v>
+        <v>6.180348347557719E-8</v>
       </c>
       <c r="AH59" t="n" s="85">
         <v>0.010409516662817926</v>
       </c>
       <c r="AI59" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ59" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8654,7 +8654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL59" t="n" s="85">
-        <v>0.9835490129873705</v>
+        <v>0.983891882934053</v>
       </c>
       <c r="AM59" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -8663,7 +8663,7 @@
         <v>0.9759387637074648</v>
       </c>
       <c r="AO59" t="n" s="85">
-        <v>0.9999901391728953</v>
+        <v>0.9999900461739633</v>
       </c>
       <c r="AP59" t="n" s="85">
         <v>0.7956557842747726</v>
@@ -8672,7 +8672,7 @@
         <v>0.9882317962775538</v>
       </c>
       <c r="AR59" t="n" s="85">
-        <v>0.9998960853576694</v>
+        <v>0.999894921324142</v>
       </c>
     </row>
     <row r="60">
@@ -8734,7 +8734,7 @@
         <v>0.0041614076581212925</v>
       </c>
       <c r="W60" t="n" s="85">
-        <v>2.4488255303645217E-6</v>
+        <v>2.469574818616285E-6</v>
       </c>
       <c r="X60" t="n" s="85">
         <v>1.0</v>
@@ -8752,25 +8752,25 @@
         <v>0.10452794359747974</v>
       </c>
       <c r="AC60" t="n" s="85">
-        <v>4.713381710565927E-5</v>
+        <v>4.765094903097348E-5</v>
       </c>
       <c r="AD60" t="n" s="85">
-        <v>4.713381710565927E-5</v>
+        <v>4.765094903097347E-5</v>
       </c>
       <c r="AE60" t="n" s="85">
-        <v>7.040718385653666E-6</v>
+        <v>7.1179671287159E-6</v>
       </c>
       <c r="AF60" t="n" s="85">
-        <v>7.040718385653666E-6</v>
+        <v>7.1179671287159E-6</v>
       </c>
       <c r="AG60" t="n" s="85">
-        <v>5.891600349653064E-8</v>
+        <v>5.956241446296339E-8</v>
       </c>
       <c r="AH60" t="n" s="85">
         <v>0.011150408890625197</v>
       </c>
       <c r="AI60" t="n" s="85">
-        <v>1.1917244189372025E-4</v>
+        <v>1.204799692139601E-4</v>
       </c>
       <c r="AJ60" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8779,7 +8779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL60" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM60" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -8788,7 +8788,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO60" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP60" t="n" s="85">
         <v>0.822760756853585</v>
@@ -8820,7 +8820,7 @@
         <v>1.0</v>
       </c>
       <c r="J61" t="n" s="85">
-        <v>7.10435289701342E-7</v>
+        <v>7.104324869744006E-7</v>
       </c>
       <c r="K61" t="n" s="85">
         <v>1.0</v>
@@ -8859,10 +8859,10 @@
         <v>0.0036261716864365704</v>
       </c>
       <c r="W61" t="n" s="85">
-        <v>2.112723748154514E-6</v>
+        <v>2.1184875695040886E-6</v>
       </c>
       <c r="X61" t="n" s="85">
-        <v>2.112723748154514E-6</v>
+        <v>2.1184875695040886E-6</v>
       </c>
       <c r="Y61" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -8877,16 +8877,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC61" t="n" s="85">
-        <v>4.0694732007752624E-5</v>
+        <v>4.0873195159013156E-5</v>
       </c>
       <c r="AD61" t="n" s="85">
-        <v>4.0694732007752624E-5</v>
+        <v>4.0873195159013156E-5</v>
       </c>
       <c r="AE61" t="n" s="85">
-        <v>6.078854394136768E-6</v>
+        <v>6.105512870270338E-6</v>
       </c>
       <c r="AF61" t="n" s="85">
-        <v>6.078854394136768E-6</v>
+        <v>6.105512870270338E-6</v>
       </c>
       <c r="AG61" t="n" s="85">
         <v>1.0</v>
@@ -8895,7 +8895,7 @@
         <v>0.013153817287712883</v>
       </c>
       <c r="AI61" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ61" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -8922,7 +8922,7 @@
         <v>0.9996208047688533</v>
       </c>
       <c r="AR61" t="n" s="85">
-        <v>0.9999870205592609</v>
+        <v>0.9999869977779874</v>
       </c>
     </row>
     <row r="62">
@@ -8945,10 +8945,10 @@
         <v>1.0</v>
       </c>
       <c r="J62" t="n" s="85">
-        <v>1.7217542404601094E-5</v>
+        <v>1.721720522167947E-5</v>
       </c>
       <c r="K62" t="n" s="85">
-        <v>1.7217542404601094E-5</v>
+        <v>1.721720522167947E-5</v>
       </c>
       <c r="L62" t="n" s="85">
         <v>1.0</v>
@@ -8984,10 +8984,10 @@
         <v>0.003804669638478579</v>
       </c>
       <c r="W62" t="n" s="85">
-        <v>2.197204546734859E-6</v>
+        <v>2.203198843629615E-6</v>
       </c>
       <c r="X62" t="n" s="85">
-        <v>2.197204546734859E-6</v>
+        <v>2.203198843629615E-6</v>
       </c>
       <c r="Y62" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -9002,16 +9002,16 @@
         <v>0.10914509812707647</v>
       </c>
       <c r="AC62" t="n" s="85">
-        <v>4.2405281091504116E-5</v>
+        <v>4.259124538511045E-5</v>
       </c>
       <c r="AD62" t="n" s="85">
-        <v>4.2405281091504116E-5</v>
+        <v>4.259124538511045E-5</v>
       </c>
       <c r="AE62" t="n" s="85">
-        <v>6.2867288889896835E-6</v>
+        <v>6.314298981343816E-6</v>
       </c>
       <c r="AF62" t="n" s="85">
-        <v>6.2867288889896835E-6</v>
+        <v>6.314298981343816E-6</v>
       </c>
       <c r="AG62" t="n" s="85">
         <v>1.0</v>
@@ -9020,7 +9020,7 @@
         <v>0.013376990847992914</v>
       </c>
       <c r="AI62" t="n" s="85">
-        <v>1.4026335361853003E-4</v>
+        <v>1.4087845818008972E-4</v>
       </c>
       <c r="AJ62" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9029,7 +9029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL62" t="n" s="85">
-        <v>0.9841131987958429</v>
+        <v>0.9837351283195794</v>
       </c>
       <c r="AM62" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -9038,7 +9038,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO62" t="n" s="85">
-        <v>0.9999890345823623</v>
+        <v>0.9999892751458479</v>
       </c>
       <c r="AP62" t="n" s="85">
         <v>0.9138984359801405</v>
@@ -9103,13 +9103,13 @@
         <v>0.00631258719312559</v>
       </c>
       <c r="U63" t="n" s="85">
-        <v>3.1801413898902337E-6</v>
+        <v>3.2446464912251287E-6</v>
       </c>
       <c r="V63" t="n" s="85">
         <v>0.004555400946551513</v>
       </c>
       <c r="W63" t="n" s="85">
-        <v>5.506590272336384E-6</v>
+        <v>5.6182841765766315E-6</v>
       </c>
       <c r="X63" t="n" s="85">
         <v>1.0</v>
@@ -9127,25 +9127,25 @@
         <v>0.08964704642190782</v>
       </c>
       <c r="AC63" t="n" s="85">
-        <v>1.0920756279592968E-4</v>
+        <v>1.127352765699737E-4</v>
       </c>
       <c r="AD63" t="n" s="85">
-        <v>1.0920756279592968E-4</v>
+        <v>1.127352765699737E-4</v>
       </c>
       <c r="AE63" t="n" s="85">
-        <v>1.593719717615073E-5</v>
+        <v>1.6452049727916403E-5</v>
       </c>
       <c r="AF63" t="n" s="85">
-        <v>1.5937197176150722E-5</v>
+        <v>1.6452049727916393E-5</v>
       </c>
       <c r="AG63" t="n" s="85">
-        <v>1.1307564877040985E-7</v>
+        <v>1.1672861026776235E-7</v>
       </c>
       <c r="AH63" t="n" s="85">
         <v>0.010873534206382464</v>
       </c>
       <c r="AI63" t="n" s="85">
-        <v>1.0319262797601885E-4</v>
+        <v>1.0652634425045888E-4</v>
       </c>
       <c r="AJ63" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9154,7 +9154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL63" t="n" s="85">
-        <v>0.9868565637503101</v>
+        <v>0.9865428865047268</v>
       </c>
       <c r="AM63" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -9163,13 +9163,13 @@
         <v>0.9887522290766848</v>
       </c>
       <c r="AO63" t="n" s="85">
-        <v>0.9999986111110691</v>
+        <v>0.999998641581326</v>
       </c>
       <c r="AP63" t="n" s="85">
         <v>0.8753024662366633</v>
       </c>
       <c r="AQ63" t="n" s="85">
-        <v>0.9984919871410156</v>
+        <v>0.9984914372317144</v>
       </c>
       <c r="AR63" t="n" s="85">
         <v>1.0</v>
@@ -9234,10 +9234,10 @@
         <v>0.004057158004260733</v>
       </c>
       <c r="W64" t="n" s="85">
-        <v>2.371904473599155E-6</v>
+        <v>2.378375376433958E-6</v>
       </c>
       <c r="X64" t="n" s="85">
-        <v>2.371904473599155E-6</v>
+        <v>2.378375376433958E-6</v>
       </c>
       <c r="Y64" t="n" s="85">
         <v>0.23039493774313574</v>
@@ -9252,16 +9252,16 @@
         <v>0.1063132804537054</v>
       </c>
       <c r="AC64" t="n" s="85">
-        <v>4.159731273792592E-5</v>
+        <v>4.177973391184398E-5</v>
       </c>
       <c r="AD64" t="n" s="85">
-        <v>4.159731273792592E-5</v>
+        <v>4.177973391184398E-5</v>
       </c>
       <c r="AE64" t="n" s="85">
-        <v>6.213681817074937E-6</v>
+        <v>6.240931567644709E-6</v>
       </c>
       <c r="AF64" t="n" s="85">
-        <v>6.213681817074937E-6</v>
+        <v>6.240931567644709E-6</v>
       </c>
       <c r="AG64" t="n" s="85">
         <v>1.0</v>
@@ -9270,7 +9270,7 @@
         <v>0.014604180310559016</v>
       </c>
       <c r="AI64" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ64" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9279,7 +9279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL64" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM64" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -9288,7 +9288,7 @@
         <v>0.9797479520785931</v>
       </c>
       <c r="AO64" t="n" s="85">
-        <v>0.9999998014134415</v>
+        <v>0.9999998141989367</v>
       </c>
       <c r="AP64" t="n" s="85">
         <v>0.8573872222225585</v>
@@ -9320,10 +9320,10 @@
         <v>1.0</v>
       </c>
       <c r="J65" t="n" s="85">
-        <v>2.638943365167431E-5</v>
+        <v>2.6388416058530986E-5</v>
       </c>
       <c r="K65" t="n" s="85">
-        <v>2.638943365167431E-5</v>
+        <v>2.6388416058530986E-5</v>
       </c>
       <c r="L65" t="n" s="85">
         <v>0.003864684044422315</v>
@@ -9359,10 +9359,10 @@
         <v>0.0038095315455450507</v>
       </c>
       <c r="W65" t="n" s="85">
-        <v>2.24888433392042E-6</v>
+        <v>2.258503728962565E-6</v>
       </c>
       <c r="X65" t="n" s="85">
-        <v>2.24888433392042E-6</v>
+        <v>2.258503728962565E-6</v>
       </c>
       <c r="Y65" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -9377,16 +9377,16 @@
         <v>0.10914509812707647</v>
       </c>
       <c r="AC65" t="n" s="85">
-        <v>4.2394622171291945E-5</v>
+        <v>4.267680178205044E-5</v>
       </c>
       <c r="AD65" t="n" s="85">
-        <v>4.2394622171291945E-5</v>
+        <v>4.267680178205044E-5</v>
       </c>
       <c r="AE65" t="n" s="85">
-        <v>6.285147778338602E-6</v>
+        <v>6.326982248305987E-6</v>
       </c>
       <c r="AF65" t="n" s="85">
-        <v>6.285147778338602E-6</v>
+        <v>6.326982248305987E-6</v>
       </c>
       <c r="AG65" t="n" s="85">
         <v>1.0</v>
@@ -9395,7 +9395,7 @@
         <v>0.013683966829840485</v>
       </c>
       <c r="AI65" t="n" s="85">
-        <v>1.4044918448857672E-4</v>
+        <v>1.4138400657586825E-4</v>
       </c>
       <c r="AJ65" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9404,7 +9404,7 @@
         <v>0.7595168408926142</v>
       </c>
       <c r="AL65" t="n" s="85">
-        <v>0.9795757409164926</v>
+        <v>0.9785970177615775</v>
       </c>
       <c r="AM65" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -9413,13 +9413,13 @@
         <v>0.9840460214717188</v>
       </c>
       <c r="AO65" t="n" s="85">
-        <v>0.999992849441946</v>
+        <v>0.9999931597449071</v>
       </c>
       <c r="AP65" t="n" s="85">
         <v>0.9424911485327869</v>
       </c>
       <c r="AQ65" t="n" s="85">
-        <v>0.9994831242571545</v>
+        <v>0.9994829355869976</v>
       </c>
       <c r="AR65" t="n" s="85">
         <v>1.0</v>
@@ -9445,10 +9445,10 @@
         <v>1.0</v>
       </c>
       <c r="J66" t="n" s="85">
-        <v>1.1285037703752566E-7</v>
+        <v>1.1284602534173477E-7</v>
       </c>
       <c r="K66" t="n" s="85">
-        <v>1.1285037703752564E-7</v>
+        <v>1.1284602534173476E-7</v>
       </c>
       <c r="L66" t="n" s="85">
         <v>1.0</v>
@@ -9478,16 +9478,16 @@
         <v>7.34039994254704E-4</v>
       </c>
       <c r="U66" t="n" s="85">
-        <v>1.557647785165904E-7</v>
+        <v>1.4824454624149606E-7</v>
       </c>
       <c r="V66" t="n" s="85">
         <v>0.00128998386735488</v>
       </c>
       <c r="W66" t="n" s="85">
-        <v>2.6218514884605295E-7</v>
+        <v>2.4952699271943165E-7</v>
       </c>
       <c r="X66" t="n" s="85">
-        <v>2.62185148846053E-7</v>
+        <v>2.4952699271943144E-7</v>
       </c>
       <c r="Y66" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -9502,25 +9502,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC66" t="n" s="85">
-        <v>6.736515481184626E-6</v>
+        <v>6.736516761989778E-6</v>
       </c>
       <c r="AD66" t="n" s="85">
-        <v>6.736515481184625E-6</v>
+        <v>6.7365167619897766E-6</v>
       </c>
       <c r="AE66" t="n" s="85">
-        <v>8.555972841748002E-7</v>
+        <v>8.555974468457637E-7</v>
       </c>
       <c r="AF66" t="n" s="85">
-        <v>8.555972841747998E-7</v>
+        <v>8.555974468457637E-7</v>
       </c>
       <c r="AG66" t="n" s="85">
-        <v>5.184308447178444E-9</v>
+        <v>5.1843094328453135E-9</v>
       </c>
       <c r="AH66" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI66" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ66" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9529,7 +9529,7 @@
         <v>0.7541331274410363</v>
       </c>
       <c r="AL66" t="n" s="85">
-        <v>0.7352967116290908</v>
+        <v>0.7415002246196891</v>
       </c>
       <c r="AM66" t="n" s="85">
         <v>0.649286387550417</v>
@@ -9538,16 +9538,16 @@
         <v>0.9030837252029896</v>
       </c>
       <c r="AO66" t="n" s="85">
-        <v>0.8823761284795748</v>
+        <v>0.8809068408223821</v>
       </c>
       <c r="AP66" t="n" s="85">
         <v>0.6283913401685958</v>
       </c>
       <c r="AQ66" t="n" s="85">
-        <v>0.6261454199100353</v>
+        <v>0.6260058602760602</v>
       </c>
       <c r="AR66" t="n" s="85">
-        <v>0.058198348432150375</v>
+        <v>0.05730428816761364</v>
       </c>
     </row>
     <row r="67">
@@ -9609,10 +9609,10 @@
         <v>0.0038459811684908095</v>
       </c>
       <c r="W67" t="n" s="85">
-        <v>2.156988577563597E-6</v>
+        <v>2.1685169073110344E-6</v>
       </c>
       <c r="X67" t="n" s="85">
-        <v>2.156988577563597E-6</v>
+        <v>2.1685169073110344E-6</v>
       </c>
       <c r="Y67" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -9627,16 +9627,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC67" t="n" s="85">
-        <v>3.9285698941141876E-5</v>
+        <v>3.960856355739949E-5</v>
       </c>
       <c r="AD67" t="n" s="85">
-        <v>3.9285698941141876E-5</v>
+        <v>3.960856355739949E-5</v>
       </c>
       <c r="AE67" t="n" s="85">
-        <v>5.824234670261457E-6</v>
+        <v>5.872100721868667E-6</v>
       </c>
       <c r="AF67" t="n" s="85">
-        <v>5.824234670261457E-6</v>
+        <v>5.872100721868667E-6</v>
       </c>
       <c r="AG67" t="n" s="85">
         <v>1.0</v>
@@ -9645,7 +9645,7 @@
         <v>0.016884860013846297</v>
       </c>
       <c r="AI67" t="n" s="85">
-        <v>1.6607620874689946E-4</v>
+        <v>1.6744102961012333E-4</v>
       </c>
       <c r="AJ67" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9669,10 +9669,10 @@
         <v>0.9579575420306546</v>
       </c>
       <c r="AQ67" t="n" s="85">
-        <v>0.9999103023206576</v>
+        <v>0.9999102488370191</v>
       </c>
       <c r="AR67" t="n" s="85">
-        <v>0.992258473096998</v>
+        <v>0.9922404019344845</v>
       </c>
     </row>
     <row r="68">
@@ -9695,10 +9695,10 @@
         <v>1.0</v>
       </c>
       <c r="J68" t="n" s="85">
-        <v>1.3217807874539051E-6</v>
+        <v>1.3217549017042645E-6</v>
       </c>
       <c r="K68" t="n" s="85">
-        <v>1.3217807874539051E-6</v>
+        <v>1.3217549017042645E-6</v>
       </c>
       <c r="L68" t="n" s="85">
         <v>1.0</v>
@@ -9734,10 +9734,10 @@
         <v>0.003726741397093472</v>
       </c>
       <c r="W68" t="n" s="85">
-        <v>2.2799117460724476E-6</v>
+        <v>2.2861316798454353E-6</v>
       </c>
       <c r="X68" t="n" s="85">
-        <v>2.2799117460724476E-6</v>
+        <v>2.2861316798454353E-6</v>
       </c>
       <c r="Y68" t="n" s="85">
         <v>0.22731950960297784</v>
@@ -9752,16 +9752,16 @@
         <v>0.10369120838380375</v>
       </c>
       <c r="AC68" t="n" s="85">
-        <v>4.461640851841263E-5</v>
+        <v>4.4812069064757925E-5</v>
       </c>
       <c r="AD68" t="n" s="85">
-        <v>4.461640851841262E-5</v>
+        <v>4.481206906475791E-5</v>
       </c>
       <c r="AE68" t="n" s="85">
-        <v>6.664668190068505E-6</v>
+        <v>6.693895702659676E-6</v>
       </c>
       <c r="AF68" t="n" s="85">
-        <v>6.664668190068505E-6</v>
+        <v>6.693895702659676E-6</v>
       </c>
       <c r="AG68" t="n" s="85">
         <v>1.0</v>
@@ -9770,7 +9770,7 @@
         <v>0.01754355753999358</v>
       </c>
       <c r="AI68" t="n" s="85">
-        <v>1.9405414849016847E-4</v>
+        <v>1.949050987856248E-4</v>
       </c>
       <c r="AJ68" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -9779,7 +9779,7 @@
         <v>0.7618433263360782</v>
       </c>
       <c r="AL68" t="n" s="85">
-        <v>0.9579364342765359</v>
+        <v>0.9583656897544445</v>
       </c>
       <c r="AM68" t="n" s="85">
         <v>0.7376421550530808</v>
@@ -9788,7 +9788,7 @@
         <v>0.9768463262147846</v>
       </c>
       <c r="AO68" t="n" s="85">
-        <v>0.9999486986701293</v>
+        <v>0.999948457332634</v>
       </c>
       <c r="AP68" t="n" s="85">
         <v>0.8993761550653004</v>
@@ -9904,7 +9904,7 @@
         <v>0.7309019728163841</v>
       </c>
       <c r="AL69" t="n" s="85">
-        <v>0.8741754285359262</v>
+        <v>0.8739010095575678</v>
       </c>
       <c r="AM69" t="n" s="85">
         <v>0.6977493915455477</v>
@@ -9913,7 +9913,7 @@
         <v>0.8980364894917493</v>
       </c>
       <c r="AO69" t="n" s="85">
-        <v>0.8660180702984848</v>
+        <v>0.8674958352992413</v>
       </c>
       <c r="AP69" t="n" s="85">
         <v>0.5685400074138701</v>
@@ -9922,7 +9922,7 @@
         <v>0.5683195003453033</v>
       </c>
       <c r="AR69" t="n" s="85">
-        <v>0.08995437088627613</v>
+        <v>0.09100737852665049</v>
       </c>
     </row>
     <row r="70">
@@ -9945,10 +9945,10 @@
         <v>1.0</v>
       </c>
       <c r="J70" t="n" s="85">
-        <v>2.5172617663599817E-7</v>
+        <v>2.5171646966274794E-7</v>
       </c>
       <c r="K70" t="n" s="85">
-        <v>2.5172617663599817E-7</v>
+        <v>2.5171646966274794E-7</v>
       </c>
       <c r="L70" t="n" s="85">
         <v>1.0</v>
@@ -9978,16 +9978,16 @@
         <v>0.0033738749388922875</v>
       </c>
       <c r="U70" t="n" s="85">
-        <v>2.9107914344660305E-6</v>
+        <v>2.8811097789045536E-6</v>
       </c>
       <c r="V70" t="n" s="85">
         <v>0.005280678082975135</v>
       </c>
       <c r="W70" t="n" s="85">
-        <v>4.4935513334195016E-6</v>
+        <v>4.447730127418257E-6</v>
       </c>
       <c r="X70" t="n" s="85">
-        <v>4.4935513334195016E-6</v>
+        <v>4.447730127418257E-6</v>
       </c>
       <c r="Y70" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -10002,16 +10002,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC70" t="n" s="85">
-        <v>4.9470434357421625E-5</v>
+        <v>4.9470436575506194E-5</v>
       </c>
       <c r="AD70" t="n" s="85">
-        <v>4.9470434357421625E-5</v>
+        <v>4.9470436575506194E-5</v>
       </c>
       <c r="AE70" t="n" s="85">
-        <v>7.219267870940714E-6</v>
+        <v>7.219268194633086E-6</v>
       </c>
       <c r="AF70" t="n" s="85">
-        <v>7.219267870940714E-6</v>
+        <v>7.219268194633086E-6</v>
       </c>
       <c r="AG70" t="n" s="85">
         <v>1.0</v>
@@ -10020,7 +10020,7 @@
         <v>0.04153135422831623</v>
       </c>
       <c r="AI70" t="n" s="85">
-        <v>1.1735545174383436E-4</v>
+        <v>1.1735545700573342E-4</v>
       </c>
       <c r="AJ70" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10029,7 +10029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL70" t="n" s="85">
-        <v>0.8555098784436193</v>
+        <v>0.8594346836343917</v>
       </c>
       <c r="AM70" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -10038,16 +10038,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO70" t="n" s="85">
-        <v>0.9932264958591975</v>
+        <v>0.9931311061854764</v>
       </c>
       <c r="AP70" t="n" s="85">
         <v>0.8516409323597693</v>
       </c>
       <c r="AQ70" t="n" s="85">
-        <v>0.9913640502054755</v>
+        <v>0.9913589449232448</v>
       </c>
       <c r="AR70" t="n" s="85">
-        <v>0.9670384376136069</v>
+        <v>0.9665106798019719</v>
       </c>
     </row>
     <row r="71">
@@ -10070,10 +10070,10 @@
         <v>1.0</v>
       </c>
       <c r="J71" t="n" s="85">
-        <v>3.892620894789252E-6</v>
+        <v>3.892470789504866E-6</v>
       </c>
       <c r="K71" t="n" s="85">
-        <v>3.892620894789252E-6</v>
+        <v>3.892470789504866E-6</v>
       </c>
       <c r="L71" t="n" s="85">
         <v>1.0</v>
@@ -10109,10 +10109,10 @@
         <v>0.0036300051437540702</v>
       </c>
       <c r="W71" t="n" s="85">
-        <v>1.5650866307500966E-6</v>
+        <v>1.604865038082804E-6</v>
       </c>
       <c r="X71" t="n" s="85">
-        <v>1.5650866307500966E-6</v>
+        <v>1.6048650380828037E-6</v>
       </c>
       <c r="Y71" t="n" s="85">
         <v>0.25002374584645526</v>
@@ -10127,25 +10127,25 @@
         <v>0.10843247639090432</v>
       </c>
       <c r="AC71" t="n" s="85">
-        <v>3.2721765906466945E-5</v>
+        <v>3.403109971186941E-5</v>
       </c>
       <c r="AD71" t="n" s="85">
-        <v>3.2721765906466945E-5</v>
+        <v>3.403109971186941E-5</v>
       </c>
       <c r="AE71" t="n" s="85">
-        <v>4.604524728181916E-6</v>
+        <v>4.788771374824434E-6</v>
       </c>
       <c r="AF71" t="n" s="85">
-        <v>4.604524728181918E-6</v>
+        <v>4.788771374824435E-6</v>
       </c>
       <c r="AG71" t="n" s="85">
-        <v>6.656870314191566E-7</v>
+        <v>6.923240097399705E-7</v>
       </c>
       <c r="AH71" t="n" s="85">
         <v>0.06718898691499123</v>
       </c>
       <c r="AI71" t="n" s="85">
-        <v>9.2332650351711E-5</v>
+        <v>9.602734716718303E-5</v>
       </c>
       <c r="AJ71" t="n" s="85">
         <v>0.5262883698177858</v>
@@ -10169,10 +10169,10 @@
         <v>0.8142687494515095</v>
       </c>
       <c r="AQ71" t="n" s="85">
-        <v>0.9916829686406609</v>
+        <v>0.9916780503096155</v>
       </c>
       <c r="AR71" t="n" s="85">
-        <v>0.8550059318739134</v>
+        <v>0.8547143813648419</v>
       </c>
     </row>
     <row r="72">
@@ -10195,10 +10195,10 @@
         <v>1.0</v>
       </c>
       <c r="J72" t="n" s="85">
-        <v>2.176324653561168E-7</v>
+        <v>2.1762820323808213E-7</v>
       </c>
       <c r="K72" t="n" s="85">
-        <v>2.1763246535611673E-7</v>
+        <v>2.1762820323808205E-7</v>
       </c>
       <c r="L72" t="n" s="85">
         <v>1.0</v>
@@ -10228,16 +10228,16 @@
         <v>0.00171153966746655</v>
       </c>
       <c r="U72" t="n" s="85">
-        <v>1.6633669843993363E-6</v>
+        <v>1.6542806972811164E-6</v>
       </c>
       <c r="V72" t="n" s="85">
         <v>0.0026795908349048617</v>
       </c>
       <c r="W72" t="n" s="85">
-        <v>2.5678333999953403E-6</v>
+        <v>2.5538063842587223E-6</v>
       </c>
       <c r="X72" t="n" s="85">
-        <v>2.5678333999953403E-6</v>
+        <v>2.5538063842587223E-6</v>
       </c>
       <c r="Y72" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -10252,16 +10252,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC72" t="n" s="85">
-        <v>5.353494586689366E-5</v>
+        <v>5.353494716212582E-5</v>
       </c>
       <c r="AD72" t="n" s="85">
-        <v>5.353494586689366E-5</v>
+        <v>5.353494716212582E-5</v>
       </c>
       <c r="AE72" t="n" s="85">
-        <v>7.812416019921914E-6</v>
+        <v>7.812416208940237E-6</v>
       </c>
       <c r="AF72" t="n" s="85">
-        <v>7.812416019921914E-6</v>
+        <v>7.812416208940237E-6</v>
       </c>
       <c r="AG72" t="n" s="85">
         <v>1.0</v>
@@ -10270,7 +10270,7 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI72" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ72" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10279,7 +10279,7 @@
         <v>0.7541331274410363</v>
       </c>
       <c r="AL72" t="n" s="85">
-        <v>0.9346171843635332</v>
+        <v>0.9365525491812733</v>
       </c>
       <c r="AM72" t="n" s="85">
         <v>0.6748747045676107</v>
@@ -10288,7 +10288,7 @@
         <v>0.9355738901252555</v>
       </c>
       <c r="AO72" t="n" s="85">
-        <v>0.9997262894840033</v>
+        <v>0.9997224093002901</v>
       </c>
       <c r="AP72" t="n" s="85">
         <v>0.7493075930377163</v>
@@ -10297,7 +10297,7 @@
         <v>0.9601984378747651</v>
       </c>
       <c r="AR72" t="n" s="85">
-        <v>0.9964169320567189</v>
+        <v>0.9963599535179662</v>
       </c>
     </row>
     <row r="73">
@@ -10308,7 +10308,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" t="n" s="85">
-        <v>8.56755262460805E-8</v>
+        <v>8.565912855303364E-8</v>
       </c>
       <c r="G73" t="n" s="85">
         <v>1.0</v>
@@ -10353,16 +10353,16 @@
         <v>7.34039994254704E-4</v>
       </c>
       <c r="U73" t="n" s="85">
-        <v>1.1815204362356764E-7</v>
+        <v>1.1244773195507162E-7</v>
       </c>
       <c r="V73" t="n" s="85">
         <v>0.00128998386735488</v>
       </c>
       <c r="W73" t="n" s="85">
-        <v>1.9887491884730477E-7</v>
+        <v>1.8927334554996135E-7</v>
       </c>
       <c r="X73" t="n" s="85">
-        <v>1.988749188473047E-7</v>
+        <v>1.892733455499612E-7</v>
       </c>
       <c r="Y73" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -10377,25 +10377,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC73" t="n" s="85">
-        <v>6.736515481184626E-6</v>
+        <v>6.736516761989778E-6</v>
       </c>
       <c r="AD73" t="n" s="85">
-        <v>6.736515481184625E-6</v>
+        <v>6.7365167619897766E-6</v>
       </c>
       <c r="AE73" t="n" s="85">
-        <v>6.489945575710287E-7</v>
+        <v>6.489946809615464E-7</v>
       </c>
       <c r="AF73" t="n" s="85">
-        <v>6.489945575710286E-7</v>
+        <v>6.489946809615462E-7</v>
       </c>
       <c r="AG73" t="n" s="85">
-        <v>3.191175040385548E-9</v>
+        <v>3.1911756471078387E-9</v>
       </c>
       <c r="AH73" t="n" s="85">
         <v>0.006897932987662292</v>
       </c>
       <c r="AI73" t="n" s="85">
-        <v>2.8201445976389004E-5</v>
+        <v>2.8201451338558456E-5</v>
       </c>
       <c r="AJ73" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10404,7 +10404,7 @@
         <v>0.7541331274410363</v>
       </c>
       <c r="AL73" t="n" s="85">
-        <v>0.7313190225625068</v>
+        <v>0.7375824866008247</v>
       </c>
       <c r="AM73" t="n" s="85">
         <v>0.7231340227169366</v>
@@ -10413,16 +10413,16 @@
         <v>0.9645215507854662</v>
       </c>
       <c r="AO73" t="n" s="85">
-        <v>0.7188685673935162</v>
+        <v>0.7160141833245695</v>
       </c>
       <c r="AP73" t="n" s="85">
         <v>0.672751386557107</v>
       </c>
       <c r="AQ73" t="n" s="85">
-        <v>0.7602987098756865</v>
+        <v>0.7601900494831786</v>
       </c>
       <c r="AR73" t="n" s="85">
-        <v>0.020222101688841462</v>
+        <v>0.019899117195536924</v>
       </c>
     </row>
     <row r="74">
@@ -10445,10 +10445,10 @@
         <v>1.0</v>
       </c>
       <c r="J74" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="K74" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="L74" t="n" s="85">
         <v>1.0</v>
@@ -10478,16 +10478,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U74" t="n" s="85">
-        <v>2.7764505383437374E-6</v>
+        <v>2.7612839520940257E-6</v>
       </c>
       <c r="V74" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W74" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="X74" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="Y74" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -10502,16 +10502,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC74" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD74" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE74" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF74" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG74" t="n" s="85">
         <v>1.0</v>
@@ -10520,7 +10520,7 @@
         <v>0.03160636124629607</v>
       </c>
       <c r="AI74" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ74" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10529,7 +10529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL74" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM74" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -10538,7 +10538,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO74" t="n" s="85">
-        <v>0.9999992775185319</v>
+        <v>0.9999993240336584</v>
       </c>
       <c r="AP74" t="n" s="85">
         <v>0.7880370721946086</v>
@@ -10609,10 +10609,10 @@
         <v>0.003613922350588982</v>
       </c>
       <c r="W75" t="n" s="85">
-        <v>2.378653594311076E-6</v>
+        <v>2.3415691217689436E-6</v>
       </c>
       <c r="X75" t="n" s="85">
-        <v>2.378653594311076E-6</v>
+        <v>2.3415691217689436E-6</v>
       </c>
       <c r="Y75" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -10627,16 +10627,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC75" t="n" s="85">
-        <v>4.62582770573326E-5</v>
+        <v>4.517719357181464E-5</v>
       </c>
       <c r="AD75" t="n" s="85">
-        <v>4.62582770573326E-5</v>
+        <v>4.517719357181464E-5</v>
       </c>
       <c r="AE75" t="n" s="85">
-        <v>6.909927235588143E-6</v>
+        <v>6.748436598718986E-6</v>
       </c>
       <c r="AF75" t="n" s="85">
-        <v>6.909927235588143E-6</v>
+        <v>6.748436598718986E-6</v>
       </c>
       <c r="AG75" t="n" s="85">
         <v>1.0</v>
@@ -10645,7 +10645,7 @@
         <v>0.013153817287712883</v>
       </c>
       <c r="AI75" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ75" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10734,10 +10734,10 @@
         <v>0.0045140651655820145</v>
       </c>
       <c r="W76" t="n" s="85">
-        <v>3.126461347382375E-6</v>
+        <v>3.205923748960283E-6</v>
       </c>
       <c r="X76" t="n" s="85">
-        <v>3.126461347382374E-6</v>
+        <v>3.2059237489602828E-6</v>
       </c>
       <c r="Y76" t="n" s="85">
         <v>0.21966061299501963</v>
@@ -10752,25 +10752,25 @@
         <v>0.09756960124430951</v>
       </c>
       <c r="AC76" t="n" s="85">
-        <v>4.1337246560122844E-5</v>
+        <v>4.299130793438634E-5</v>
       </c>
       <c r="AD76" t="n" s="85">
-        <v>4.1337246560122844E-5</v>
+        <v>4.299130793438633E-5</v>
       </c>
       <c r="AE76" t="n" s="85">
-        <v>9.42999148802824E-6</v>
+        <v>9.80732399631175E-6</v>
       </c>
       <c r="AF76" t="n" s="85">
-        <v>9.42999148802824E-6</v>
+        <v>9.80732399631175E-6</v>
       </c>
       <c r="AG76" t="n" s="85">
-        <v>7.183643097846961E-8</v>
+        <v>7.471091485168789E-8</v>
       </c>
       <c r="AH76" t="n" s="85">
         <v>0.010125158247871595</v>
       </c>
       <c r="AI76" t="n" s="85">
-        <v>1.4783219759517566E-4</v>
+        <v>1.5374737515152308E-4</v>
       </c>
       <c r="AJ76" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10779,7 +10779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL76" t="n" s="85">
-        <v>0.8228224251526928</v>
+        <v>0.825922256064579</v>
       </c>
       <c r="AM76" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -10788,13 +10788,13 @@
         <v>0.9747672272796373</v>
       </c>
       <c r="AO76" t="n" s="85">
-        <v>0.9809484621092108</v>
+        <v>0.9807722372620288</v>
       </c>
       <c r="AP76" t="n" s="85">
         <v>0.8468240708751649</v>
       </c>
       <c r="AQ76" t="n" s="85">
-        <v>0.9892734624732626</v>
+        <v>0.9892671346862166</v>
       </c>
       <c r="AR76" t="n" s="85">
         <v>1.0</v>
@@ -10820,10 +10820,10 @@
         <v>1.0</v>
       </c>
       <c r="J77" t="n" s="85">
-        <v>1.5036153378853813E-7</v>
+        <v>1.5035573560118303E-7</v>
       </c>
       <c r="K77" t="n" s="85">
-        <v>1.5036153378853808E-7</v>
+        <v>1.5035573560118303E-7</v>
       </c>
       <c r="L77" t="n" s="85">
         <v>0.0037319173815781475</v>
@@ -10853,16 +10853,16 @@
         <v>7.789882829868302E-4</v>
       </c>
       <c r="U77" t="n" s="85">
-        <v>1.253779596661198E-7</v>
+        <v>1.1932478503246013E-7</v>
       </c>
       <c r="V77" t="n" s="85">
         <v>0.0013690081528955056</v>
       </c>
       <c r="W77" t="n" s="85">
-        <v>2.110376726592807E-7</v>
+        <v>2.008488883177058E-7</v>
       </c>
       <c r="X77" t="n" s="85">
-        <v>2.1103767265928067E-7</v>
+        <v>2.008488883177056E-7</v>
       </c>
       <c r="Y77" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -10877,25 +10877,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC77" t="n" s="85">
-        <v>7.14851672329484E-6</v>
+        <v>7.148518082432706E-6</v>
       </c>
       <c r="AD77" t="n" s="85">
-        <v>7.148516723294838E-6</v>
+        <v>7.1485180824327055E-6</v>
       </c>
       <c r="AE77" t="n" s="85">
-        <v>6.886857569333576E-7</v>
+        <v>6.886858878701856E-7</v>
       </c>
       <c r="AF77" t="n" s="85">
-        <v>6.886857569333575E-7</v>
+        <v>6.886858878701856E-7</v>
       </c>
       <c r="AG77" t="n" s="85">
-        <v>3.004611669193355E-9</v>
+        <v>3.0046122404452805E-9</v>
       </c>
       <c r="AH77" t="n" s="85">
         <v>0.006115345488358558</v>
       </c>
       <c r="AI77" t="n" s="85">
-        <v>2.502206005434318E-5</v>
+        <v>2.502206481200536E-5</v>
       </c>
       <c r="AJ77" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -10904,7 +10904,7 @@
         <v>0.7541331274410363</v>
       </c>
       <c r="AL77" t="n" s="85">
-        <v>0.6900262941267968</v>
+        <v>0.6968533478266057</v>
       </c>
       <c r="AM77" t="n" s="85">
         <v>0.6825949006006479</v>
@@ -10913,16 +10913,16 @@
         <v>0.9202789963745673</v>
       </c>
       <c r="AO77" t="n" s="85">
-        <v>0.4703374929997279</v>
+        <v>0.4668312618718894</v>
       </c>
       <c r="AP77" t="n" s="85">
         <v>0.628673608090491</v>
       </c>
       <c r="AQ77" t="n" s="85">
-        <v>0.5663741189707143</v>
+        <v>0.5662277041543472</v>
       </c>
       <c r="AR77" t="n" s="85">
-        <v>0.006308115303402802</v>
+        <v>0.006205955366824128</v>
       </c>
     </row>
     <row r="78">
@@ -10945,10 +10945,10 @@
         <v>1.0</v>
       </c>
       <c r="J78" t="n" s="85">
-        <v>2.2237209262318415E-7</v>
+        <v>2.223677376842265E-7</v>
       </c>
       <c r="K78" t="n" s="85">
-        <v>2.2237209262318415E-7</v>
+        <v>2.223677376842265E-7</v>
       </c>
       <c r="L78" t="n" s="85">
         <v>1.0</v>
@@ -10978,16 +10978,16 @@
         <v>0.0012041371780793374</v>
       </c>
       <c r="U78" t="n" s="85">
-        <v>3.277001475291899E-7</v>
+        <v>3.1610660827405684E-7</v>
       </c>
       <c r="V78" t="n" s="85">
         <v>0.0019517278029806918</v>
       </c>
       <c r="W78" t="n" s="85">
-        <v>5.817420230514647E-7</v>
+        <v>5.611608488407232E-7</v>
       </c>
       <c r="X78" t="n" s="85">
-        <v>5.817420230514648E-7</v>
+        <v>5.611608488407232E-7</v>
       </c>
       <c r="Y78" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -11002,25 +11002,25 @@
         <v>0.08771009553555295</v>
       </c>
       <c r="AC78" t="n" s="85">
-        <v>1.3500467735510992E-5</v>
+        <v>1.3500469657145966E-5</v>
       </c>
       <c r="AD78" t="n" s="85">
-        <v>1.3500467735510992E-5</v>
+        <v>1.3500469657145968E-5</v>
       </c>
       <c r="AE78" t="n" s="85">
-        <v>1.7146638173439382E-6</v>
+        <v>1.7146640614036972E-6</v>
       </c>
       <c r="AF78" t="n" s="85">
-        <v>1.714663817343938E-6</v>
+        <v>1.7146640614036968E-6</v>
       </c>
       <c r="AG78" t="n" s="85">
-        <v>1.1658974951052748E-8</v>
+        <v>1.165897661055006E-8</v>
       </c>
       <c r="AH78" t="n" s="85">
         <v>0.010190284087274005</v>
       </c>
       <c r="AI78" t="n" s="85">
-        <v>5.5754400078762195E-5</v>
+        <v>5.5754408015000206E-5</v>
       </c>
       <c r="AJ78" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11029,7 +11029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL78" t="n" s="85">
-        <v>0.987787256282514</v>
+        <v>0.9873314867801886</v>
       </c>
       <c r="AM78" t="n" s="85">
         <v>0.6553976139121288</v>
@@ -11038,16 +11038,16 @@
         <v>0.9385844215301066</v>
       </c>
       <c r="AO78" t="n" s="85">
-        <v>0.9986850058430122</v>
+        <v>0.9987360885902637</v>
       </c>
       <c r="AP78" t="n" s="85">
         <v>0.6553976139121288</v>
       </c>
       <c r="AQ78" t="n" s="85">
-        <v>0.8777833777284013</v>
+        <v>0.8777585940717451</v>
       </c>
       <c r="AR78" t="n" s="85">
-        <v>0.9423882405911707</v>
+        <v>0.9444006053070969</v>
       </c>
     </row>
     <row r="79">
@@ -11103,16 +11103,16 @@
         <v>0.00104408227832864</v>
       </c>
       <c r="U79" t="n" s="85">
-        <v>3.0104632273626064E-7</v>
+        <v>2.892126136227681E-7</v>
       </c>
       <c r="V79" t="n" s="85">
         <v>0.0018349004480331405</v>
       </c>
       <c r="W79" t="n" s="85">
-        <v>4.915953176278016E-7</v>
+        <v>4.722713797477567E-7</v>
       </c>
       <c r="X79" t="n" s="85">
-        <v>4.915953176278016E-7</v>
+        <v>4.7227137974775667E-7</v>
       </c>
       <c r="Y79" t="n" s="85">
         <v>0.20345099705186123</v>
@@ -11127,25 +11127,25 @@
         <v>0.08476944181348718</v>
       </c>
       <c r="AC79" t="n" s="85">
-        <v>1.275010731154739E-5</v>
+        <v>1.2750109279847644E-5</v>
       </c>
       <c r="AD79" t="n" s="85">
-        <v>1.2750107311547393E-5</v>
+        <v>1.2750109279847642E-5</v>
       </c>
       <c r="AE79" t="n" s="85">
-        <v>1.619362158187357E-6</v>
+        <v>1.619362408173904E-6</v>
       </c>
       <c r="AF79" t="n" s="85">
-        <v>1.6193621581873568E-6</v>
+        <v>1.6193624081739036E-6</v>
       </c>
       <c r="AG79" t="n" s="85">
-        <v>1.0114144494238209E-8</v>
+        <v>1.0114146055590167E-8</v>
       </c>
       <c r="AH79" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI79" t="n" s="85">
-        <v>6.285663074607883E-5</v>
+        <v>6.285664044978535E-5</v>
       </c>
       <c r="AJ79" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11154,7 +11154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL79" t="n" s="85">
-        <v>0.9617853577562947</v>
+        <v>0.9616936400924326</v>
       </c>
       <c r="AM79" t="n" s="85">
         <v>0.745529551822663</v>
@@ -11163,16 +11163,16 @@
         <v>0.9786838439400983</v>
       </c>
       <c r="AO79" t="n" s="85">
-        <v>0.9998188076502506</v>
+        <v>0.999821110968291</v>
       </c>
       <c r="AP79" t="n" s="85">
         <v>0.7211909615289921</v>
       </c>
       <c r="AQ79" t="n" s="85">
-        <v>0.9443620824519342</v>
+        <v>0.9443428938974804</v>
       </c>
       <c r="AR79" t="n" s="85">
-        <v>0.9917844866416795</v>
+        <v>0.9918710277202377</v>
       </c>
     </row>
     <row r="80">
@@ -11195,7 +11195,7 @@
         <v>1.0</v>
       </c>
       <c r="J80" t="n" s="85">
-        <v>3.5005498902933215E-7</v>
+        <v>3.500522620654844E-7</v>
       </c>
       <c r="K80" t="n" s="85">
         <v>1.0</v>
@@ -11228,16 +11228,16 @@
         <v>0.0028467861265163287</v>
       </c>
       <c r="U80" t="n" s="85">
-        <v>1.2617847633841807E-6</v>
+        <v>1.2489181864715186E-6</v>
       </c>
       <c r="V80" t="n" s="85">
         <v>0.002574902420620514</v>
       </c>
       <c r="W80" t="n" s="85">
-        <v>1.8843073406939862E-6</v>
+        <v>1.8650928149413716E-6</v>
       </c>
       <c r="X80" t="n" s="85">
-        <v>1.8843073406939862E-6</v>
+        <v>1.8650928149413716E-6</v>
       </c>
       <c r="Y80" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -11252,16 +11252,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC80" t="n" s="85">
-        <v>4.105835812742362E-5</v>
+        <v>4.105835996835502E-5</v>
       </c>
       <c r="AD80" t="n" s="85">
-        <v>4.10583581274236E-5</v>
+        <v>4.105835996835501E-5</v>
       </c>
       <c r="AE80" t="n" s="85">
-        <v>5.7055573127623095E-6</v>
+        <v>5.705557568584388E-6</v>
       </c>
       <c r="AF80" t="n" s="85">
-        <v>5.7055573127623095E-6</v>
+        <v>5.705557568584388E-6</v>
       </c>
       <c r="AG80" t="n" s="85">
         <v>1.0</v>
@@ -11270,7 +11270,7 @@
         <v>0.012081061098283033</v>
       </c>
       <c r="AI80" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ80" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11279,7 +11279,7 @@
         <v>0.7468799175139731</v>
       </c>
       <c r="AL80" t="n" s="85">
-        <v>0.7342647154605821</v>
+        <v>0.738421366457612</v>
       </c>
       <c r="AM80" t="n" s="85">
         <v>0.7149250016268915</v>
@@ -11288,16 +11288,16 @@
         <v>0.9702693043718728</v>
       </c>
       <c r="AO80" t="n" s="85">
-        <v>0.9181392787331488</v>
+        <v>0.9174309776479934</v>
       </c>
       <c r="AP80" t="n" s="85">
         <v>0.7812479309887438</v>
       </c>
       <c r="AQ80" t="n" s="85">
-        <v>0.950208393072591</v>
+        <v>0.9501801806209731</v>
       </c>
       <c r="AR80" t="n" s="85">
-        <v>0.2311123348391134</v>
+        <v>0.2290332878297224</v>
       </c>
     </row>
     <row r="81">
@@ -11353,16 +11353,16 @@
         <v>0.004669698731041319</v>
       </c>
       <c r="U81" t="n" s="85">
-        <v>2.304221232057333E-6</v>
+        <v>2.2871883863402967E-6</v>
       </c>
       <c r="V81" t="n" s="85">
         <v>0.007068838685546114</v>
       </c>
       <c r="W81" t="n" s="85">
-        <v>2.8929331532118867E-6</v>
+        <v>2.871548528228029E-6</v>
       </c>
       <c r="X81" t="n" s="85">
-        <v>2.8929331532118867E-6</v>
+        <v>2.871548528228029E-6</v>
       </c>
       <c r="Y81" t="n" s="85">
         <v>0.2584914802096321</v>
@@ -11377,16 +11377,16 @@
         <v>0.1120759502580831</v>
       </c>
       <c r="AC81" t="n" s="85">
-        <v>6.339937884546094E-5</v>
+        <v>6.339938091724604E-5</v>
       </c>
       <c r="AD81" t="n" s="85">
-        <v>6.339937884546094E-5</v>
+        <v>6.339938091724604E-5</v>
       </c>
       <c r="AE81" t="n" s="85">
-        <v>9.251958934097787E-6</v>
+        <v>9.25195923644459E-6</v>
       </c>
       <c r="AF81" t="n" s="85">
-        <v>9.251958934097787E-6</v>
+        <v>9.25195923644459E-6</v>
       </c>
       <c r="AG81" t="n" s="85">
         <v>1.0</v>
@@ -11395,7 +11395,7 @@
         <v>0.07355279469798096</v>
       </c>
       <c r="AI81" t="n" s="85">
-        <v>1.2906474937920194E-4</v>
+        <v>1.290647535968998E-4</v>
       </c>
       <c r="AJ81" t="n" s="85">
         <v>0.5262883698177858</v>
@@ -11404,7 +11404,7 @@
         <v>0.6325389481959718</v>
       </c>
       <c r="AL81" t="n" s="85">
-        <v>0.9119307242803546</v>
+        <v>0.910864980780673</v>
       </c>
       <c r="AM81" t="n" s="85">
         <v>0.63904014288403</v>
@@ -11413,13 +11413,13 @@
         <v>0.8954184287073992</v>
       </c>
       <c r="AO81" t="n" s="85">
-        <v>0.9996529039256584</v>
+        <v>0.9996589195716182</v>
       </c>
       <c r="AP81" t="n" s="85">
         <v>0.7600770051448035</v>
       </c>
       <c r="AQ81" t="n" s="85">
-        <v>0.9377217486430744</v>
+        <v>0.9377082570210107</v>
       </c>
       <c r="AR81" t="n" s="85">
         <v>1.0</v>
@@ -11445,10 +11445,10 @@
         <v>1.0</v>
       </c>
       <c r="J82" t="n" s="85">
-        <v>1.914281820473656E-7</v>
+        <v>1.914208002630022E-7</v>
       </c>
       <c r="K82" t="n" s="85">
-        <v>1.9142818204736562E-7</v>
+        <v>1.9142080026300221E-7</v>
       </c>
       <c r="L82" t="n" s="85">
         <v>1.0</v>
@@ -11478,16 +11478,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U82" t="n" s="85">
-        <v>1.7872583202483771E-7</v>
+        <v>1.7009705372325237E-7</v>
       </c>
       <c r="V82" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W82" t="n" s="85">
-        <v>3.0083348354638984E-7</v>
+        <v>2.863094074134044E-7</v>
       </c>
       <c r="X82" t="n" s="85">
-        <v>3.008334835463899E-7</v>
+        <v>2.8630940741340427E-7</v>
       </c>
       <c r="Y82" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -11502,25 +11502,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC82" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD82" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE82" t="n" s="85">
-        <v>9.81719886715608E-7</v>
+        <v>9.817200733656863E-7</v>
       </c>
       <c r="AF82" t="n" s="85">
-        <v>9.817198867156075E-7</v>
+        <v>9.81720073365686E-7</v>
       </c>
       <c r="AG82" t="n" s="85">
-        <v>5.948519070955184E-9</v>
+        <v>5.948520201917631E-9</v>
       </c>
       <c r="AH82" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI82" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ82" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11529,7 +11529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL82" t="n" s="85">
-        <v>0.7999408628156621</v>
+        <v>0.8050311012176543</v>
       </c>
       <c r="AM82" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -11538,16 +11538,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO82" t="n" s="85">
-        <v>0.9639753857674112</v>
+        <v>0.9634832047436531</v>
       </c>
       <c r="AP82" t="n" s="85">
         <v>0.7022311691808126</v>
       </c>
       <c r="AQ82" t="n" s="85">
-        <v>0.8380391459926596</v>
+        <v>0.8379582156947988</v>
       </c>
       <c r="AR82" t="n" s="85">
-        <v>0.19440794955518595</v>
+        <v>0.1918476436077711</v>
       </c>
     </row>
     <row r="83">
@@ -11570,10 +11570,10 @@
         <v>1.0</v>
       </c>
       <c r="J83" t="n" s="85">
-        <v>1.9142810770577612E-7</v>
+        <v>1.9142072592427956E-7</v>
       </c>
       <c r="K83" t="n" s="85">
-        <v>1.9142810770577612E-7</v>
+        <v>1.9142072592427943E-7</v>
       </c>
       <c r="L83" t="n" s="85">
         <v>1.0</v>
@@ -11603,16 +11603,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U83" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V83" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W83" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X83" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y83" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -11627,25 +11627,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC83" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD83" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE83" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF83" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG83" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH83" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI83" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ83" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11654,7 +11654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL83" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM83" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -11663,16 +11663,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO83" t="n" s="85">
-        <v>0.867498528376246</v>
+        <v>0.8658716480807599</v>
       </c>
       <c r="AP83" t="n" s="85">
         <v>0.7022311691808126</v>
       </c>
       <c r="AQ83" t="n" s="85">
-        <v>0.7958241458824525</v>
+        <v>0.7957272629364364</v>
       </c>
       <c r="AR83" t="n" s="85">
-        <v>0.04258334267144324</v>
+        <v>0.0419184878679326</v>
       </c>
     </row>
     <row r="84">
@@ -11734,7 +11734,7 @@
         <v>0.003938795410564579</v>
       </c>
       <c r="W84" t="n" s="85">
-        <v>2.3827924715808285E-6</v>
+        <v>2.3868599043020687E-6</v>
       </c>
       <c r="X84" t="n" s="85">
         <v>1.0</v>
@@ -11752,16 +11752,16 @@
         <v>0.10520189381870332</v>
       </c>
       <c r="AC84" t="n" s="85">
-        <v>4.174070095374179E-5</v>
+        <v>4.183270248940914E-5</v>
       </c>
       <c r="AD84" t="n" s="85">
-        <v>4.1740700953741804E-5</v>
+        <v>4.183270248940914E-5</v>
       </c>
       <c r="AE84" t="n" s="85">
-        <v>6.250258882226278E-6</v>
+        <v>6.264035317160798E-6</v>
       </c>
       <c r="AF84" t="n" s="85">
-        <v>6.250258882226278E-6</v>
+        <v>6.264035317160798E-6</v>
       </c>
       <c r="AG84" t="n" s="85">
         <v>1.0</v>
@@ -11770,7 +11770,7 @@
         <v>0.014657494369579298</v>
       </c>
       <c r="AI84" t="n" s="85">
-        <v>1.4557848979066676E-4</v>
+        <v>1.4589935700662186E-4</v>
       </c>
       <c r="AJ84" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11779,7 +11779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL84" t="n" s="85">
-        <v>0.988797544895626</v>
+        <v>0.9882554290703903</v>
       </c>
       <c r="AM84" t="n" s="85">
         <v>0.777423483858662</v>
@@ -11788,7 +11788,7 @@
         <v>0.992936562550551</v>
       </c>
       <c r="AO84" t="n" s="85">
-        <v>0.999999001120082</v>
+        <v>0.9999990444673589</v>
       </c>
       <c r="AP84" t="n" s="85">
         <v>0.8907693199410025</v>
@@ -11820,10 +11820,10 @@
         <v>1.0</v>
       </c>
       <c r="J85" t="n" s="85">
-        <v>2.49174768051386E-6</v>
+        <v>2.4916988821943697E-6</v>
       </c>
       <c r="K85" t="n" s="85">
-        <v>2.49174768051386E-6</v>
+        <v>2.4916988821943697E-6</v>
       </c>
       <c r="L85" t="n" s="85">
         <v>1.0</v>
@@ -11853,16 +11853,16 @@
         <v>0.005195581433257516</v>
       </c>
       <c r="U85" t="n" s="85">
-        <v>6.895585607895072E-6</v>
+        <v>6.857918066556697E-6</v>
       </c>
       <c r="V85" t="n" s="85">
         <v>0.00797398694253255</v>
       </c>
       <c r="W85" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="X85" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="Y85" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -11877,16 +11877,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC85" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD85" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE85" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF85" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG85" t="n" s="85">
         <v>1.0</v>
@@ -11895,7 +11895,7 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI85" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ85" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -11904,7 +11904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL85" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM85" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -11913,7 +11913,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO85" t="n" s="85">
-        <v>0.9999992775185319</v>
+        <v>0.9999993240336584</v>
       </c>
       <c r="AP85" t="n" s="85">
         <v>0.8516409323597693</v>
@@ -11945,7 +11945,7 @@
         <v>1.0</v>
       </c>
       <c r="J86" t="n" s="85">
-        <v>4.5660980995383454E-7</v>
+        <v>4.5660800858929203E-7</v>
       </c>
       <c r="K86" t="n" s="85">
         <v>1.0</v>
@@ -11978,13 +11978,13 @@
         <v>0.0024895341361459216</v>
       </c>
       <c r="U86" t="n" s="85">
-        <v>1.4378609052040549E-6</v>
+        <v>1.4417836040418082E-6</v>
       </c>
       <c r="V86" t="n" s="85">
         <v>0.0037663402073625624</v>
       </c>
       <c r="W86" t="n" s="85">
-        <v>2.173884790944905E-6</v>
+        <v>2.1798154698132947E-6</v>
       </c>
       <c r="X86" t="n" s="85">
         <v>1.0</v>
@@ -12002,16 +12002,16 @@
         <v>0.10340165170411325</v>
       </c>
       <c r="AC86" t="n" s="85">
-        <v>4.254155110573723E-5</v>
+        <v>4.272811303831479E-5</v>
       </c>
       <c r="AD86" t="n" s="85">
-        <v>4.254155110573723E-5</v>
+        <v>4.272811303831479E-5</v>
       </c>
       <c r="AE86" t="n" s="85">
-        <v>6.354729195261407E-6</v>
+        <v>6.382597506965226E-6</v>
       </c>
       <c r="AF86" t="n" s="85">
-        <v>6.354729195261407E-6</v>
+        <v>6.382597506965224E-6</v>
       </c>
       <c r="AG86" t="n" s="85">
         <v>1.0</v>
@@ -12020,7 +12020,7 @@
         <v>0.01294791191815161</v>
       </c>
       <c r="AI86" t="n" s="85">
-        <v>1.4313153692759948E-4</v>
+        <v>1.4375921790207684E-4</v>
       </c>
       <c r="AJ86" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12029,7 +12029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL86" t="n" s="85">
-        <v>0.9781311699076576</v>
+        <v>0.977613978767436</v>
       </c>
       <c r="AM86" t="n" s="85">
         <v>0.7376421550530808</v>
@@ -12038,7 +12038,7 @@
         <v>0.9845303588147424</v>
       </c>
       <c r="AO86" t="n" s="85">
-        <v>0.9999757341154139</v>
+        <v>0.999976266462656</v>
       </c>
       <c r="AP86" t="n" s="85">
         <v>0.809576829743696</v>
@@ -12047,7 +12047,7 @@
         <v>0.992424706123294</v>
       </c>
       <c r="AR86" t="n" s="85">
-        <v>0.9997428455590157</v>
+        <v>0.9997480444044564</v>
       </c>
     </row>
     <row r="87">
@@ -12070,10 +12070,10 @@
         <v>1.0</v>
       </c>
       <c r="J87" t="n" s="85">
-        <v>1.8331371754352442E-6</v>
+        <v>1.8331012753025114E-6</v>
       </c>
       <c r="K87" t="n" s="85">
-        <v>1.8331371754352442E-6</v>
+        <v>1.8331012753025114E-6</v>
       </c>
       <c r="L87" t="n" s="85">
         <v>1.0</v>
@@ -12103,16 +12103,16 @@
         <v>0.00144786028220451</v>
       </c>
       <c r="U87" t="n" s="85">
-        <v>1.8769611334593992E-4</v>
+        <v>1.8276321699631004E-4</v>
       </c>
       <c r="V87" t="n" s="85">
         <v>0.002346736170509988</v>
       </c>
       <c r="W87" t="n" s="85">
-        <v>3.331588035111845E-4</v>
+        <v>3.244041916890033E-4</v>
       </c>
       <c r="X87" t="n" s="85">
-        <v>3.331588035111846E-4</v>
+        <v>3.2440419168900335E-4</v>
       </c>
       <c r="Y87" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -12127,25 +12127,25 @@
         <v>0.9989345677579698</v>
       </c>
       <c r="AC87" t="n" s="85">
-        <v>0.007751783764784872</v>
+        <v>0.007751784584623022</v>
       </c>
       <c r="AD87" t="n" s="85">
-        <v>0.007751783764784872</v>
+        <v>0.007751784584623023</v>
       </c>
       <c r="AE87" t="n" s="85">
-        <v>9.906461928603195E-4</v>
+        <v>9.906462983437197E-4</v>
       </c>
       <c r="AF87" t="n" s="85">
-        <v>9.906461928603193E-4</v>
+        <v>9.906462983437197E-4</v>
       </c>
       <c r="AG87" t="n" s="85">
-        <v>6.741892215475117E-6</v>
+        <v>6.741892934051764E-6</v>
       </c>
       <c r="AH87" t="n" s="85">
         <v>0.8219148697291487</v>
       </c>
       <c r="AI87" t="n" s="85">
-        <v>7.648986226281382E-5</v>
+        <v>7.648987041565721E-5</v>
       </c>
       <c r="AJ87" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12154,7 +12154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL87" t="n" s="85">
-        <v>0.9961263401386903</v>
+        <v>0.9959805119926122</v>
       </c>
       <c r="AM87" t="n" s="85">
         <v>0.6807592811971384</v>
@@ -12163,7 +12163,7 @@
         <v>0.9574511010808723</v>
       </c>
       <c r="AO87" t="n" s="85">
-        <v>0.999994730159806</v>
+        <v>0.9999949351319886</v>
       </c>
       <c r="AP87" t="n" s="85">
         <v>0.7707324944941933</v>
@@ -12195,7 +12195,7 @@
         <v>1.0</v>
       </c>
       <c r="J88" t="n" s="85">
-        <v>2.7340898559102336E-7</v>
+        <v>2.7340790696911966E-7</v>
       </c>
       <c r="K88" t="n" s="85">
         <v>1.0</v>
@@ -12228,16 +12228,16 @@
         <v>7.716667247410242E-4</v>
       </c>
       <c r="U88" t="n" s="85">
-        <v>2.470819973283651E-7</v>
+        <v>2.405871941690704E-7</v>
       </c>
       <c r="V88" t="n" s="85">
         <v>0.0012643814893521736</v>
       </c>
       <c r="W88" t="n" s="85">
-        <v>3.877646017625022E-7</v>
+        <v>3.7757180392012844E-7</v>
       </c>
       <c r="X88" t="n" s="85">
-        <v>3.877646017625022E-7</v>
+        <v>3.775718039201286E-7</v>
       </c>
       <c r="Y88" t="n" s="85">
         <v>0.1975370297078262</v>
@@ -12252,25 +12252,25 @@
         <v>0.07618581995551585</v>
       </c>
       <c r="AC88" t="n" s="85">
-        <v>1.1659391194737394E-5</v>
+        <v>1.1659392437465087E-5</v>
       </c>
       <c r="AD88" t="n" s="85">
-        <v>1.1659391194737399E-5</v>
+        <v>1.165939243746509E-5</v>
       </c>
       <c r="AE88" t="n" s="85">
-        <v>1.4808333624694928E-6</v>
+        <v>1.4808335203034937E-6</v>
       </c>
       <c r="AF88" t="n" s="85">
-        <v>1.4808333624694936E-6</v>
+        <v>1.4808335203034944E-6</v>
       </c>
       <c r="AG88" t="n" s="85">
-        <v>4.2026354627451293E-7</v>
+        <v>4.20263591068091E-7</v>
       </c>
       <c r="AH88" t="n" s="85">
         <v>0.046078503479992525</v>
       </c>
       <c r="AI88" t="n" s="85">
-        <v>7.744927643432681E-5</v>
+        <v>7.744928468940505E-5</v>
       </c>
       <c r="AJ88" t="n" s="85">
         <v>0.5176413067287464</v>
@@ -12279,7 +12279,7 @@
         <v>0.6145396175232654</v>
       </c>
       <c r="AL88" t="n" s="85">
-        <v>0.8997903825049973</v>
+        <v>0.9007515363769341</v>
       </c>
       <c r="AM88" t="n" s="85">
         <v>0.6247121363619613</v>
@@ -12288,7 +12288,7 @@
         <v>0.9093074643350196</v>
       </c>
       <c r="AO88" t="n" s="85">
-        <v>0.9996229851034396</v>
+        <v>0.9996212120879224</v>
       </c>
       <c r="AP88" t="n" s="85">
         <v>0.5433632420512597</v>
@@ -12297,7 +12297,7 @@
         <v>0.7560220364407179</v>
       </c>
       <c r="AR88" t="n" s="85">
-        <v>0.9740633950992583</v>
+        <v>0.9739000151933462</v>
       </c>
     </row>
     <row r="89">
@@ -12320,10 +12320,10 @@
         <v>1.0</v>
       </c>
       <c r="J89" t="n" s="85">
-        <v>2.0383407938402703E-6</v>
+        <v>2.0383008750109444E-6</v>
       </c>
       <c r="K89" t="n" s="85">
-        <v>2.0383407938402703E-6</v>
+        <v>2.0383008750109444E-6</v>
       </c>
       <c r="L89" t="n" s="85">
         <v>1.0</v>
@@ -12359,10 +12359,10 @@
         <v>0.0036234230293583766</v>
       </c>
       <c r="W89" t="n" s="85">
-        <v>2.1442945460598686E-6</v>
+        <v>2.1722930664795972E-6</v>
       </c>
       <c r="X89" t="n" s="85">
-        <v>2.144294546059868E-6</v>
+        <v>2.1722930664795972E-6</v>
       </c>
       <c r="Y89" t="n" s="85">
         <v>0.2273138946354053</v>
@@ -12377,25 +12377,25 @@
         <v>0.10181689358255397</v>
       </c>
       <c r="AC89" t="n" s="85">
-        <v>4.267518075608129E-5</v>
+        <v>4.358780938827188E-5</v>
       </c>
       <c r="AD89" t="n" s="85">
-        <v>4.2675180756081287E-5</v>
+        <v>4.358780938827187E-5</v>
       </c>
       <c r="AE89" t="n" s="85">
-        <v>6.227625657058178E-6</v>
+        <v>6.360807738778637E-6</v>
       </c>
       <c r="AF89" t="n" s="85">
-        <v>6.227625657058179E-6</v>
+        <v>6.360807738778637E-6</v>
       </c>
       <c r="AG89" t="n" s="85">
-        <v>5.144314666045217E-8</v>
+        <v>5.2543295743762373E-8</v>
       </c>
       <c r="AH89" t="n" s="85">
         <v>0.010648219266273986</v>
       </c>
       <c r="AI89" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ89" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12404,7 +12404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL89" t="n" s="85">
-        <v>0.9751247029256157</v>
+        <v>0.9753830609702763</v>
       </c>
       <c r="AM89" t="n" s="85">
         <v>0.7376421550530808</v>
@@ -12413,7 +12413,7 @@
         <v>0.976704036871482</v>
       </c>
       <c r="AO89" t="n" s="85">
-        <v>0.9999672527501106</v>
+        <v>0.9999670986939366</v>
       </c>
       <c r="AP89" t="n" s="85">
         <v>0.8561574660444271</v>
@@ -12422,7 +12422,7 @@
         <v>0.9967911922178664</v>
       </c>
       <c r="AR89" t="n" s="85">
-        <v>0.9999164970212528</v>
+        <v>0.9999159569679708</v>
       </c>
     </row>
     <row r="90">
@@ -12484,10 +12484,10 @@
         <v>0.003677148300295319</v>
       </c>
       <c r="W90" t="n" s="85">
-        <v>2.3906251369734587E-6</v>
+        <v>2.3533540221638607E-6</v>
       </c>
       <c r="X90" t="n" s="85">
-        <v>2.3906251369734587E-6</v>
+        <v>2.3533540221638607E-6</v>
       </c>
       <c r="Y90" t="n" s="85">
         <v>0.22731950960297784</v>
@@ -12502,16 +12502,16 @@
         <v>0.10369120838380375</v>
       </c>
       <c r="AC90" t="n" s="85">
-        <v>4.723361254173519E-5</v>
+        <v>4.61297359365903E-5</v>
       </c>
       <c r="AD90" t="n" s="85">
-        <v>4.723361254173519E-5</v>
+        <v>4.61297359365903E-5</v>
       </c>
       <c r="AE90" t="n" s="85">
-        <v>7.05562123664433E-6</v>
+        <v>6.890725635570951E-6</v>
       </c>
       <c r="AF90" t="n" s="85">
-        <v>7.05562123664433E-6</v>
+        <v>6.890725635570951E-6</v>
       </c>
       <c r="AG90" t="n" s="85">
         <v>1.0</v>
@@ -12520,7 +12520,7 @@
         <v>0.012947912157560575</v>
       </c>
       <c r="AI90" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ90" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12570,10 +12570,10 @@
         <v>1.0</v>
       </c>
       <c r="J91" t="n" s="85">
-        <v>1.8899067819364097E-7</v>
+        <v>1.8898339040340252E-7</v>
       </c>
       <c r="K91" t="n" s="85">
-        <v>1.8899067819364091E-7</v>
+        <v>1.8898339040340236E-7</v>
       </c>
       <c r="L91" t="n" s="85">
         <v>1.0</v>
@@ -12603,16 +12603,16 @@
         <v>8.708269452208607E-4</v>
       </c>
       <c r="U91" t="n" s="85">
-        <v>1.4015268634453727E-7</v>
+        <v>1.333861966349428E-7</v>
       </c>
       <c r="V91" t="n" s="85">
         <v>0.001530407066977628</v>
       </c>
       <c r="W91" t="n" s="85">
-        <v>2.3590667581424052E-7</v>
+        <v>2.2451722976211097E-7</v>
       </c>
       <c r="X91" t="n" s="85">
-        <v>2.3590667581424034E-7</v>
+        <v>2.2451722976211097E-7</v>
       </c>
       <c r="Y91" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -12627,25 +12627,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC91" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD91" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE91" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF91" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG91" t="n" s="85">
-        <v>4.664692719785669E-9</v>
+        <v>4.6646936066605764E-9</v>
       </c>
       <c r="AH91" t="n" s="85">
         <v>0.008789341565946391</v>
       </c>
       <c r="AI91" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ91" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12654,7 +12654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL91" t="n" s="85">
-        <v>0.8130232601210122</v>
+        <v>0.8178564262828482</v>
       </c>
       <c r="AM91" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -12663,16 +12663,16 @@
         <v>0.9494637055055772</v>
       </c>
       <c r="AO91" t="n" s="85">
-        <v>0.8783867723775004</v>
+        <v>0.8768746056228893</v>
       </c>
       <c r="AP91" t="n" s="85">
         <v>0.6791451281009934</v>
       </c>
       <c r="AQ91" t="n" s="85">
-        <v>0.7442563657387092</v>
+        <v>0.7441428803679614</v>
       </c>
       <c r="AR91" t="n" s="85">
-        <v>0.059480550834372356</v>
+        <v>0.05856801793392657</v>
       </c>
     </row>
     <row r="92">
@@ -12728,16 +12728,16 @@
         <v>0.0018509950928061437</v>
       </c>
       <c r="U92" t="n" s="85">
-        <v>2.453385829998728E-6</v>
+        <v>2.439984006614495E-6</v>
       </c>
       <c r="V92" t="n" s="85">
         <v>0.0028430841927446094</v>
       </c>
       <c r="W92" t="n" s="85">
-        <v>3.7518235775367636E-6</v>
+        <v>3.7313289354802687E-6</v>
       </c>
       <c r="X92" t="n" s="85">
-        <v>3.7518235775367636E-6</v>
+        <v>3.7313289354802687E-6</v>
       </c>
       <c r="Y92" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -12752,16 +12752,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC92" t="n" s="85">
-        <v>7.821816112888E-5</v>
+        <v>7.82181630212547E-5</v>
       </c>
       <c r="AD92" t="n" s="85">
-        <v>7.821816112888E-5</v>
+        <v>7.82181630212547E-5</v>
       </c>
       <c r="AE92" t="n" s="85">
-        <v>1.1414591616398274E-5</v>
+        <v>1.1414591892568815E-5</v>
       </c>
       <c r="AF92" t="n" s="85">
-        <v>1.1414591616398274E-5</v>
+        <v>1.1414591892568815E-5</v>
       </c>
       <c r="AG92" t="n" s="85">
         <v>1.0</v>
@@ -12770,7 +12770,7 @@
         <v>0.030284679973979968</v>
       </c>
       <c r="AI92" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ92" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12779,7 +12779,7 @@
         <v>0.7541331274410363</v>
       </c>
       <c r="AL92" t="n" s="85">
-        <v>0.9932090003005634</v>
+        <v>0.9929541225504523</v>
       </c>
       <c r="AM92" t="n" s="85">
         <v>0.6965659687327901</v>
@@ -12788,7 +12788,7 @@
         <v>0.9656925162173611</v>
       </c>
       <c r="AO92" t="n" s="85">
-        <v>0.9999934952459596</v>
+        <v>0.9999937482502256</v>
       </c>
       <c r="AP92" t="n" s="85">
         <v>0.7677419634553073</v>
@@ -12853,16 +12853,16 @@
         <v>8.770521436087226E-4</v>
       </c>
       <c r="U93" t="n" s="85">
-        <v>1.8608800786081948E-7</v>
+        <v>1.7710378809262869E-7</v>
       </c>
       <c r="V93" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W93" t="n" s="85">
-        <v>3.132255924603475E-7</v>
+        <v>2.981032322615758E-7</v>
       </c>
       <c r="X93" t="n" s="85">
-        <v>3.132255924603476E-7</v>
+        <v>2.9810323226157577E-7</v>
       </c>
       <c r="Y93" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -12877,25 +12877,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC93" t="n" s="85">
-        <v>8.047960703271953E-6</v>
+        <v>8.047962233418519E-6</v>
       </c>
       <c r="AD93" t="n" s="85">
-        <v>8.047960703271953E-6</v>
+        <v>8.04796223341852E-6</v>
       </c>
       <c r="AE93" t="n" s="85">
-        <v>1.0221595657846897E-6</v>
+        <v>1.0221597601233789E-6</v>
       </c>
       <c r="AF93" t="n" s="85">
-        <v>1.0221595657846895E-6</v>
+        <v>1.0221597601233789E-6</v>
       </c>
       <c r="AG93" t="n" s="85">
-        <v>6.193553621165874E-9</v>
+        <v>6.193554798715524E-9</v>
       </c>
       <c r="AH93" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI93" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ93" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -12904,7 +12904,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL93" t="n" s="85">
-        <v>0.9019028712332672</v>
+        <v>0.9007289885438765</v>
       </c>
       <c r="AM93" t="n" s="85">
         <v>0.7618433263360781</v>
@@ -12913,16 +12913,16 @@
         <v>0.9857669430303989</v>
       </c>
       <c r="AO93" t="n" s="85">
-        <v>0.9933803823494805</v>
+        <v>0.9934944018281803</v>
       </c>
       <c r="AP93" t="n" s="85">
         <v>0.7377602628702982</v>
       </c>
       <c r="AQ93" t="n" s="85">
-        <v>0.9352159391116377</v>
+        <v>0.9351798112707421</v>
       </c>
       <c r="AR93" t="n" s="85">
-        <v>0.650839028745784</v>
+        <v>0.6542715425695903</v>
       </c>
     </row>
     <row r="94">
@@ -12945,10 +12945,10 @@
         <v>1.0</v>
       </c>
       <c r="J94" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="K94" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="L94" t="n" s="85">
         <v>1.0</v>
@@ -12978,16 +12978,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U94" t="n" s="85">
-        <v>2.7764505383437374E-6</v>
+        <v>2.7612839520940257E-6</v>
       </c>
       <c r="V94" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W94" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="X94" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="Y94" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -13002,16 +13002,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC94" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD94" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE94" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF94" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG94" t="n" s="85">
         <v>1.0</v>
@@ -13020,7 +13020,7 @@
         <v>0.03160636124629607</v>
       </c>
       <c r="AI94" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ94" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13029,7 +13029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL94" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM94" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -13038,7 +13038,7 @@
         <v>0.972241196527547</v>
       </c>
       <c r="AO94" t="n" s="85">
-        <v>0.9999992775185319</v>
+        <v>0.9999993240336584</v>
       </c>
       <c r="AP94" t="n" s="85">
         <v>0.7880370721946086</v>
@@ -13109,10 +13109,10 @@
         <v>0.0035751160202512136</v>
       </c>
       <c r="W95" t="n" s="85">
-        <v>1.7579176157196271E-6</v>
+        <v>1.8025970587158352E-6</v>
       </c>
       <c r="X95" t="n" s="85">
-        <v>1.757917615719627E-6</v>
+        <v>1.802597058715835E-6</v>
       </c>
       <c r="Y95" t="n" s="85">
         <v>0.2273138946354053</v>
@@ -13127,25 +13127,25 @@
         <v>0.10181689358255397</v>
       </c>
       <c r="AC95" t="n" s="85">
-        <v>3.65221447975395E-5</v>
+        <v>3.79835428482888E-5</v>
       </c>
       <c r="AD95" t="n" s="85">
-        <v>3.65221447975395E-5</v>
+        <v>3.79835428482888E-5</v>
       </c>
       <c r="AE95" t="n" s="85">
-        <v>5.0752013387756735E-6</v>
+        <v>5.2782818110126014E-6</v>
       </c>
       <c r="AF95" t="n" s="85">
-        <v>5.0752013387756735E-6</v>
+        <v>5.278281811012602E-6</v>
       </c>
       <c r="AG95" t="n" s="85">
-        <v>4.1923566026132435E-8</v>
+        <v>4.3601107860512284E-8</v>
       </c>
       <c r="AH95" t="n" s="85">
         <v>0.010648219266273986</v>
       </c>
       <c r="AI95" t="n" s="85">
-        <v>9.005143198247796E-5</v>
+        <v>9.365485689573573E-5</v>
       </c>
       <c r="AJ95" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13169,10 +13169,10 @@
         <v>0.8666476064241246</v>
       </c>
       <c r="AQ95" t="n" s="85">
-        <v>0.9938140869980617</v>
+        <v>0.9938104210519925</v>
       </c>
       <c r="AR95" t="n" s="85">
-        <v>0.8734314969781487</v>
+        <v>0.8731715003275012</v>
       </c>
     </row>
     <row r="96">
@@ -13279,7 +13279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL96" t="n" s="85">
-        <v>0.9924030312578133</v>
+        <v>0.9920339886115372</v>
       </c>
       <c r="AM96" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -13288,7 +13288,7 @@
         <v>0.9747677334958875</v>
       </c>
       <c r="AO96" t="n" s="85">
-        <v>0.9999635437142985</v>
+        <v>0.9999651257133785</v>
       </c>
       <c r="AP96" t="n" s="85">
         <v>0.8867319627656052</v>
@@ -13353,16 +13353,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U97" t="n" s="85">
-        <v>1.9333711881355173E-6</v>
+        <v>1.990756936837499E-6</v>
       </c>
       <c r="V97" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W97" t="n" s="85">
-        <v>2.956595143237774E-6</v>
+        <v>3.0443519400290653E-6</v>
       </c>
       <c r="X97" t="n" s="85">
-        <v>2.956595143237774E-6</v>
+        <v>3.0443519400290653E-6</v>
       </c>
       <c r="Y97" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -13377,16 +13377,16 @@
         <v>0.10359707863142073</v>
       </c>
       <c r="AC97" t="n" s="85">
-        <v>6.108909989704266E-5</v>
+        <v>6.108908969100478E-5</v>
       </c>
       <c r="AD97" t="n" s="85">
-        <v>6.108909989704266E-5</v>
+        <v>6.108908969100478E-5</v>
       </c>
       <c r="AE97" t="n" s="85">
-        <v>8.914818304874033E-6</v>
+        <v>8.914816815468624E-6</v>
       </c>
       <c r="AF97" t="n" s="85">
-        <v>8.914818304874033E-6</v>
+        <v>8.914816815468624E-6</v>
       </c>
       <c r="AG97" t="n" s="85">
         <v>1.0</v>
@@ -13395,7 +13395,7 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI97" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ97" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13404,7 +13404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL97" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM97" t="n" s="85">
         <v>0.6553976139121288</v>
@@ -13413,7 +13413,7 @@
         <v>0.9434719745714709</v>
       </c>
       <c r="AO97" t="n" s="85">
-        <v>0.9999887641601808</v>
+        <v>0.9999894875439542</v>
       </c>
       <c r="AP97" t="n" s="85">
         <v>0.7338831660182107</v>
@@ -13484,10 +13484,10 @@
         <v>0.004598464299365433</v>
       </c>
       <c r="W98" t="n" s="85">
-        <v>2.042709653919325E-6</v>
+        <v>2.0946273900357074E-6</v>
       </c>
       <c r="X98" t="n" s="85">
-        <v>2.042709653919324E-6</v>
+        <v>2.094627390035707E-6</v>
       </c>
       <c r="Y98" t="n" s="85">
         <v>0.2213595988349178</v>
@@ -13502,25 +13502,25 @@
         <v>0.09835644885167026</v>
       </c>
       <c r="AC98" t="n" s="85">
-        <v>4.178483453288341E-5</v>
+        <v>4.3456804835894706E-5</v>
       </c>
       <c r="AD98" t="n" s="85">
-        <v>4.178483453288341E-5</v>
+        <v>4.34568048358947E-5</v>
       </c>
       <c r="AE98" t="n" s="85">
-        <v>6.097679158912033E-6</v>
+        <v>6.341673074356328E-6</v>
       </c>
       <c r="AF98" t="n" s="85">
-        <v>6.097679158912032E-6</v>
+        <v>6.341673074356327E-6</v>
       </c>
       <c r="AG98" t="n" s="85">
-        <v>4.73215446586146E-8</v>
+        <v>4.9215082778371835E-8</v>
       </c>
       <c r="AH98" t="n" s="85">
         <v>0.01023058125315009</v>
       </c>
       <c r="AI98" t="n" s="85">
-        <v>9.456727704042531E-5</v>
+        <v>9.835138656535559E-5</v>
       </c>
       <c r="AJ98" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13529,7 +13529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL98" t="n" s="85">
-        <v>0.9623129932382705</v>
+        <v>0.9605403679884035</v>
       </c>
       <c r="AM98" t="n" s="85">
         <v>0.777423483858662</v>
@@ -13538,16 +13538,16 @@
         <v>0.9813511496450759</v>
       </c>
       <c r="AO98" t="n" s="85">
-        <v>0.9970761600371678</v>
+        <v>0.9972026878473067</v>
       </c>
       <c r="AP98" t="n" s="85">
         <v>0.7863634529878506</v>
       </c>
       <c r="AQ98" t="n" s="85">
-        <v>0.9796665979357447</v>
+        <v>0.9796547194303112</v>
       </c>
       <c r="AR98" t="n" s="85">
-        <v>0.9673565985083171</v>
+        <v>0.9686576290679776</v>
       </c>
     </row>
     <row r="99">
@@ -13609,10 +13609,10 @@
         <v>0.007170608370342563</v>
       </c>
       <c r="W99" t="n" s="85">
-        <v>6.962998807991458E-6</v>
+        <v>7.0009022803893565E-6</v>
       </c>
       <c r="X99" t="n" s="85">
-        <v>6.962998807991458E-6</v>
+        <v>7.0009022803893565E-6</v>
       </c>
       <c r="Y99" t="n" s="85">
         <v>0.2267204842897475</v>
@@ -13627,25 +13627,25 @@
         <v>0.10359707559208245</v>
       </c>
       <c r="AC99" t="n" s="85">
-        <v>1.4622390994799742E-4</v>
+        <v>1.475193934836853E-4</v>
       </c>
       <c r="AD99" t="n" s="85">
-        <v>1.462239099479974E-4</v>
+        <v>1.4751939348368529E-4</v>
       </c>
       <c r="AE99" t="n" s="85">
-        <v>2.0320686859518452E-5</v>
+        <v>2.0500737821003777E-5</v>
       </c>
       <c r="AF99" t="n" s="85">
-        <v>2.032068685951845E-5</v>
+        <v>2.0500737821003757E-5</v>
       </c>
       <c r="AG99" t="n" s="85">
-        <v>1.6736861188627417E-7</v>
+        <v>1.688516007099204E-7</v>
       </c>
       <c r="AH99" t="n" s="85">
         <v>0.010873534397358728</v>
       </c>
       <c r="AI99" t="n" s="85">
-        <v>9.689953597894265E-5</v>
+        <v>9.77581416432315E-5</v>
       </c>
       <c r="AJ99" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13654,7 +13654,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL99" t="n" s="85">
-        <v>0.995475202538679</v>
+        <v>0.9951404478509305</v>
       </c>
       <c r="AM99" t="n" s="85">
         <v>0.693950775641455</v>
@@ -13663,7 +13663,7 @@
         <v>0.9598921056908536</v>
       </c>
       <c r="AO99" t="n" s="85">
-        <v>0.9999507837597272</v>
+        <v>0.9999539522780606</v>
       </c>
       <c r="AP99" t="n" s="85">
         <v>0.8189813374331443</v>
@@ -13728,16 +13728,16 @@
         <v>7.47897685602785E-4</v>
       </c>
       <c r="U100" t="n" s="85">
-        <v>6.2336306507920486E-6</v>
+        <v>5.932676354879457E-6</v>
       </c>
       <c r="V100" t="n" s="85">
         <v>0.0012254298607260654</v>
       </c>
       <c r="W100" t="n" s="85">
-        <v>9.490861751008138E-6</v>
+        <v>9.032652141606949E-6</v>
       </c>
       <c r="X100" t="n" s="85">
-        <v>9.49086175100813E-6</v>
+        <v>9.03265214160695E-6</v>
       </c>
       <c r="Y100" t="n" s="85">
         <v>0.20345099705186123</v>
@@ -13752,25 +13752,25 @@
         <v>0.977848897041202</v>
       </c>
       <c r="AC100" t="n" s="85">
-        <v>3.7322858015229217E-4</v>
+        <v>3.732286510877621E-4</v>
       </c>
       <c r="AD100" t="n" s="85">
-        <v>3.7322858015229217E-4</v>
+        <v>3.732286510877621E-4</v>
       </c>
       <c r="AE100" t="n" s="85">
-        <v>3.595465861217404E-5</v>
+        <v>3.595466544783585E-5</v>
       </c>
       <c r="AF100" t="n" s="85">
-        <v>3.5954658612174037E-5</v>
+        <v>3.595466544783584E-5</v>
       </c>
       <c r="AG100" t="n" s="85">
-        <v>1.9344027925573097E-7</v>
+        <v>1.9344031603356527E-7</v>
       </c>
       <c r="AH100" t="n" s="85">
         <v>0.310460391568622</v>
       </c>
       <c r="AI100" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ100" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13779,7 +13779,7 @@
         <v>0.7189801236497969</v>
       </c>
       <c r="AL100" t="n" s="85">
-        <v>0.766166720203985</v>
+        <v>0.7657198692598438</v>
       </c>
       <c r="AM100" t="n" s="85">
         <v>0.6855314607405544</v>
@@ -13788,16 +13788,16 @@
         <v>0.9271197260286225</v>
       </c>
       <c r="AO100" t="n" s="85">
-        <v>0.8405850387861571</v>
+        <v>0.842292235730529</v>
       </c>
       <c r="AP100" t="n" s="85">
         <v>0.7194794971070473</v>
       </c>
       <c r="AQ100" t="n" s="85">
-        <v>0.8764220570448671</v>
+        <v>0.8763574766084793</v>
       </c>
       <c r="AR100" t="n" s="85">
-        <v>0.14818707591790348</v>
+        <v>0.14951050051338</v>
       </c>
     </row>
     <row r="101">
@@ -13859,10 +13859,10 @@
         <v>0.004134191714700841</v>
       </c>
       <c r="W101" t="n" s="85">
-        <v>2.4567396884919014E-6</v>
+        <v>2.4634420336492375E-6</v>
       </c>
       <c r="X101" t="n" s="85">
-        <v>2.4567396884919014E-6</v>
+        <v>2.4634420336492375E-6</v>
       </c>
       <c r="Y101" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -13877,16 +13877,16 @@
         <v>0.11464036793125379</v>
       </c>
       <c r="AC101" t="n" s="85">
-        <v>4.807676068335957E-5</v>
+        <v>4.828759550578029E-5</v>
       </c>
       <c r="AD101" t="n" s="85">
-        <v>4.807676068335955E-5</v>
+        <v>4.8287595505780274E-5</v>
       </c>
       <c r="AE101" t="n" s="85">
-        <v>7.181573078351701E-6</v>
+        <v>7.213067430750235E-6</v>
       </c>
       <c r="AF101" t="n" s="85">
-        <v>7.181573078351701E-6</v>
+        <v>7.213067430750235E-6</v>
       </c>
       <c r="AG101" t="n" s="85">
         <v>1.0</v>
@@ -13895,7 +13895,7 @@
         <v>0.012947912157560575</v>
       </c>
       <c r="AI101" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ101" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -13922,7 +13922,7 @@
         <v>0.9996208047688533</v>
       </c>
       <c r="AR101" t="n" s="85">
-        <v>0.9999870205592609</v>
+        <v>0.9999869977779874</v>
       </c>
     </row>
     <row r="102">
@@ -13978,16 +13978,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U102" t="n" s="85">
-        <v>1.4662957001700475E-6</v>
+        <v>1.4513437027046985E-6</v>
       </c>
       <c r="V102" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W102" t="n" s="85">
-        <v>2.2636034396957348E-6</v>
+        <v>2.240521191212434E-6</v>
       </c>
       <c r="X102" t="n" s="85">
-        <v>2.2636034396957348E-6</v>
+        <v>2.240521191212434E-6</v>
       </c>
       <c r="Y102" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -14002,16 +14002,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC102" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AD102" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AE102" t="n" s="85">
-        <v>6.854038635314814E-6</v>
+        <v>6.8540389426314105E-6</v>
       </c>
       <c r="AF102" t="n" s="85">
-        <v>6.854038635314814E-6</v>
+        <v>6.8540389426314105E-6</v>
       </c>
       <c r="AG102" t="n" s="85">
         <v>1.0</v>
@@ -14020,7 +14020,7 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI102" t="n" s="85">
-        <v>1.1735545174383436E-4</v>
+        <v>1.1735545700573342E-4</v>
       </c>
       <c r="AJ102" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14029,7 +14029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL102" t="n" s="85">
-        <v>0.7999408628156621</v>
+        <v>0.8050311012176543</v>
       </c>
       <c r="AM102" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -14038,16 +14038,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO102" t="n" s="85">
-        <v>0.9675577484173276</v>
+        <v>0.9671128411338838</v>
       </c>
       <c r="AP102" t="n" s="85">
         <v>0.7880370721946086</v>
       </c>
       <c r="AQ102" t="n" s="85">
-        <v>0.9560766808210965</v>
+        <v>0.9560516396163454</v>
       </c>
       <c r="AR102" t="n" s="85">
-        <v>0.5308393194892518</v>
+        <v>0.5267453692685645</v>
       </c>
     </row>
     <row r="103">
@@ -14103,16 +14103,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U103" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V103" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W103" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X103" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y103" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14127,25 +14127,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC103" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD103" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE103" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF103" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG103" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH103" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI103" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ103" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14154,7 +14154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL103" t="n" s="85">
-        <v>0.7658533100610304</v>
+        <v>0.7696708460667149</v>
       </c>
       <c r="AM103" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -14163,16 +14163,16 @@
         <v>0.9754093150454533</v>
       </c>
       <c r="AO103" t="n" s="85">
-        <v>0.9186686315364745</v>
+        <v>0.917964501441595</v>
       </c>
       <c r="AP103" t="n" s="85">
         <v>0.7202792732449278</v>
       </c>
       <c r="AQ103" t="n" s="85">
-        <v>0.8546448526259317</v>
+        <v>0.8545707800969993</v>
       </c>
       <c r="AR103" t="n" s="85">
-        <v>0.07126607533477995</v>
+        <v>0.07049314385184338</v>
       </c>
     </row>
     <row r="104">
@@ -14195,10 +14195,10 @@
         <v>1.0</v>
       </c>
       <c r="J104" t="n" s="85">
-        <v>1.9146161004653714E-7</v>
+        <v>1.9145422697313555E-7</v>
       </c>
       <c r="K104" t="n" s="85">
-        <v>1.9146161004653711E-7</v>
+        <v>1.9145422697313555E-7</v>
       </c>
       <c r="L104" t="n" s="85">
         <v>1.0</v>
@@ -14228,16 +14228,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U104" t="n" s="85">
-        <v>1.7872583202483771E-7</v>
+        <v>1.7009705372325237E-7</v>
       </c>
       <c r="V104" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W104" t="n" s="85">
-        <v>3.0083348354638984E-7</v>
+        <v>2.863094074134044E-7</v>
       </c>
       <c r="X104" t="n" s="85">
-        <v>3.008334835463899E-7</v>
+        <v>2.8630940741340427E-7</v>
       </c>
       <c r="Y104" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14252,25 +14252,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC104" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD104" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE104" t="n" s="85">
-        <v>9.81719886715608E-7</v>
+        <v>9.817200733656863E-7</v>
       </c>
       <c r="AF104" t="n" s="85">
-        <v>9.817198867156075E-7</v>
+        <v>9.81720073365686E-7</v>
       </c>
       <c r="AG104" t="n" s="85">
-        <v>5.948519070955184E-9</v>
+        <v>5.948520201917631E-9</v>
       </c>
       <c r="AH104" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI104" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ104" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14279,7 +14279,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL104" t="n" s="85">
-        <v>0.7999408628156621</v>
+        <v>0.8050311012176543</v>
       </c>
       <c r="AM104" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -14288,16 +14288,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO104" t="n" s="85">
-        <v>0.9639753857674112</v>
+        <v>0.9634832047436531</v>
       </c>
       <c r="AP104" t="n" s="85">
         <v>0.7022311691808126</v>
       </c>
       <c r="AQ104" t="n" s="85">
-        <v>0.8380391459926596</v>
+        <v>0.8379582156947988</v>
       </c>
       <c r="AR104" t="n" s="85">
-        <v>0.19440794955518595</v>
+        <v>0.1918476436077711</v>
       </c>
     </row>
     <row r="105">
@@ -14353,16 +14353,16 @@
         <v>8.770521436087226E-4</v>
       </c>
       <c r="U105" t="n" s="85">
-        <v>1.8947431024050212E-7</v>
+        <v>1.8032660181098265E-7</v>
       </c>
       <c r="V105" t="n" s="85">
         <v>0.00145562985155162</v>
       </c>
       <c r="W105" t="n" s="85">
-        <v>3.1361173483683473E-7</v>
+        <v>2.984707319009978E-7</v>
       </c>
       <c r="X105" t="n" s="85">
-        <v>3.1361173483683483E-7</v>
+        <v>2.9847073190099774E-7</v>
       </c>
       <c r="Y105" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14377,25 +14377,25 @@
         <v>0.08371583534335035</v>
       </c>
       <c r="AC105" t="n" s="85">
-        <v>8.057883387276074E-6</v>
+        <v>8.057884919309209E-6</v>
       </c>
       <c r="AD105" t="n" s="85">
-        <v>8.057883387276074E-6</v>
+        <v>8.05788491930921E-6</v>
       </c>
       <c r="AE105" t="n" s="85">
-        <v>1.0234196930953151E-6</v>
+        <v>1.0234198876735863E-6</v>
       </c>
       <c r="AF105" t="n" s="85">
-        <v>1.0234196930953147E-6</v>
+        <v>1.0234198876735863E-6</v>
       </c>
       <c r="AG105" t="n" s="85">
-        <v>6.201188940876664E-9</v>
+        <v>6.201190119877979E-9</v>
       </c>
       <c r="AH105" t="n" s="85">
         <v>0.008656223452868008</v>
       </c>
       <c r="AI105" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ105" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14404,7 +14404,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL105" t="n" s="85">
-        <v>0.9588934041585137</v>
+        <v>0.9583700219015043</v>
       </c>
       <c r="AM105" t="n" s="85">
         <v>0.7618433263360781</v>
@@ -14413,16 +14413,16 @@
         <v>0.9725670321348393</v>
       </c>
       <c r="AO105" t="n" s="85">
-        <v>0.9948953181238788</v>
+        <v>0.9949833753960804</v>
       </c>
       <c r="AP105" t="n" s="85">
         <v>0.7104012092184577</v>
       </c>
       <c r="AQ105" t="n" s="85">
-        <v>0.8858876160271794</v>
+        <v>0.8858273377855699</v>
       </c>
       <c r="AR105" t="n" s="85">
-        <v>0.7460092324736864</v>
+        <v>0.7488671605014352</v>
       </c>
     </row>
     <row r="106">
@@ -14445,10 +14445,10 @@
         <v>1.0</v>
       </c>
       <c r="J106" t="n" s="85">
-        <v>2.49605896598924E-7</v>
+        <v>2.495962713871209E-7</v>
       </c>
       <c r="K106" t="n" s="85">
-        <v>2.496058965989239E-7</v>
+        <v>2.495962713871208E-7</v>
       </c>
       <c r="L106" t="n" s="85">
         <v>0.003793892691849024</v>
@@ -14478,16 +14478,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U106" t="n" s="85">
-        <v>1.3962783003518792E-6</v>
+        <v>1.3820402779310105E-6</v>
       </c>
       <c r="V106" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W106" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="X106" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="Y106" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -14502,16 +14502,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC106" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AD106" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AE106" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AF106" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AG106" t="n" s="85">
         <v>1.0</v>
@@ -14520,7 +14520,7 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI106" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ106" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14529,7 +14529,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL106" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM106" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -14538,16 +14538,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO106" t="n" s="85">
-        <v>0.8794752411305314</v>
+        <v>0.8779747284685298</v>
       </c>
       <c r="AP106" t="n" s="85">
         <v>0.7880370721946086</v>
       </c>
       <c r="AQ106" t="n" s="85">
-        <v>0.9425177848104204</v>
+        <v>0.9424854785357598</v>
       </c>
       <c r="AR106" t="n" s="85">
-        <v>0.17255269425420267</v>
+        <v>0.17021939939708594</v>
       </c>
     </row>
     <row r="107">
@@ -14609,10 +14609,10 @@
         <v>0.004584923014855984</v>
       </c>
       <c r="W107" t="n" s="85">
-        <v>2.2123196722708593E-6</v>
+        <v>2.268548225728426E-6</v>
       </c>
       <c r="X107" t="n" s="85">
-        <v>2.212319672270858E-6</v>
+        <v>2.268548225728426E-6</v>
       </c>
       <c r="Y107" t="n" s="85">
         <v>0.31017963373650476</v>
@@ -14627,25 +14627,25 @@
         <v>0.14097779630812562</v>
       </c>
       <c r="AC107" t="n" s="85">
-        <v>4.801863878341826E-5</v>
+        <v>4.9940034868885394E-5</v>
       </c>
       <c r="AD107" t="n" s="85">
-        <v>4.8018638783418244E-5</v>
+        <v>4.994003486888538E-5</v>
       </c>
       <c r="AE107" t="n" s="85">
-        <v>6.6727736337308525E-6</v>
+        <v>6.939779350093478E-6</v>
       </c>
       <c r="AF107" t="n" s="85">
-        <v>6.6727736337308465E-6</v>
+        <v>6.939779350093475E-6</v>
       </c>
       <c r="AG107" t="n" s="85">
-        <v>7.443263560610803E-8</v>
+        <v>7.741100475946043E-8</v>
       </c>
       <c r="AH107" t="n" s="85">
         <v>0.010125158247871595</v>
       </c>
       <c r="AI107" t="n" s="85">
-        <v>9.005143198247796E-5</v>
+        <v>9.365485689573573E-5</v>
       </c>
       <c r="AJ107" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14669,10 +14669,10 @@
         <v>0.906851581495695</v>
       </c>
       <c r="AQ107" t="n" s="85">
-        <v>0.9948428273841181</v>
+        <v>0.994839767932971</v>
       </c>
       <c r="AR107" t="n" s="85">
-        <v>0.8459848461748778</v>
+        <v>0.8456784302974667</v>
       </c>
     </row>
     <row r="108">
@@ -14695,10 +14695,10 @@
         <v>1.0</v>
       </c>
       <c r="J108" t="n" s="85">
-        <v>2.339531403272012E-6</v>
+        <v>2.339485585945024E-6</v>
       </c>
       <c r="K108" t="n" s="85">
-        <v>2.339531403272012E-6</v>
+        <v>2.339485585945024E-6</v>
       </c>
       <c r="L108" t="n" s="85">
         <v>1.0</v>
@@ -14734,10 +14734,10 @@
         <v>0.003538076608563923</v>
       </c>
       <c r="W108" t="n" s="85">
-        <v>2.171203875708047E-6</v>
+        <v>2.1714433274594245E-6</v>
       </c>
       <c r="X108" t="n" s="85">
-        <v>2.171203875708047E-6</v>
+        <v>2.1714433274594245E-6</v>
       </c>
       <c r="Y108" t="n" s="85">
         <v>0.2295309259513399</v>
@@ -14752,13 +14752,13 @@
         <v>0.10643391811373118</v>
       </c>
       <c r="AC108" t="n" s="85">
-        <v>4.174201618619355E-5</v>
+        <v>4.174938314300145E-5</v>
       </c>
       <c r="AD108" t="n" s="85">
         <v>1.0</v>
       </c>
       <c r="AE108" t="n" s="85">
-        <v>6.257570040039038E-6</v>
+        <v>6.258674433629427E-6</v>
       </c>
       <c r="AF108" t="n" s="85">
         <v>1.0</v>
@@ -14770,7 +14770,7 @@
         <v>0.013372450101996248</v>
       </c>
       <c r="AI108" t="n" s="85">
-        <v>1.464414487950352E-4</v>
+        <v>1.4646729348138013E-4</v>
       </c>
       <c r="AJ108" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14779,7 +14779,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL108" t="n" s="85">
-        <v>0.997842734389087</v>
+        <v>0.9976827273022015</v>
       </c>
       <c r="AM108" t="n" s="85">
         <v>0.7542949324969372</v>
@@ -14788,7 +14788,7 @@
         <v>0.9892815933705493</v>
       </c>
       <c r="AO108" t="n" s="85">
-        <v>0.9999999864908666</v>
+        <v>0.9999999873606185</v>
       </c>
       <c r="AP108" t="n" s="85">
         <v>0.8753024662366633</v>
@@ -14820,10 +14820,10 @@
         <v>1.0</v>
       </c>
       <c r="J109" t="n" s="85">
-        <v>1.1576146471991003E-7</v>
+        <v>1.1575700076781224E-7</v>
       </c>
       <c r="K109" t="n" s="85">
-        <v>1.1576146471991E-7</v>
+        <v>1.1575700076781223E-7</v>
       </c>
       <c r="L109" t="n" s="85">
         <v>1.0</v>
@@ -14853,16 +14853,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U109" t="n" s="85">
-        <v>1.2434596759971625E-7</v>
+        <v>1.183426169341277E-7</v>
       </c>
       <c r="V109" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W109" t="n" s="85">
-        <v>2.0930060971235353E-7</v>
+        <v>1.991956898107408E-7</v>
       </c>
       <c r="X109" t="n" s="85">
-        <v>2.0930060971235343E-7</v>
+        <v>1.9919568981074075E-7</v>
       </c>
       <c r="Y109" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14877,25 +14877,25 @@
         <v>0.0755765696538819</v>
       </c>
       <c r="AC109" t="n" s="85">
-        <v>7.0896740275264555E-6</v>
+        <v>7.089675375476723E-6</v>
       </c>
       <c r="AD109" t="n" s="85">
-        <v>7.0896740275264555E-6</v>
+        <v>7.089675375476723E-6</v>
       </c>
       <c r="AE109" t="n" s="85">
-        <v>6.830171161448123E-7</v>
+        <v>6.830172460038869E-7</v>
       </c>
       <c r="AF109" t="n" s="85">
-        <v>6.830171161448121E-7</v>
+        <v>6.830172460038869E-7</v>
       </c>
       <c r="AG109" t="n" s="85">
-        <v>4.138599066029881E-9</v>
+        <v>4.1385998528812096E-9</v>
       </c>
       <c r="AH109" t="n" s="85">
         <v>0.007798131006425883</v>
       </c>
       <c r="AI109" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ109" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -14904,7 +14904,7 @@
         <v>0.7493507261997666</v>
       </c>
       <c r="AL109" t="n" s="85">
-        <v>0.6559941673459166</v>
+        <v>0.6632049203290852</v>
       </c>
       <c r="AM109" t="n" s="85">
         <v>0.6488689650755356</v>
@@ -14913,16 +14913,16 @@
         <v>0.9006536904692353</v>
       </c>
       <c r="AO109" t="n" s="85">
-        <v>0.6410269855819499</v>
+        <v>0.6377804930233285</v>
       </c>
       <c r="AP109" t="n" s="85">
         <v>0.6311212816565784</v>
       </c>
       <c r="AQ109" t="n" s="85">
-        <v>0.5544048270406432</v>
+        <v>0.5542575514362176</v>
       </c>
       <c r="AR109" t="n" s="85">
-        <v>0.01110697990013572</v>
+        <v>0.01092795703064597</v>
       </c>
     </row>
     <row r="110">
@@ -14945,7 +14945,7 @@
         <v>1.0</v>
       </c>
       <c r="J110" t="n" s="85">
-        <v>3.139685926359801E-7</v>
+        <v>3.1396614678872976E-7</v>
       </c>
       <c r="K110" t="n" s="85">
         <v>1.0</v>
@@ -14978,16 +14978,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U110" t="n" s="85">
-        <v>2.429029416414488E-7</v>
+        <v>2.3335476683356373E-7</v>
       </c>
       <c r="V110" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W110" t="n" s="85">
-        <v>4.08857211483243E-7</v>
+        <v>3.92785593831082E-7</v>
       </c>
       <c r="X110" t="n" s="85">
-        <v>4.08857211483243E-7</v>
+        <v>3.92785593831082E-7</v>
       </c>
       <c r="Y110" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -15002,25 +15002,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC110" t="n" s="85">
-        <v>1.0604170427980372E-5</v>
+        <v>1.0604172065004714E-5</v>
       </c>
       <c r="AD110" t="n" s="85">
-        <v>1.0604170427980373E-5</v>
+        <v>1.060417206500472E-5</v>
       </c>
       <c r="AE110" t="n" s="85">
-        <v>1.3468145251880397E-6</v>
+        <v>1.3468147331005211E-6</v>
       </c>
       <c r="AF110" t="n" s="85">
-        <v>1.3468145251880397E-6</v>
+        <v>1.3468147331005207E-6</v>
       </c>
       <c r="AG110" t="n" s="85">
-        <v>8.160723437848177E-9</v>
+        <v>8.160724697644454E-9</v>
       </c>
       <c r="AH110" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI110" t="n" s="85">
-        <v>6.285663074607883E-5</v>
+        <v>6.285664044978535E-5</v>
       </c>
       <c r="AJ110" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -15029,7 +15029,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL110" t="n" s="85">
-        <v>0.9088532830849264</v>
+        <v>0.9106114666964765</v>
       </c>
       <c r="AM110" t="n" s="85">
         <v>0.7202792732449278</v>
@@ -15038,16 +15038,16 @@
         <v>0.9754093150454533</v>
       </c>
       <c r="AO110" t="n" s="85">
-        <v>0.9985780536726471</v>
+        <v>0.9985646622000542</v>
       </c>
       <c r="AP110" t="n" s="85">
         <v>0.7202792732449278</v>
       </c>
       <c r="AQ110" t="n" s="85">
-        <v>0.9173926923979498</v>
+        <v>0.9173650164619496</v>
       </c>
       <c r="AR110" t="n" s="85">
-        <v>0.900109484134757</v>
+        <v>0.8990701920869538</v>
       </c>
     </row>
     <row r="111">
@@ -15103,16 +15103,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U111" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V111" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W111" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X111" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y111" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -15127,25 +15127,25 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC111" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD111" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE111" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF111" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG111" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH111" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI111" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ111" t="n" s="85">
         <v>0.5641619091873643</v>
@@ -15154,7 +15154,7 @@
         <v>0.777423483858662</v>
       </c>
       <c r="AL111" t="n" s="85">
-        <v>0.7379575349254308</v>
+        <v>0.7441203899833883</v>
       </c>
       <c r="AM111" t="n" s="85">
         <v>0.7022311691808126</v>
@@ -15163,16 +15163,16 @@
         <v>0.9633632990999638</v>
       </c>
       <c r="AO111" t="n" s="85">
-        <v>0.867498528376246</v>
+        <v>0.8658716480807599</v>
       </c>
       <c r="AP111" t="n" s="85">
         <v>0.7022311691808126</v>
       </c>
       <c r="AQ111" t="n" s="85">
-        <v>0.7958241458824525</v>
+        <v>0.7957272629364364</v>
       </c>
       <c r="AR111" t="n" s="85">
-        <v>0.04258334267144324</v>
+        <v>0.0419184878679326</v>
       </c>
     </row>
   </sheetData>
